--- a/dd.xlsx
+++ b/dd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,22 +498,22 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44313.375</v>
+        <v>44319.375</v>
       </c>
       <c r="B2" t="n">
-        <v>64198000</v>
+        <v>68452000</v>
       </c>
       <c r="C2" t="n">
-        <v>64888000</v>
+        <v>70999000</v>
       </c>
       <c r="D2" t="n">
-        <v>63375000</v>
+        <v>68281000</v>
       </c>
       <c r="E2" t="n">
-        <v>64093000</v>
+        <v>69908000</v>
       </c>
       <c r="F2" t="n">
-        <v>7207.30854708</v>
+        <v>7077.06762356</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -524,25 +524,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44307.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B3" t="n">
-        <v>70400000</v>
+        <v>64198000</v>
       </c>
       <c r="C3" t="n">
-        <v>71490000</v>
+        <v>65000000</v>
       </c>
       <c r="D3" t="n">
-        <v>67601000</v>
+        <v>63375000</v>
       </c>
       <c r="E3" t="n">
-        <v>68198000</v>
+        <v>64767000</v>
       </c>
       <c r="F3" t="n">
-        <v>8571.4338816</v>
+        <v>8003.35594526</v>
       </c>
       <c r="G3" t="n">
-        <v>1944500</v>
+        <v>812500</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -562,37 +562,37 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44308.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B4" t="n">
-        <v>68193000</v>
+        <v>64759000</v>
       </c>
       <c r="C4" t="n">
-        <v>69000000</v>
+        <v>65899000</v>
       </c>
       <c r="D4" t="n">
-        <v>59111000</v>
+        <v>62608000</v>
       </c>
       <c r="E4" t="n">
-        <v>59962000</v>
+        <v>64100000</v>
       </c>
       <c r="F4" t="n">
-        <v>20651.7877077</v>
+        <v>8304.377217540001</v>
       </c>
       <c r="G4" t="n">
-        <v>4944500</v>
+        <v>1645500</v>
       </c>
       <c r="H4" t="n">
-        <v>70137500</v>
+        <v>65571500</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.9775588479751112</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.9775588479751112</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2.244115202488883</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -602,37 +602,37 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44309.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B5" t="n">
-        <v>59950000</v>
+        <v>64060000</v>
       </c>
       <c r="C5" t="n">
-        <v>61900000</v>
+        <v>64900000</v>
       </c>
       <c r="D5" t="n">
-        <v>54964000</v>
+        <v>63000000</v>
       </c>
       <c r="E5" t="n">
-        <v>60900000</v>
+        <v>63814000</v>
       </c>
       <c r="F5" t="n">
-        <v>21936.25374819</v>
+        <v>9270.474732729999</v>
       </c>
       <c r="G5" t="n">
-        <v>3468000</v>
+        <v>950000</v>
       </c>
       <c r="H5" t="n">
-        <v>64894500</v>
+        <v>65705500</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9775588479751112</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2.244115202488883</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -642,34 +642,34 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44310.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B6" t="n">
-        <v>60901000</v>
+        <v>63816000</v>
       </c>
       <c r="C6" t="n">
-        <v>62519000</v>
+        <v>68540000</v>
       </c>
       <c r="D6" t="n">
-        <v>58500000</v>
+        <v>63500000</v>
       </c>
       <c r="E6" t="n">
-        <v>60853000</v>
+        <v>67939000</v>
       </c>
       <c r="F6" t="n">
-        <v>9176.44794263</v>
+        <v>18322.27248634</v>
       </c>
       <c r="G6" t="n">
-        <v>2009500</v>
+        <v>2520000</v>
       </c>
       <c r="H6" t="n">
-        <v>64369000</v>
+        <v>64766000</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.048991754933144</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>1.025451171487834</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -682,34 +682,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44311.375</v>
+        <v>44317.375</v>
       </c>
       <c r="B7" t="n">
-        <v>60853000</v>
+        <v>67956000</v>
       </c>
       <c r="C7" t="n">
-        <v>62050000</v>
+        <v>69386000</v>
       </c>
       <c r="D7" t="n">
-        <v>57327000</v>
+        <v>67557000</v>
       </c>
       <c r="E7" t="n">
-        <v>59859000</v>
+        <v>69049000</v>
       </c>
       <c r="F7" t="n">
-        <v>8791.23902271</v>
+        <v>9860.607521620001</v>
       </c>
       <c r="G7" t="n">
-        <v>2361500</v>
+        <v>914500</v>
       </c>
       <c r="H7" t="n">
-        <v>62862500</v>
+        <v>70476000</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>1.025451171487834</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -722,34 +722,34 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44312.375</v>
+        <v>44318.375</v>
       </c>
       <c r="B8" t="n">
-        <v>59850000</v>
+        <v>69041000</v>
       </c>
       <c r="C8" t="n">
-        <v>64300000</v>
+        <v>69297000</v>
       </c>
       <c r="D8" t="n">
-        <v>59075000</v>
+        <v>66803000</v>
       </c>
       <c r="E8" t="n">
-        <v>64198000</v>
+        <v>68452000</v>
       </c>
       <c r="F8" t="n">
-        <v>10197.96059839</v>
+        <v>7970.05825148</v>
       </c>
       <c r="G8" t="n">
-        <v>2612500</v>
+        <v>1247000</v>
       </c>
       <c r="H8" t="n">
-        <v>62211500</v>
+        <v>69955500</v>
       </c>
       <c r="I8" t="n">
-        <v>1.031931395320801</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.031931395320801</v>
+        <v>1.025451171487834</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -762,34 +762,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44313.375</v>
+        <v>44319.375</v>
       </c>
       <c r="B9" t="n">
-        <v>64198000</v>
+        <v>68452000</v>
       </c>
       <c r="C9" t="n">
-        <v>64888000</v>
+        <v>70999000</v>
       </c>
       <c r="D9" t="n">
-        <v>63375000</v>
+        <v>68281000</v>
       </c>
       <c r="E9" t="n">
-        <v>64093000</v>
+        <v>69908000</v>
       </c>
       <c r="F9" t="n">
-        <v>7207.30854708</v>
+        <v>7077.11036544</v>
       </c>
       <c r="G9" t="n">
-        <v>756500</v>
+        <v>1359000</v>
       </c>
       <c r="H9" t="n">
-        <v>66810500</v>
+        <v>69699000</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>1.00299860830141</v>
       </c>
       <c r="J9" t="n">
-        <v>1.031931395320801</v>
+        <v>1.028526097883349</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -802,25 +802,25 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44307.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B10" t="n">
-        <v>1720</v>
+        <v>325</v>
       </c>
       <c r="C10" t="n">
-        <v>1840</v>
+        <v>335</v>
       </c>
       <c r="D10" t="n">
-        <v>1615</v>
+        <v>310</v>
       </c>
       <c r="E10" t="n">
-        <v>1635</v>
+        <v>322</v>
       </c>
       <c r="F10" t="n">
-        <v>1092941870.126181</v>
+        <v>2555108535.096501</v>
       </c>
       <c r="G10" t="n">
-        <v>112.5</v>
+        <v>12.5</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
@@ -834,271 +834,271 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>KRW-XRP</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44308.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B11" t="n">
-        <v>1635</v>
+        <v>322</v>
       </c>
       <c r="C11" t="n">
-        <v>1690</v>
+        <v>419</v>
       </c>
       <c r="D11" t="n">
-        <v>1290</v>
+        <v>298</v>
       </c>
       <c r="E11" t="n">
-        <v>1335</v>
+        <v>376</v>
       </c>
       <c r="F11" t="n">
-        <v>1795226480.007295</v>
+        <v>12573607576.24574</v>
       </c>
       <c r="G11" t="n">
-        <v>200</v>
+        <v>60.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1747.5</v>
+        <v>334.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>1.12406576980568</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>1.12406576980568</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>KRW-XRP</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44309.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B12" t="n">
-        <v>1340</v>
+        <v>377</v>
       </c>
       <c r="C12" t="n">
-        <v>1420</v>
+        <v>388</v>
       </c>
       <c r="D12" t="n">
-        <v>1045</v>
+        <v>354</v>
       </c>
       <c r="E12" t="n">
-        <v>1390</v>
+        <v>363</v>
       </c>
       <c r="F12" t="n">
-        <v>2987013664.52332</v>
+        <v>2942668995.732259</v>
       </c>
       <c r="G12" t="n">
-        <v>187.5</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>1540</v>
+        <v>437.5</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>1.12406576980568</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>KRW-XRP</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44310.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B13" t="n">
-        <v>1390</v>
+        <v>363</v>
       </c>
       <c r="C13" t="n">
-        <v>1395</v>
+        <v>405</v>
       </c>
       <c r="D13" t="n">
-        <v>1240</v>
+        <v>360</v>
       </c>
       <c r="E13" t="n">
-        <v>1275</v>
+        <v>398</v>
       </c>
       <c r="F13" t="n">
-        <v>1035477972.078951</v>
+        <v>2756637378.346507</v>
       </c>
       <c r="G13" t="n">
-        <v>77.5</v>
+        <v>22.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1577.5</v>
+        <v>380</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>1.047368421052632</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>1.177310990480686</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>KRW-XRP</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44311.375</v>
+        <v>44317.375</v>
       </c>
       <c r="B14" t="n">
-        <v>1280</v>
+        <v>397</v>
       </c>
       <c r="C14" t="n">
-        <v>1410</v>
+        <v>474</v>
       </c>
       <c r="D14" t="n">
-        <v>1155</v>
+        <v>384</v>
       </c>
       <c r="E14" t="n">
-        <v>1260</v>
+        <v>465</v>
       </c>
       <c r="F14" t="n">
-        <v>1105157531.06521</v>
+        <v>5159788208.249722</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5</v>
+        <v>45</v>
       </c>
       <c r="H14" t="n">
-        <v>1357.5</v>
+        <v>419.5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9281767955801105</v>
+        <v>1.108462455303933</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9281767955801105</v>
+        <v>1.305005031164527</v>
       </c>
       <c r="K14" t="n">
-        <v>7.182320441988955</v>
+        <v>0</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>KRW-XRP</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44312.375</v>
+        <v>44318.375</v>
       </c>
       <c r="B15" t="n">
-        <v>1265</v>
+        <v>464</v>
       </c>
       <c r="C15" t="n">
-        <v>1630</v>
+        <v>483</v>
       </c>
       <c r="D15" t="n">
-        <v>1230</v>
+        <v>434</v>
       </c>
       <c r="E15" t="n">
-        <v>1615</v>
+        <v>453</v>
       </c>
       <c r="F15" t="n">
-        <v>1658184783.299813</v>
+        <v>3530273013.891833</v>
       </c>
       <c r="G15" t="n">
-        <v>200</v>
+        <v>24.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1392.5</v>
+        <v>509</v>
       </c>
       <c r="I15" t="n">
-        <v>1.159784560143627</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.076485116597399</v>
+        <v>1.305005031164527</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>KRW-XRP</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44313.375</v>
+        <v>44319.375</v>
       </c>
       <c r="B16" t="n">
-        <v>1615</v>
+        <v>453</v>
       </c>
       <c r="C16" t="n">
-        <v>1750</v>
+        <v>494</v>
       </c>
       <c r="D16" t="n">
-        <v>1575</v>
+        <v>453</v>
       </c>
       <c r="E16" t="n">
-        <v>1625</v>
+        <v>481</v>
       </c>
       <c r="F16" t="n">
-        <v>1397505081.02339</v>
+        <v>2253910777.799655</v>
       </c>
       <c r="G16" t="n">
-        <v>87.5</v>
+        <v>20.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1815</v>
+        <v>477.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>1.007329842931937</v>
       </c>
       <c r="J16" t="n">
-        <v>1.076485116597399</v>
+        <v>1.314570513068351</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>KRW-XRP</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44307.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B17" t="n">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="C17" t="n">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="D17" t="n">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="E17" t="n">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="F17" t="n">
-        <v>1843057505.097155</v>
+        <v>2670477340.686671</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
@@ -1118,28 +1118,28 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44308.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B18" t="n">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="C18" t="n">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="D18" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E18" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F18" t="n">
-        <v>4598875955.951946</v>
+        <v>1998336726.925266</v>
       </c>
       <c r="G18" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>308</v>
+        <v>267.5</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1158,28 +1158,28 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44309.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B19" t="n">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C19" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D19" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="E19" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F19" t="n">
-        <v>9786907408.931677</v>
+        <v>1099180545.914981</v>
       </c>
       <c r="G19" t="n">
-        <v>47.5</v>
+        <v>9.5</v>
       </c>
       <c r="H19" t="n">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1198,34 +1198,34 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44310.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B20" t="n">
+        <v>227</v>
+      </c>
+      <c r="C20" t="n">
         <v>242</v>
       </c>
-      <c r="C20" t="n">
-        <v>249</v>
-      </c>
       <c r="D20" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E20" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F20" t="n">
-        <v>3473436832.743413</v>
+        <v>1274774678.973034</v>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>289.5</v>
+        <v>236.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>1.002114164904863</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>1.002114164904863</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1238,37 +1238,37 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44311.375</v>
+        <v>44317.375</v>
       </c>
       <c r="B21" t="n">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C21" t="n">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D21" t="n">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="E21" t="n">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="F21" t="n">
-        <v>3108743254.365941</v>
+        <v>1099209383.076911</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="H21" t="n">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.9838056680161943</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0.985885595432719</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.619433198380572</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1278,37 +1278,37 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44312.375</v>
+        <v>44318.375</v>
       </c>
       <c r="B22" t="n">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="C22" t="n">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="D22" t="n">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="E22" t="n">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="F22" t="n">
-        <v>2148877880.081886</v>
+        <v>2009108457.321046</v>
       </c>
       <c r="G22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="H22" t="n">
-        <v>225</v>
+        <v>251.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9955555555555555</v>
+        <v>1.033797216699801</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9955555555555555</v>
+        <v>1.019205784542771</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4444444444444473</v>
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1318,34 +1318,34 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44313.375</v>
+        <v>44319.375</v>
       </c>
       <c r="B23" t="n">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D23" t="n">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="E23" t="n">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F23" t="n">
-        <v>2506345080.988484</v>
+        <v>782490693.8145126</v>
       </c>
       <c r="G23" t="n">
-        <v>22.5</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>240.5</v>
+        <v>276.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.006237006237006</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.001764841764842</v>
+        <v>1.019205784542771</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1358,25 +1358,25 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44307.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B24" t="n">
-        <v>56.1</v>
+        <v>43.6</v>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>53.7</v>
       </c>
       <c r="D24" t="n">
-        <v>52.5</v>
+        <v>41.5</v>
       </c>
       <c r="E24" t="n">
-        <v>53.7</v>
+        <v>48.5</v>
       </c>
       <c r="F24" t="n">
-        <v>2088569851.212676</v>
+        <v>4160265909.628507</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
@@ -1396,28 +1396,28 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44308.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B25" t="n">
-        <v>53.7</v>
+        <v>48.5</v>
       </c>
       <c r="C25" t="n">
-        <v>54.5</v>
+        <v>52.3</v>
       </c>
       <c r="D25" t="n">
-        <v>37.5</v>
+        <v>41.4</v>
       </c>
       <c r="E25" t="n">
-        <v>40.3</v>
+        <v>46.2</v>
       </c>
       <c r="F25" t="n">
-        <v>2800087028.367721</v>
+        <v>2612684444.567986</v>
       </c>
       <c r="G25" t="n">
-        <v>8.5</v>
+        <v>5.449999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>57.45</v>
+        <v>54.6</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1436,28 +1436,28 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44309.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B26" t="n">
-        <v>40.2</v>
+        <v>46.2</v>
       </c>
       <c r="C26" t="n">
-        <v>41.8</v>
+        <v>46.9</v>
       </c>
       <c r="D26" t="n">
-        <v>26.5</v>
+        <v>43.3</v>
       </c>
       <c r="E26" t="n">
-        <v>41.1</v>
+        <v>45</v>
       </c>
       <c r="F26" t="n">
-        <v>3080453008.538414</v>
+        <v>954587742.5961142</v>
       </c>
       <c r="G26" t="n">
-        <v>7.649999999999999</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>48.7</v>
+        <v>51.65000000000001</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1476,34 +1476,34 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44310.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B27" t="n">
-        <v>41.2</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>42.8</v>
+        <v>48.5</v>
       </c>
       <c r="D27" t="n">
-        <v>36.8</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
-        <v>38.2</v>
+        <v>48.1</v>
       </c>
       <c r="F27" t="n">
-        <v>1814573727.165571</v>
+        <v>808430094.6499189</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="H27" t="n">
-        <v>48.85</v>
+        <v>46.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>1.027777777777778</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>1.027777777777778</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1516,37 +1516,37 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44311.375</v>
+        <v>44317.375</v>
       </c>
       <c r="B28" t="n">
-        <v>38.1</v>
+        <v>48.1</v>
       </c>
       <c r="C28" t="n">
-        <v>42.8</v>
+        <v>49</v>
       </c>
       <c r="D28" t="n">
-        <v>33.5</v>
+        <v>45.9</v>
       </c>
       <c r="E28" t="n">
-        <v>37.8</v>
+        <v>47.7</v>
       </c>
       <c r="F28" t="n">
-        <v>1982792686.805807</v>
+        <v>812731622.9144793</v>
       </c>
       <c r="G28" t="n">
-        <v>4.649999999999999</v>
+        <v>1.550000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>41.1</v>
+        <v>50.35</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9197080291970802</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9197080291970802</v>
+        <v>1.027777777777778</v>
       </c>
       <c r="K28" t="n">
-        <v>8.029197080291983</v>
+        <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1556,37 +1556,37 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44312.375</v>
+        <v>44318.375</v>
       </c>
       <c r="B29" t="n">
-        <v>37.7</v>
+        <v>47.7</v>
       </c>
       <c r="C29" t="n">
-        <v>44.2</v>
+        <v>54</v>
       </c>
       <c r="D29" t="n">
-        <v>36.4</v>
+        <v>47.2</v>
       </c>
       <c r="E29" t="n">
-        <v>43.7</v>
+        <v>49.9</v>
       </c>
       <c r="F29" t="n">
-        <v>1851954576.84044</v>
+        <v>3202139199.788204</v>
       </c>
       <c r="G29" t="n">
-        <v>3.900000000000002</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>42.35</v>
+        <v>49.25</v>
       </c>
       <c r="I29" t="n">
-        <v>1.031877213695396</v>
+        <v>1.013197969543147</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9490257585811666</v>
+        <v>1.041342357586013</v>
       </c>
       <c r="K29" t="n">
-        <v>5.097424141883344</v>
+        <v>0</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1596,37 +1596,37 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44313.375</v>
+        <v>44319.375</v>
       </c>
       <c r="B30" t="n">
-        <v>43.6</v>
+        <v>49.9</v>
       </c>
       <c r="C30" t="n">
-        <v>53.7</v>
+        <v>51.4</v>
       </c>
       <c r="D30" t="n">
-        <v>41.5</v>
+        <v>49</v>
       </c>
       <c r="E30" t="n">
-        <v>46.4</v>
+        <v>49.9</v>
       </c>
       <c r="F30" t="n">
-        <v>3779640132.094606</v>
+        <v>917201721.2036276</v>
       </c>
       <c r="G30" t="n">
-        <v>6.100000000000001</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>47.5</v>
+        <v>53.3</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9768421052631578</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9270483199613921</v>
+        <v>1.041342357586013</v>
       </c>
       <c r="K30" t="n">
-        <v>7.295168003860786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1636,25 +1636,25 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44307.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B31" t="n">
-        <v>43030</v>
+        <v>39080</v>
       </c>
       <c r="C31" t="n">
-        <v>44120</v>
+        <v>40530</v>
       </c>
       <c r="D31" t="n">
-        <v>39710</v>
+        <v>37470</v>
       </c>
       <c r="E31" t="n">
-        <v>40590</v>
+        <v>39880</v>
       </c>
       <c r="F31" t="n">
-        <v>5816937.54615818</v>
+        <v>9536090.71683709</v>
       </c>
       <c r="G31" t="n">
-        <v>2205</v>
+        <v>1530</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
@@ -1674,37 +1674,37 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44308.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B32" t="n">
-        <v>40600</v>
+        <v>39880</v>
       </c>
       <c r="C32" t="n">
-        <v>48190</v>
+        <v>43670</v>
       </c>
       <c r="D32" t="n">
-        <v>37100</v>
+        <v>37590</v>
       </c>
       <c r="E32" t="n">
-        <v>39510</v>
+        <v>41190</v>
       </c>
       <c r="F32" t="n">
-        <v>34800338.91153989</v>
+        <v>17173412.23946387</v>
       </c>
       <c r="G32" t="n">
-        <v>5545</v>
+        <v>3040</v>
       </c>
       <c r="H32" t="n">
-        <v>42805</v>
+        <v>41410</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9230230113304521</v>
+        <v>0.9946872736054093</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9230230113304521</v>
+        <v>0.9946872736054093</v>
       </c>
       <c r="K32" t="n">
-        <v>7.697698866954794</v>
+        <v>0.5312726394590683</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1714,37 +1714,37 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44309.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B33" t="n">
-        <v>39500</v>
+        <v>41180</v>
       </c>
       <c r="C33" t="n">
-        <v>42150</v>
+        <v>41880</v>
       </c>
       <c r="D33" t="n">
-        <v>28670</v>
+        <v>39000</v>
       </c>
       <c r="E33" t="n">
-        <v>39400</v>
+        <v>41140</v>
       </c>
       <c r="F33" t="n">
-        <v>34688794.01484184</v>
+        <v>6699680.18118407</v>
       </c>
       <c r="G33" t="n">
-        <v>6740</v>
+        <v>1440</v>
       </c>
       <c r="H33" t="n">
-        <v>45045</v>
+        <v>44220</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9230230113304521</v>
+        <v>0.9946872736054093</v>
       </c>
       <c r="K33" t="n">
-        <v>7.697698866954794</v>
+        <v>0.5312726394590683</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1754,37 +1754,37 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44310.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B34" t="n">
-        <v>39410</v>
+        <v>41130</v>
       </c>
       <c r="C34" t="n">
-        <v>39930</v>
+        <v>43460</v>
       </c>
       <c r="D34" t="n">
-        <v>35260</v>
+        <v>40590</v>
       </c>
       <c r="E34" t="n">
-        <v>36280</v>
+        <v>42750</v>
       </c>
       <c r="F34" t="n">
-        <v>11464781.79794793</v>
+        <v>6328796.92304771</v>
       </c>
       <c r="G34" t="n">
-        <v>2335</v>
+        <v>1435</v>
       </c>
       <c r="H34" t="n">
-        <v>46150</v>
+        <v>42570</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>1.004228329809725</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9230230113304521</v>
+        <v>0.9988931394557493</v>
       </c>
       <c r="K34" t="n">
-        <v>7.697698866954794</v>
+        <v>0.1106860544250687</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1794,37 +1794,37 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44311.375</v>
+        <v>44317.375</v>
       </c>
       <c r="B35" t="n">
-        <v>36280</v>
+        <v>42730</v>
       </c>
       <c r="C35" t="n">
-        <v>39100</v>
+        <v>55000</v>
       </c>
       <c r="D35" t="n">
-        <v>33600</v>
+        <v>42620</v>
       </c>
       <c r="E35" t="n">
-        <v>36100</v>
+        <v>53400</v>
       </c>
       <c r="F35" t="n">
-        <v>11652264.51908075</v>
+        <v>28065781.15500577</v>
       </c>
       <c r="G35" t="n">
-        <v>2750</v>
+        <v>6190</v>
       </c>
       <c r="H35" t="n">
-        <v>38615</v>
+        <v>44165</v>
       </c>
       <c r="I35" t="n">
-        <v>0.934869869221805</v>
+        <v>1.20910223027284</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8629064018912164</v>
+        <v>1.207763922720186</v>
       </c>
       <c r="K35" t="n">
-        <v>13.70935981087836</v>
+        <v>0</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1834,37 +1834,37 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44312.375</v>
+        <v>44318.375</v>
       </c>
       <c r="B36" t="n">
-        <v>36010</v>
+        <v>53220</v>
       </c>
       <c r="C36" t="n">
-        <v>39230</v>
+        <v>58780</v>
       </c>
       <c r="D36" t="n">
-        <v>35000</v>
+        <v>50370</v>
       </c>
       <c r="E36" t="n">
-        <v>39080</v>
+        <v>54380</v>
       </c>
       <c r="F36" t="n">
-        <v>9228909.62722843</v>
+        <v>24834286.70194932</v>
       </c>
       <c r="G36" t="n">
-        <v>2115</v>
+        <v>4205</v>
       </c>
       <c r="H36" t="n">
-        <v>38760</v>
+        <v>59410</v>
       </c>
       <c r="I36" t="n">
-        <v>1.008255933952528</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8700305001524441</v>
+        <v>1.207763922720186</v>
       </c>
       <c r="K36" t="n">
-        <v>12.99694998475559</v>
+        <v>0</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1874,37 +1874,37 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44313.375</v>
+        <v>44319.375</v>
       </c>
       <c r="B37" t="n">
-        <v>39080</v>
+        <v>54310</v>
       </c>
       <c r="C37" t="n">
-        <v>40530</v>
+        <v>62640</v>
       </c>
       <c r="D37" t="n">
-        <v>37470</v>
+        <v>53700</v>
       </c>
       <c r="E37" t="n">
-        <v>39200</v>
+        <v>59070</v>
       </c>
       <c r="F37" t="n">
-        <v>8658127.25080809</v>
+        <v>28679286.43149062</v>
       </c>
       <c r="G37" t="n">
-        <v>1530</v>
+        <v>4470</v>
       </c>
       <c r="H37" t="n">
-        <v>41195</v>
+        <v>58515</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>1.009484747500641</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8700305001524441</v>
+        <v>1.21921925856757</v>
       </c>
       <c r="K37" t="n">
-        <v>12.99694998475559</v>
+        <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1914,25 +1914,25 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44307.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B38" t="n">
-        <v>84.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>88.3</v>
+        <v>76.5</v>
       </c>
       <c r="D38" t="n">
-        <v>78.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>81.2</v>
+        <v>74.7</v>
       </c>
       <c r="F38" t="n">
-        <v>723982316.9412047</v>
+        <v>620082030.3171985</v>
       </c>
       <c r="G38" t="n">
-        <v>4.899999999999999</v>
+        <v>5.200000000000003</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
@@ -1952,28 +1952,28 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44308.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B39" t="n">
-        <v>81.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>82.8</v>
+        <v>79.3</v>
       </c>
       <c r="D39" t="n">
-        <v>54.6</v>
+        <v>67</v>
       </c>
       <c r="E39" t="n">
-        <v>58.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>945748499.8139795</v>
+        <v>499201037.7858518</v>
       </c>
       <c r="G39" t="n">
-        <v>14.1</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>86.19999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -1992,28 +1992,28 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44309.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B40" t="n">
-        <v>58.5</v>
+        <v>71.5</v>
       </c>
       <c r="C40" t="n">
-        <v>60.3</v>
+        <v>75.7</v>
       </c>
       <c r="D40" t="n">
-        <v>41.2</v>
+        <v>67.3</v>
       </c>
       <c r="E40" t="n">
-        <v>60.2</v>
+        <v>72.5</v>
       </c>
       <c r="F40" t="n">
-        <v>909435778.1123736</v>
+        <v>352262630.0792443</v>
       </c>
       <c r="G40" t="n">
-        <v>9.549999999999997</v>
+        <v>4.200000000000003</v>
       </c>
       <c r="H40" t="n">
-        <v>72.59999999999999</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -2032,34 +2032,34 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44310.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B41" t="n">
-        <v>60.1</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>63.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>54.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>55.7</v>
+        <v>81.3</v>
       </c>
       <c r="F41" t="n">
-        <v>400497587.9558572</v>
+        <v>249002416.1423054</v>
       </c>
       <c r="G41" t="n">
-        <v>4.200000000000003</v>
+        <v>5.25</v>
       </c>
       <c r="H41" t="n">
-        <v>69.65000000000001</v>
+        <v>76.60000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>1.061357702349869</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>1.061357702349869</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2072,37 +2072,37 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44311.375</v>
+        <v>44317.375</v>
       </c>
       <c r="B42" t="n">
-        <v>55.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>61.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>51.6</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>56.2</v>
+        <v>78.3</v>
       </c>
       <c r="F42" t="n">
-        <v>479612273.6535322</v>
+        <v>210283493.4041202</v>
       </c>
       <c r="G42" t="n">
-        <v>4.849999999999998</v>
+        <v>2.599999999999994</v>
       </c>
       <c r="H42" t="n">
-        <v>59.90000000000001</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9382303839732887</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9382303839732887</v>
+        <v>1.061357702349869</v>
       </c>
       <c r="K42" t="n">
-        <v>6.176961602671128</v>
+        <v>0</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2112,34 +2112,34 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44312.375</v>
+        <v>44318.375</v>
       </c>
       <c r="B43" t="n">
-        <v>56.4</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>69.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="D43" t="n">
-        <v>54.7</v>
+        <v>74.3</v>
       </c>
       <c r="E43" t="n">
-        <v>68.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="F43" t="n">
-        <v>565394557.4316578</v>
+        <v>207830571.739557</v>
       </c>
       <c r="G43" t="n">
-        <v>7.350000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="H43" t="n">
-        <v>61.25</v>
+        <v>81</v>
       </c>
       <c r="I43" t="n">
-        <v>1.116734693877551</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.047754420633028</v>
+        <v>1.061357702349869</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2152,41 +2152,319 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B44" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>226813231.8295095</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.449999999999996</v>
+      </c>
+      <c r="H44" t="n">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9942929613189602</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.055300492888139</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.5707038681039736</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>44313.375</v>
       </c>
-      <c r="B44" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="C44" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="E44" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="F44" t="n">
-        <v>574299913.9729376</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>75.75</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.9306930693069307</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.9751377776188577</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6.930693069306922</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>KRW-IOST</t>
+      <c r="B45" t="n">
+        <v>4300</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4895</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4155</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4845</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12544250.25308569</v>
+      </c>
+      <c r="G45" t="n">
+        <v>370</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4845</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4280</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4850</v>
+      </c>
+      <c r="F46" t="n">
+        <v>17088119.26683409</v>
+      </c>
+      <c r="G46" t="n">
+        <v>480</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5215</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9300095877277086</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9300095877277086</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.999041227229141</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4850</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5885</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4560</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5485</v>
+      </c>
+      <c r="F47" t="n">
+        <v>70759190.12374032</v>
+      </c>
+      <c r="G47" t="n">
+        <v>662.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5330</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.029080675422139</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.9570548946878953</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.294510531210472</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5485</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6300</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6185</v>
+      </c>
+      <c r="F48" t="n">
+        <v>21870386.34761748</v>
+      </c>
+      <c r="G48" t="n">
+        <v>515</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6147.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.006100040666938</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9628929684659834</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.710703153401662</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5955</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6060</v>
+      </c>
+      <c r="F49" t="n">
+        <v>46545611.28324727</v>
+      </c>
+      <c r="G49" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6705</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9038031319910514</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8702656806717165</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12.97343193282835</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5515</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6595</v>
+      </c>
+      <c r="F50" t="n">
+        <v>19551898.83518475</v>
+      </c>
+      <c r="G50" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6582.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.001898974553741</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.8719182930543061</v>
+      </c>
+      <c r="K50" t="n">
+        <v>12.80817069456939</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6590</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7050</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6305</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6965</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25443508.30630369</v>
+      </c>
+      <c r="G51" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7142.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8719182930543061</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12.80817069456939</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
         </is>
       </c>
     </row>

--- a/dd.xlsx
+++ b/dd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,22 +498,22 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44319.375</v>
+        <v>44322.375</v>
       </c>
       <c r="B2" t="n">
-        <v>68452000</v>
+        <v>68700000</v>
       </c>
       <c r="C2" t="n">
-        <v>70999000</v>
+        <v>69900000</v>
       </c>
       <c r="D2" t="n">
-        <v>68281000</v>
+        <v>67899000</v>
       </c>
       <c r="E2" t="n">
-        <v>69908000</v>
+        <v>69200000</v>
       </c>
       <c r="F2" t="n">
-        <v>7077.06762356</v>
+        <v>4568.01486052</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -524,25 +524,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44313.375</v>
+        <v>44309.375</v>
       </c>
       <c r="B3" t="n">
-        <v>64198000</v>
+        <v>59950000</v>
       </c>
       <c r="C3" t="n">
-        <v>65000000</v>
+        <v>61900000</v>
       </c>
       <c r="D3" t="n">
-        <v>63375000</v>
+        <v>54964000</v>
       </c>
       <c r="E3" t="n">
-        <v>64767000</v>
+        <v>60900000</v>
       </c>
       <c r="F3" t="n">
-        <v>8003.35594526</v>
+        <v>21936.25374819</v>
       </c>
       <c r="G3" t="n">
-        <v>812500</v>
+        <v>693600</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -562,37 +562,37 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44314.375</v>
+        <v>44310.375</v>
       </c>
       <c r="B4" t="n">
-        <v>64759000</v>
+        <v>60901000</v>
       </c>
       <c r="C4" t="n">
-        <v>65899000</v>
+        <v>62519000</v>
       </c>
       <c r="D4" t="n">
-        <v>62608000</v>
+        <v>58500000</v>
       </c>
       <c r="E4" t="n">
-        <v>64100000</v>
+        <v>60853000</v>
       </c>
       <c r="F4" t="n">
-        <v>8304.377217540001</v>
+        <v>9176.44794263</v>
       </c>
       <c r="G4" t="n">
-        <v>1645500</v>
+        <v>401900</v>
       </c>
       <c r="H4" t="n">
-        <v>65571500</v>
+        <v>61594600</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9775588479751112</v>
+        <v>0.9879599835050475</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9775588479751112</v>
+        <v>0.9879599835050475</v>
       </c>
       <c r="K4" t="n">
-        <v>2.244115202488883</v>
+        <v>1.204001649495245</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -602,37 +602,37 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44315.375</v>
+        <v>44311.375</v>
       </c>
       <c r="B5" t="n">
-        <v>64060000</v>
+        <v>60853000</v>
       </c>
       <c r="C5" t="n">
-        <v>64900000</v>
+        <v>62050000</v>
       </c>
       <c r="D5" t="n">
-        <v>63000000</v>
+        <v>57327000</v>
       </c>
       <c r="E5" t="n">
-        <v>63814000</v>
+        <v>59859000</v>
       </c>
       <c r="F5" t="n">
-        <v>9270.474732729999</v>
+        <v>8791.23902271</v>
       </c>
       <c r="G5" t="n">
-        <v>950000</v>
+        <v>472300</v>
       </c>
       <c r="H5" t="n">
-        <v>65705500</v>
+        <v>61254900</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.9772116189888482</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9775588479751112</v>
+        <v>0.9654459749771633</v>
       </c>
       <c r="K5" t="n">
-        <v>2.244115202488883</v>
+        <v>3.455402502283667</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -642,34 +642,34 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44316.375</v>
+        <v>44312.375</v>
       </c>
       <c r="B6" t="n">
-        <v>63816000</v>
+        <v>59850000</v>
       </c>
       <c r="C6" t="n">
-        <v>68540000</v>
+        <v>64300000</v>
       </c>
       <c r="D6" t="n">
-        <v>63500000</v>
+        <v>59075000</v>
       </c>
       <c r="E6" t="n">
-        <v>67939000</v>
+        <v>64198000</v>
       </c>
       <c r="F6" t="n">
-        <v>18322.27248634</v>
+        <v>10197.96059839</v>
       </c>
       <c r="G6" t="n">
-        <v>2520000</v>
+        <v>522500</v>
       </c>
       <c r="H6" t="n">
-        <v>64766000</v>
+        <v>60322300</v>
       </c>
       <c r="I6" t="n">
-        <v>1.048991754933144</v>
+        <v>1.064249871109026</v>
       </c>
       <c r="J6" t="n">
-        <v>1.025451171487834</v>
+        <v>1.027475754432174</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -682,34 +682,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44317.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B7" t="n">
-        <v>67956000</v>
+        <v>64198000</v>
       </c>
       <c r="C7" t="n">
-        <v>69386000</v>
+        <v>65000000</v>
       </c>
       <c r="D7" t="n">
-        <v>67557000</v>
+        <v>63375000</v>
       </c>
       <c r="E7" t="n">
-        <v>69049000</v>
+        <v>64767000</v>
       </c>
       <c r="F7" t="n">
-        <v>9860.607521620001</v>
+        <v>8003.35594526</v>
       </c>
       <c r="G7" t="n">
-        <v>914500</v>
+        <v>162500</v>
       </c>
       <c r="H7" t="n">
-        <v>70476000</v>
+        <v>64720500</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>1.000718474053816</v>
       </c>
       <c r="J7" t="n">
-        <v>1.025451171487834</v>
+        <v>1.028213969102658</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -722,37 +722,37 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44318.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B8" t="n">
-        <v>69041000</v>
+        <v>64759000</v>
       </c>
       <c r="C8" t="n">
-        <v>69297000</v>
+        <v>65899000</v>
       </c>
       <c r="D8" t="n">
-        <v>66803000</v>
+        <v>62608000</v>
       </c>
       <c r="E8" t="n">
-        <v>68452000</v>
+        <v>64100000</v>
       </c>
       <c r="F8" t="n">
-        <v>7970.05825148</v>
+        <v>8304.377217540001</v>
       </c>
       <c r="G8" t="n">
-        <v>1247000</v>
+        <v>329100</v>
       </c>
       <c r="H8" t="n">
-        <v>69955500</v>
+        <v>64921500</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.9873462566330107</v>
       </c>
       <c r="J8" t="n">
-        <v>1.025451171487834</v>
+        <v>1.01520321341128</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.265374336698935</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -762,37 +762,37 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44319.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B9" t="n">
-        <v>68452000</v>
+        <v>64060000</v>
       </c>
       <c r="C9" t="n">
-        <v>70999000</v>
+        <v>64900000</v>
       </c>
       <c r="D9" t="n">
-        <v>68281000</v>
+        <v>63000000</v>
       </c>
       <c r="E9" t="n">
-        <v>69908000</v>
+        <v>63814000</v>
       </c>
       <c r="F9" t="n">
-        <v>7077.11036544</v>
+        <v>9270.474732729999</v>
       </c>
       <c r="G9" t="n">
-        <v>1359000</v>
+        <v>190000</v>
       </c>
       <c r="H9" t="n">
-        <v>69699000</v>
+        <v>64389100</v>
       </c>
       <c r="I9" t="n">
-        <v>1.00299860830141</v>
+        <v>0.9910683640554069</v>
       </c>
       <c r="J9" t="n">
-        <v>1.028526097883349</v>
+        <v>1.006135787899309</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.147236068249228</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -802,303 +802,305 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44313.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B10" t="n">
-        <v>325</v>
+        <v>63816000</v>
       </c>
       <c r="C10" t="n">
-        <v>335</v>
+        <v>68540000</v>
       </c>
       <c r="D10" t="n">
-        <v>310</v>
+        <v>63500000</v>
       </c>
       <c r="E10" t="n">
-        <v>322</v>
+        <v>67939000</v>
       </c>
       <c r="F10" t="n">
-        <v>2555108535.096501</v>
+        <v>18322.27248634</v>
       </c>
       <c r="G10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>504000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>64006000</v>
+      </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>1.061447364309596</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>1.067960180203281</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-BTC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44314.375</v>
+        <v>44317.375</v>
       </c>
       <c r="B11" t="n">
-        <v>322</v>
+        <v>67956000</v>
       </c>
       <c r="C11" t="n">
-        <v>419</v>
+        <v>69386000</v>
       </c>
       <c r="D11" t="n">
-        <v>298</v>
+        <v>67557000</v>
       </c>
       <c r="E11" t="n">
-        <v>376</v>
+        <v>69049000</v>
       </c>
       <c r="F11" t="n">
-        <v>12573607576.24574</v>
+        <v>9860.607521620001</v>
       </c>
       <c r="G11" t="n">
-        <v>60.5</v>
+        <v>182900</v>
       </c>
       <c r="H11" t="n">
-        <v>334.5</v>
+        <v>68460000</v>
       </c>
       <c r="I11" t="n">
-        <v>1.12406576980568</v>
+        <v>1.008603564125037</v>
       </c>
       <c r="J11" t="n">
-        <v>1.12406576980568</v>
+        <v>1.077148444096645</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-BTC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44315.375</v>
+        <v>44318.375</v>
       </c>
       <c r="B12" t="n">
-        <v>377</v>
+        <v>69041000</v>
       </c>
       <c r="C12" t="n">
-        <v>388</v>
+        <v>69297000</v>
       </c>
       <c r="D12" t="n">
-        <v>354</v>
+        <v>66803000</v>
       </c>
       <c r="E12" t="n">
-        <v>363</v>
+        <v>68452000</v>
       </c>
       <c r="F12" t="n">
-        <v>2942668995.732259</v>
+        <v>7970.05825148</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>249400</v>
       </c>
       <c r="H12" t="n">
-        <v>437.5</v>
+        <v>69223900</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.9888492269288497</v>
       </c>
       <c r="J12" t="n">
-        <v>1.12406576980568</v>
+        <v>1.065137406232581</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.115077307115031</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-BTC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44316.375</v>
+        <v>44319.375</v>
       </c>
       <c r="B13" t="n">
-        <v>363</v>
+        <v>68452000</v>
       </c>
       <c r="C13" t="n">
-        <v>405</v>
+        <v>70999000</v>
       </c>
       <c r="D13" t="n">
-        <v>360</v>
+        <v>68281000</v>
       </c>
       <c r="E13" t="n">
-        <v>398</v>
+        <v>69996000</v>
       </c>
       <c r="F13" t="n">
-        <v>2756637378.346507</v>
+        <v>9426.09845223</v>
       </c>
       <c r="G13" t="n">
-        <v>22.5</v>
+        <v>271800</v>
       </c>
       <c r="H13" t="n">
-        <v>380</v>
+        <v>68701400</v>
       </c>
       <c r="I13" t="n">
-        <v>1.047368421052632</v>
+        <v>1.01884386635498</v>
       </c>
       <c r="J13" t="n">
-        <v>1.177310990480686</v>
+        <v>1.085208713165317</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-BTC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44317.375</v>
+        <v>44320.375</v>
       </c>
       <c r="B14" t="n">
-        <v>397</v>
+        <v>69996000</v>
       </c>
       <c r="C14" t="n">
-        <v>474</v>
+        <v>70490000</v>
       </c>
       <c r="D14" t="n">
-        <v>384</v>
+        <v>66500000</v>
       </c>
       <c r="E14" t="n">
-        <v>465</v>
+        <v>66829000</v>
       </c>
       <c r="F14" t="n">
-        <v>5159788208.249722</v>
+        <v>12631.44767277</v>
       </c>
       <c r="G14" t="n">
-        <v>45</v>
+        <v>399000</v>
       </c>
       <c r="H14" t="n">
-        <v>419.5</v>
+        <v>70267800</v>
       </c>
       <c r="I14" t="n">
-        <v>1.108462455303933</v>
+        <v>0.9510615103930962</v>
       </c>
       <c r="J14" t="n">
-        <v>1.305005031164527</v>
+        <v>1.032100237834755</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>4.893848960690387</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-BTC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44318.375</v>
+        <v>44321.375</v>
       </c>
       <c r="B15" t="n">
-        <v>464</v>
+        <v>66828000</v>
       </c>
       <c r="C15" t="n">
-        <v>483</v>
+        <v>70007000</v>
       </c>
       <c r="D15" t="n">
-        <v>434</v>
+        <v>66500000</v>
       </c>
       <c r="E15" t="n">
-        <v>453</v>
+        <v>68679000</v>
       </c>
       <c r="F15" t="n">
-        <v>3530273013.891833</v>
+        <v>11726.55219754</v>
       </c>
       <c r="G15" t="n">
-        <v>24.5</v>
+        <v>350700</v>
       </c>
       <c r="H15" t="n">
-        <v>509</v>
+        <v>67227000</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>1.021598464902495</v>
       </c>
       <c r="J15" t="n">
-        <v>1.305005031164527</v>
+        <v>1.054392018597485</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2.839702095456526</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-BTC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44319.375</v>
+        <v>44322.375</v>
       </c>
       <c r="B16" t="n">
-        <v>453</v>
+        <v>68700000</v>
       </c>
       <c r="C16" t="n">
-        <v>494</v>
+        <v>69900000</v>
       </c>
       <c r="D16" t="n">
-        <v>453</v>
+        <v>67899000</v>
       </c>
       <c r="E16" t="n">
-        <v>481</v>
+        <v>69191000</v>
       </c>
       <c r="F16" t="n">
-        <v>2253910777.799655</v>
+        <v>4568.01574696</v>
       </c>
       <c r="G16" t="n">
-        <v>20.5</v>
+        <v>200100</v>
       </c>
       <c r="H16" t="n">
-        <v>477.5</v>
+        <v>69050700</v>
       </c>
       <c r="I16" t="n">
-        <v>1.007329842931937</v>
+        <v>1.002031840372364</v>
       </c>
       <c r="J16" t="n">
-        <v>1.314570513068351</v>
+        <v>1.05653437486917</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.642287879583166</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-BTC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44313.375</v>
+        <v>44309.375</v>
       </c>
       <c r="B17" t="n">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="C17" t="n">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="D17" t="n">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="E17" t="n">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="F17" t="n">
-        <v>2670477340.686671</v>
+        <v>11307842963.46133</v>
       </c>
       <c r="G17" t="n">
-        <v>22.5</v>
+        <v>11.8</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
@@ -1112,549 +1114,551 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44314.375</v>
+        <v>44310.375</v>
       </c>
       <c r="B18" t="n">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="C18" t="n">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c r="D18" t="n">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="E18" t="n">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="F18" t="n">
-        <v>1998336726.925266</v>
+        <v>8812486631.448751</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>267.5</v>
+        <v>305.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>1.069326357096141</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>1.069326357096141</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44315.375</v>
+        <v>44311.375</v>
       </c>
       <c r="B19" t="n">
-        <v>233</v>
+        <v>328</v>
       </c>
       <c r="C19" t="n">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="D19" t="n">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="E19" t="n">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="F19" t="n">
-        <v>1099180545.914981</v>
+        <v>4907089687.781334</v>
       </c>
       <c r="G19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>250</v>
+        <v>335.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.9207389749702025</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.9845704539413219</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>7.926102502979747</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44316.375</v>
+        <v>44312.375</v>
       </c>
       <c r="B20" t="n">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="C20" t="n">
-        <v>242</v>
+        <v>336</v>
       </c>
       <c r="D20" t="n">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="E20" t="n">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="F20" t="n">
-        <v>1274774678.973034</v>
+        <v>3272700850.900334</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>236.5</v>
+        <v>317</v>
       </c>
       <c r="I20" t="n">
-        <v>1.002114164904863</v>
+        <v>1.022082018927445</v>
       </c>
       <c r="J20" t="n">
-        <v>1.002114164904863</v>
+        <v>1.006311757340657</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.89292495572692</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44317.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B21" t="n">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="C21" t="n">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="D21" t="n">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="E21" t="n">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="F21" t="n">
-        <v>1099209383.076911</v>
+        <v>2555108535.096501</v>
       </c>
       <c r="G21" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>247</v>
+        <v>328.8</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9838056680161943</v>
+        <v>0.9793187347931873</v>
       </c>
       <c r="J21" t="n">
-        <v>0.985885595432719</v>
+        <v>0.9854999570063614</v>
       </c>
       <c r="K21" t="n">
-        <v>1.619433198380572</v>
+        <v>7.839178332554954</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44318.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B22" t="n">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="C22" t="n">
-        <v>268</v>
+        <v>419</v>
       </c>
       <c r="D22" t="n">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="E22" t="n">
-        <v>260</v>
+        <v>376</v>
       </c>
       <c r="F22" t="n">
-        <v>2009108457.321046</v>
+        <v>12573607576.24574</v>
       </c>
       <c r="G22" t="n">
-        <v>16.5</v>
+        <v>12.1</v>
       </c>
       <c r="H22" t="n">
-        <v>251.5</v>
+        <v>324.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.033797216699801</v>
+        <v>1.158705701078582</v>
       </c>
       <c r="J22" t="n">
-        <v>1.019205784542771</v>
+        <v>1.141904418595969</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44319.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B23" t="n">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="C23" t="n">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="D23" t="n">
-        <v>253</v>
+        <v>354</v>
       </c>
       <c r="E23" t="n">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="F23" t="n">
-        <v>782490693.8145126</v>
+        <v>2942668995.732259</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>276.5</v>
+        <v>389.1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.019205784542771</v>
+        <v>1.141904418595969</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44313.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B24" t="n">
-        <v>43.6</v>
+        <v>363</v>
       </c>
       <c r="C24" t="n">
-        <v>53.7</v>
+        <v>405</v>
       </c>
       <c r="D24" t="n">
-        <v>41.5</v>
+        <v>360</v>
       </c>
       <c r="E24" t="n">
-        <v>48.5</v>
+        <v>398</v>
       </c>
       <c r="F24" t="n">
-        <v>4160265909.628507</v>
+        <v>2756637378.346507</v>
       </c>
       <c r="G24" t="n">
-        <v>6.100000000000001</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>366.4</v>
+      </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>1.086244541484716</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>1.240387441597149</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44314.375</v>
+        <v>44317.375</v>
       </c>
       <c r="B25" t="n">
-        <v>48.5</v>
+        <v>397</v>
       </c>
       <c r="C25" t="n">
-        <v>52.3</v>
+        <v>474</v>
       </c>
       <c r="D25" t="n">
-        <v>41.4</v>
+        <v>384</v>
       </c>
       <c r="E25" t="n">
-        <v>46.2</v>
+        <v>465</v>
       </c>
       <c r="F25" t="n">
-        <v>2612684444.567986</v>
+        <v>5159788208.249722</v>
       </c>
       <c r="G25" t="n">
-        <v>5.449999999999999</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>54.6</v>
+        <v>401.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>1.158156911581569</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>1.436563288524718</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44315.375</v>
+        <v>44318.375</v>
       </c>
       <c r="B26" t="n">
-        <v>46.2</v>
+        <v>464</v>
       </c>
       <c r="C26" t="n">
-        <v>46.9</v>
+        <v>483</v>
       </c>
       <c r="D26" t="n">
-        <v>43.3</v>
+        <v>434</v>
       </c>
       <c r="E26" t="n">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="F26" t="n">
-        <v>954587742.5961142</v>
+        <v>3530273013.891833</v>
       </c>
       <c r="G26" t="n">
-        <v>1.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="H26" t="n">
-        <v>51.65000000000001</v>
+        <v>473</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0.9577167019027484</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>1.37582065476046</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>4.228329809725158</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44316.375</v>
+        <v>44319.375</v>
       </c>
       <c r="B27" t="n">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="C27" t="n">
-        <v>48.5</v>
+        <v>548</v>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>453</v>
       </c>
       <c r="E27" t="n">
-        <v>48.1</v>
+        <v>539</v>
       </c>
       <c r="F27" t="n">
-        <v>808430094.6499189</v>
+        <v>4918062599.184709</v>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="H27" t="n">
-        <v>46.8</v>
+        <v>457.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.027777777777778</v>
+        <v>1.177112906748198</v>
       </c>
       <c r="J27" t="n">
-        <v>1.027777777777778</v>
+        <v>1.619496250089294</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44317.375</v>
+        <v>44320.375</v>
       </c>
       <c r="B28" t="n">
-        <v>48.1</v>
+        <v>539</v>
       </c>
       <c r="C28" t="n">
-        <v>49</v>
+        <v>768</v>
       </c>
       <c r="D28" t="n">
-        <v>45.9</v>
+        <v>501</v>
       </c>
       <c r="E28" t="n">
-        <v>47.7</v>
+        <v>675</v>
       </c>
       <c r="F28" t="n">
-        <v>812731622.9144793</v>
+        <v>17030012491.00062</v>
       </c>
       <c r="G28" t="n">
-        <v>1.550000000000001</v>
+        <v>26.7</v>
       </c>
       <c r="H28" t="n">
-        <v>50.35</v>
+        <v>548.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>1.230628988149499</v>
       </c>
       <c r="J28" t="n">
-        <v>1.027777777777778</v>
+        <v>1.992999031559296</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44318.375</v>
+        <v>44321.375</v>
       </c>
       <c r="B29" t="n">
-        <v>47.7</v>
+        <v>674</v>
       </c>
       <c r="C29" t="n">
-        <v>54</v>
+        <v>887</v>
       </c>
       <c r="D29" t="n">
-        <v>47.2</v>
+        <v>668</v>
       </c>
       <c r="E29" t="n">
-        <v>49.9</v>
+        <v>783</v>
       </c>
       <c r="F29" t="n">
-        <v>3202139199.788204</v>
+        <v>15198662286.47263</v>
       </c>
       <c r="G29" t="n">
-        <v>3.399999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="H29" t="n">
-        <v>49.25</v>
+        <v>700.7</v>
       </c>
       <c r="I29" t="n">
-        <v>1.013197969543147</v>
+        <v>1.117453974596832</v>
       </c>
       <c r="J29" t="n">
-        <v>1.041342357586013</v>
+        <v>2.227084689183571</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44319.375</v>
+        <v>44322.375</v>
       </c>
       <c r="B30" t="n">
-        <v>49.9</v>
+        <v>783</v>
       </c>
       <c r="C30" t="n">
-        <v>51.4</v>
+        <v>805</v>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>708</v>
       </c>
       <c r="E30" t="n">
-        <v>49.9</v>
+        <v>748</v>
       </c>
       <c r="F30" t="n">
-        <v>917201721.2036276</v>
+        <v>2505004984.769973</v>
       </c>
       <c r="G30" t="n">
-        <v>1.199999999999999</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>53.3</v>
+        <v>804.9</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0.9293079885700087</v>
       </c>
       <c r="J30" t="n">
-        <v>1.041342357586013</v>
+        <v>2.069647592880248</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>7.069201142999118</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44313.375</v>
+        <v>44309.375</v>
       </c>
       <c r="B31" t="n">
-        <v>39080</v>
+        <v>222</v>
       </c>
       <c r="C31" t="n">
-        <v>40530</v>
+        <v>245</v>
       </c>
       <c r="D31" t="n">
-        <v>37470</v>
+        <v>150</v>
       </c>
       <c r="E31" t="n">
-        <v>39880</v>
+        <v>242</v>
       </c>
       <c r="F31" t="n">
-        <v>9536090.71683709</v>
+        <v>9786907408.931677</v>
       </c>
       <c r="G31" t="n">
-        <v>1530</v>
+        <v>9.5</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
@@ -1668,549 +1672,551 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44314.375</v>
+        <v>44310.375</v>
       </c>
       <c r="B32" t="n">
-        <v>39880</v>
+        <v>242</v>
       </c>
       <c r="C32" t="n">
-        <v>43670</v>
+        <v>249</v>
       </c>
       <c r="D32" t="n">
-        <v>37590</v>
+        <v>215</v>
       </c>
       <c r="E32" t="n">
-        <v>41190</v>
+        <v>217</v>
       </c>
       <c r="F32" t="n">
-        <v>17173412.23946387</v>
+        <v>3473436832.743413</v>
       </c>
       <c r="G32" t="n">
-        <v>3040</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
-        <v>41410</v>
+        <v>251.5</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9946872736054093</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9946872736054093</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5312726394590683</v>
+        <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44315.375</v>
+        <v>44311.375</v>
       </c>
       <c r="B33" t="n">
-        <v>41180</v>
+        <v>218</v>
       </c>
       <c r="C33" t="n">
-        <v>41880</v>
+        <v>229</v>
       </c>
       <c r="D33" t="n">
-        <v>39000</v>
+        <v>189</v>
       </c>
       <c r="E33" t="n">
-        <v>41140</v>
+        <v>205</v>
       </c>
       <c r="F33" t="n">
-        <v>6699680.18118407</v>
+        <v>3108743254.365941</v>
       </c>
       <c r="G33" t="n">
-        <v>1440</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>44220</v>
+        <v>221.4</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9946872736054093</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5312726394590683</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44316.375</v>
+        <v>44312.375</v>
       </c>
       <c r="B34" t="n">
-        <v>41130</v>
+        <v>205</v>
       </c>
       <c r="C34" t="n">
-        <v>43460</v>
+        <v>233</v>
       </c>
       <c r="D34" t="n">
-        <v>40590</v>
+        <v>198</v>
       </c>
       <c r="E34" t="n">
-        <v>42750</v>
+        <v>224</v>
       </c>
       <c r="F34" t="n">
-        <v>6328796.92304771</v>
+        <v>2148877880.081886</v>
       </c>
       <c r="G34" t="n">
-        <v>1435</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>42570</v>
+        <v>209</v>
       </c>
       <c r="I34" t="n">
-        <v>1.004228329809725</v>
+        <v>1.07177033492823</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9988931394557493</v>
+        <v>0.9923799397483608</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1106860544250687</v>
+        <v>0.7620060251639194</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44317.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B35" t="n">
-        <v>42730</v>
+        <v>223</v>
       </c>
       <c r="C35" t="n">
-        <v>55000</v>
+        <v>262</v>
       </c>
       <c r="D35" t="n">
-        <v>42620</v>
+        <v>217</v>
       </c>
       <c r="E35" t="n">
-        <v>53400</v>
+        <v>245</v>
       </c>
       <c r="F35" t="n">
-        <v>28065781.15500577</v>
+        <v>2670477340.686671</v>
       </c>
       <c r="G35" t="n">
-        <v>6190</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
-        <v>44165</v>
+        <v>226.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.20910223027284</v>
+        <v>1.08167770419426</v>
       </c>
       <c r="J35" t="n">
-        <v>1.207763922720186</v>
+        <v>1.073435254915445</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44318.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B36" t="n">
-        <v>53220</v>
+        <v>245</v>
       </c>
       <c r="C36" t="n">
-        <v>58780</v>
+        <v>254</v>
       </c>
       <c r="D36" t="n">
-        <v>50370</v>
+        <v>220</v>
       </c>
       <c r="E36" t="n">
-        <v>54380</v>
+        <v>233</v>
       </c>
       <c r="F36" t="n">
-        <v>24834286.70194932</v>
+        <v>1998336726.925266</v>
       </c>
       <c r="G36" t="n">
-        <v>4205</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
-        <v>59410</v>
+        <v>249.5</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0.9338677354709419</v>
       </c>
       <c r="J36" t="n">
-        <v>1.207763922720186</v>
+        <v>1.00244655068256</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>6.613226452905812</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44319.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B37" t="n">
-        <v>54310</v>
+        <v>233</v>
       </c>
       <c r="C37" t="n">
-        <v>62640</v>
+        <v>239</v>
       </c>
       <c r="D37" t="n">
-        <v>53700</v>
+        <v>220</v>
       </c>
       <c r="E37" t="n">
-        <v>59070</v>
+        <v>228</v>
       </c>
       <c r="F37" t="n">
-        <v>28679286.43149062</v>
+        <v>1099180545.914981</v>
       </c>
       <c r="G37" t="n">
-        <v>4470</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
-        <v>58515</v>
+        <v>236.4</v>
       </c>
       <c r="I37" t="n">
-        <v>1.009484747500641</v>
+        <v>0.9644670050761421</v>
       </c>
       <c r="J37" t="n">
-        <v>1.21921925856757</v>
+        <v>0.9668266224857179</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>9.931538203310174</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44313.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B38" t="n">
-        <v>68.40000000000001</v>
+        <v>227</v>
       </c>
       <c r="C38" t="n">
-        <v>76.5</v>
+        <v>242</v>
       </c>
       <c r="D38" t="n">
-        <v>66.09999999999999</v>
+        <v>222</v>
       </c>
       <c r="E38" t="n">
-        <v>74.7</v>
+        <v>237</v>
       </c>
       <c r="F38" t="n">
-        <v>620082030.3171985</v>
+        <v>1274774678.973034</v>
       </c>
       <c r="G38" t="n">
-        <v>5.200000000000003</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>228.9</v>
+      </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>1.035386631716907</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>1.001039360109721</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>6.744318716402418</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44314.375</v>
+        <v>44317.375</v>
       </c>
       <c r="B39" t="n">
-        <v>74.59999999999999</v>
+        <v>237</v>
       </c>
       <c r="C39" t="n">
-        <v>79.3</v>
+        <v>248</v>
       </c>
       <c r="D39" t="n">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="E39" t="n">
-        <v>71.40000000000001</v>
+        <v>243</v>
       </c>
       <c r="F39" t="n">
-        <v>499201037.7858518</v>
+        <v>1099209383.076911</v>
       </c>
       <c r="G39" t="n">
-        <v>6.149999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
-        <v>79.8</v>
+        <v>239</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>1.01673640167364</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>1.017793156931641</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>5.183554176091162</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44315.375</v>
+        <v>44318.375</v>
       </c>
       <c r="B40" t="n">
-        <v>71.5</v>
+        <v>243</v>
       </c>
       <c r="C40" t="n">
-        <v>75.7</v>
+        <v>268</v>
       </c>
       <c r="D40" t="n">
-        <v>67.3</v>
+        <v>235</v>
       </c>
       <c r="E40" t="n">
-        <v>72.5</v>
+        <v>260</v>
       </c>
       <c r="F40" t="n">
-        <v>352262630.0792443</v>
+        <v>2009108457.321046</v>
       </c>
       <c r="G40" t="n">
-        <v>4.200000000000003</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>77.65000000000001</v>
+        <v>244.7</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>1.062525541479363</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>1.081431225182782</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44316.375</v>
+        <v>44319.375</v>
       </c>
       <c r="B41" t="n">
-        <v>72.40000000000001</v>
+        <v>260</v>
       </c>
       <c r="C41" t="n">
-        <v>81.59999999999999</v>
+        <v>269</v>
       </c>
       <c r="D41" t="n">
-        <v>71.09999999999999</v>
+        <v>252</v>
       </c>
       <c r="E41" t="n">
-        <v>81.3</v>
+        <v>258</v>
       </c>
       <c r="F41" t="n">
-        <v>249002416.1423054</v>
+        <v>1109849949.486332</v>
       </c>
       <c r="G41" t="n">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
-        <v>76.60000000000001</v>
+        <v>263.3</v>
       </c>
       <c r="I41" t="n">
-        <v>1.061357702349869</v>
+        <v>0.9798708697303455</v>
       </c>
       <c r="J41" t="n">
-        <v>1.061357702349869</v>
+        <v>1.059662955173406</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.012913026965442</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44317.375</v>
+        <v>44320.375</v>
       </c>
       <c r="B42" t="n">
-        <v>81.59999999999999</v>
+        <v>259</v>
       </c>
       <c r="C42" t="n">
-        <v>81.59999999999999</v>
+        <v>260</v>
       </c>
       <c r="D42" t="n">
-        <v>76.40000000000001</v>
+        <v>232</v>
       </c>
       <c r="E42" t="n">
-        <v>78.3</v>
+        <v>235</v>
       </c>
       <c r="F42" t="n">
-        <v>210283493.4041202</v>
+        <v>1550068043.134178</v>
       </c>
       <c r="G42" t="n">
-        <v>2.599999999999994</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
-        <v>86.84999999999999</v>
+        <v>260.7</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.061357702349869</v>
+        <v>1.059662955173406</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2.012913026965442</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44318.375</v>
+        <v>44321.375</v>
       </c>
       <c r="B43" t="n">
-        <v>78.40000000000001</v>
+        <v>236</v>
       </c>
       <c r="C43" t="n">
-        <v>79.8</v>
+        <v>251</v>
       </c>
       <c r="D43" t="n">
-        <v>74.3</v>
+        <v>234</v>
       </c>
       <c r="E43" t="n">
-        <v>76.2</v>
+        <v>248</v>
       </c>
       <c r="F43" t="n">
-        <v>207830571.739557</v>
+        <v>1459084979.892305</v>
       </c>
       <c r="G43" t="n">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
-        <v>81</v>
+        <v>238.8</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>1.038525963149079</v>
       </c>
       <c r="J43" t="n">
-        <v>1.061357702349869</v>
+        <v>1.10048749113486</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44319.375</v>
+        <v>44322.375</v>
       </c>
       <c r="B44" t="n">
-        <v>76.09999999999999</v>
+        <v>248</v>
       </c>
       <c r="C44" t="n">
-        <v>80.59999999999999</v>
+        <v>260</v>
       </c>
       <c r="D44" t="n">
-        <v>75.7</v>
+        <v>238</v>
       </c>
       <c r="E44" t="n">
-        <v>78.40000000000001</v>
+        <v>252</v>
       </c>
       <c r="F44" t="n">
-        <v>226813231.8295095</v>
+        <v>766303601.8863406</v>
       </c>
       <c r="G44" t="n">
-        <v>2.449999999999996</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
-        <v>78.84999999999999</v>
+        <v>249.7</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9942929613189602</v>
+        <v>1.009211053263917</v>
       </c>
       <c r="J44" t="n">
-        <v>1.055300492888139</v>
+        <v>1.110624140031977</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5707038681039736</v>
+        <v>0</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44313.375</v>
+        <v>44309.375</v>
       </c>
       <c r="B45" t="n">
-        <v>4300</v>
+        <v>40.2</v>
       </c>
       <c r="C45" t="n">
-        <v>4895</v>
+        <v>41.8</v>
       </c>
       <c r="D45" t="n">
-        <v>4155</v>
+        <v>26.5</v>
       </c>
       <c r="E45" t="n">
-        <v>4845</v>
+        <v>41.1</v>
       </c>
       <c r="F45" t="n">
-        <v>12544250.25308569</v>
+        <v>3080453008.538414</v>
       </c>
       <c r="G45" t="n">
-        <v>370</v>
+        <v>1.53</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
@@ -2224,247 +2230,6107 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44314.375</v>
+        <v>44310.375</v>
       </c>
       <c r="B46" t="n">
-        <v>4845</v>
+        <v>41.2</v>
       </c>
       <c r="C46" t="n">
-        <v>5240</v>
+        <v>42.8</v>
       </c>
       <c r="D46" t="n">
-        <v>4280</v>
+        <v>36.8</v>
       </c>
       <c r="E46" t="n">
-        <v>4850</v>
+        <v>38.2</v>
       </c>
       <c r="F46" t="n">
-        <v>17088119.26683409</v>
+        <v>1814573727.165571</v>
       </c>
       <c r="G46" t="n">
-        <v>480</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>5215</v>
+        <v>42.73</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9300095877277086</v>
+        <v>0.8939854902878539</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9300095877277086</v>
+        <v>0.8939854902878539</v>
       </c>
       <c r="K46" t="n">
-        <v>6.999041227229141</v>
+        <v>10.60145097121461</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44315.375</v>
+        <v>44311.375</v>
       </c>
       <c r="B47" t="n">
-        <v>4850</v>
+        <v>38.1</v>
       </c>
       <c r="C47" t="n">
-        <v>5885</v>
+        <v>42.8</v>
       </c>
       <c r="D47" t="n">
-        <v>4560</v>
+        <v>33.5</v>
       </c>
       <c r="E47" t="n">
-        <v>5485</v>
+        <v>37.8</v>
       </c>
       <c r="F47" t="n">
-        <v>70759190.12374032</v>
+        <v>1982792686.805807</v>
       </c>
       <c r="G47" t="n">
-        <v>662.5</v>
+        <v>0.9299999999999997</v>
       </c>
       <c r="H47" t="n">
-        <v>5330</v>
+        <v>38.7</v>
       </c>
       <c r="I47" t="n">
-        <v>1.029080675422139</v>
+        <v>0.9767441860465115</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9570548946878953</v>
+        <v>0.8731951300486014</v>
       </c>
       <c r="K47" t="n">
-        <v>4.294510531210472</v>
+        <v>12.68048699513986</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44316.375</v>
+        <v>44312.375</v>
       </c>
       <c r="B48" t="n">
-        <v>5485</v>
+        <v>37.7</v>
       </c>
       <c r="C48" t="n">
-        <v>6300</v>
+        <v>44.2</v>
       </c>
       <c r="D48" t="n">
-        <v>5270</v>
+        <v>36.4</v>
       </c>
       <c r="E48" t="n">
-        <v>6185</v>
+        <v>43.7</v>
       </c>
       <c r="F48" t="n">
-        <v>21870386.34761748</v>
+        <v>1851954576.84044</v>
       </c>
       <c r="G48" t="n">
-        <v>515</v>
+        <v>0.7800000000000005</v>
       </c>
       <c r="H48" t="n">
-        <v>6147.5</v>
+        <v>38.63</v>
       </c>
       <c r="I48" t="n">
-        <v>1.006100040666938</v>
+        <v>1.131245146259384</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9628929684659834</v>
+        <v>0.987797752604812</v>
       </c>
       <c r="K48" t="n">
-        <v>3.710703153401662</v>
+        <v>1.220224739518805</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44317.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B49" t="n">
-        <v>6190</v>
+        <v>43.6</v>
       </c>
       <c r="C49" t="n">
-        <v>7000</v>
+        <v>53.7</v>
       </c>
       <c r="D49" t="n">
-        <v>5955</v>
+        <v>41.5</v>
       </c>
       <c r="E49" t="n">
-        <v>6060</v>
+        <v>48.5</v>
       </c>
       <c r="F49" t="n">
-        <v>46545611.28324727</v>
+        <v>4160265909.628507</v>
       </c>
       <c r="G49" t="n">
-        <v>522.5</v>
+        <v>1.22</v>
       </c>
       <c r="H49" t="n">
-        <v>6705</v>
+        <v>44.38</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9038031319910514</v>
+        <v>1.092834610184768</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8702656806717165</v>
+        <v>1.079499571909269</v>
       </c>
       <c r="K49" t="n">
-        <v>12.97343193282835</v>
+        <v>0</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44318.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B50" t="n">
-        <v>6060</v>
+        <v>48.5</v>
       </c>
       <c r="C50" t="n">
-        <v>6620</v>
+        <v>52.3</v>
       </c>
       <c r="D50" t="n">
-        <v>5515</v>
+        <v>41.4</v>
       </c>
       <c r="E50" t="n">
-        <v>6595</v>
+        <v>46.2</v>
       </c>
       <c r="F50" t="n">
-        <v>19551898.83518475</v>
+        <v>2612684444.567986</v>
       </c>
       <c r="G50" t="n">
-        <v>552.5</v>
+        <v>1.09</v>
       </c>
       <c r="H50" t="n">
-        <v>6582.5</v>
+        <v>49.72</v>
       </c>
       <c r="I50" t="n">
-        <v>1.001898974553741</v>
+        <v>0.929203539823009</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8719182930543061</v>
+        <v>1.003074823455516</v>
       </c>
       <c r="K50" t="n">
-        <v>12.80817069456939</v>
+        <v>7.079646017699104</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44319.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B51" t="n">
-        <v>6590</v>
+        <v>46.2</v>
       </c>
       <c r="C51" t="n">
-        <v>7050</v>
+        <v>46.9</v>
       </c>
       <c r="D51" t="n">
-        <v>6305</v>
+        <v>43.3</v>
       </c>
       <c r="E51" t="n">
-        <v>6965</v>
+        <v>45</v>
       </c>
       <c r="F51" t="n">
-        <v>25443508.30630369</v>
+        <v>954587742.5961142</v>
       </c>
       <c r="G51" t="n">
-        <v>372.5</v>
+        <v>0.3600000000000002</v>
       </c>
       <c r="H51" t="n">
-        <v>7142.5</v>
+        <v>47.29000000000001</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8719182930543061</v>
+        <v>1.003074823455516</v>
       </c>
       <c r="K51" t="n">
-        <v>12.80817069456939</v>
+        <v>7.079646017699104</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
+          <t>KRW-SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B52" t="n">
+        <v>45</v>
+      </c>
+      <c r="C52" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>44</v>
+      </c>
+      <c r="E52" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>808430094.6499189</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H52" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.060405643738977</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.063666203884707</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.466732218944607</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>KRW-SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B53" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>49</v>
+      </c>
+      <c r="D53" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F53" t="n">
+        <v>812731622.9144793</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3100000000000002</v>
+      </c>
+      <c r="H53" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9824922760041195</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.045043829563348</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.191825475667508</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>KRW-SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B54" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>54</v>
+      </c>
+      <c r="D54" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3202139199.788204</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6799999999999997</v>
+      </c>
+      <c r="H54" t="n">
+        <v>48.01000000000001</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.039366798583628</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.086183859512832</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>KRW-SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B55" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>49</v>
+      </c>
+      <c r="E55" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1229382483.299647</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.2399999999999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>50.58</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9905100830367735</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.075876064879258</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9489916963226522</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>KRW-SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C56" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1506431004.002772</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.6300000000000004</v>
+      </c>
+      <c r="H56" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.075876064879258</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9489916963226522</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>KRW-SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B57" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3310528864.839075</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H57" t="n">
+        <v>45.73</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.078066914498141</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.159866389646784</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>KRW-SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B58" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>52</v>
+      </c>
+      <c r="D58" t="n">
+        <v>47</v>
+      </c>
+      <c r="E58" t="n">
+        <v>51</v>
+      </c>
+      <c r="F58" t="n">
+        <v>764282948.3276594</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H58" t="n">
+        <v>50.36</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.012708498808578</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.17460655027772</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>KRW-SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B59" t="n">
+        <v>39500</v>
+      </c>
+      <c r="C59" t="n">
+        <v>42150</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28670</v>
+      </c>
+      <c r="E59" t="n">
+        <v>39400</v>
+      </c>
+      <c r="F59" t="n">
+        <v>34688794.01484184</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1348</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B60" t="n">
+        <v>39410</v>
+      </c>
+      <c r="C60" t="n">
+        <v>39930</v>
+      </c>
+      <c r="D60" t="n">
+        <v>35260</v>
+      </c>
+      <c r="E60" t="n">
+        <v>36280</v>
+      </c>
+      <c r="F60" t="n">
+        <v>11464781.79794793</v>
+      </c>
+      <c r="G60" t="n">
+        <v>467</v>
+      </c>
+      <c r="H60" t="n">
+        <v>40758</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B61" t="n">
+        <v>36280</v>
+      </c>
+      <c r="C61" t="n">
+        <v>39100</v>
+      </c>
+      <c r="D61" t="n">
+        <v>33600</v>
+      </c>
+      <c r="E61" t="n">
+        <v>36100</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11652264.51908075</v>
+      </c>
+      <c r="G61" t="n">
+        <v>550</v>
+      </c>
+      <c r="H61" t="n">
+        <v>36747</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9823931205268457</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.9823931205268457</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.760687947315431</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B62" t="n">
+        <v>36010</v>
+      </c>
+      <c r="C62" t="n">
+        <v>39230</v>
+      </c>
+      <c r="D62" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E62" t="n">
+        <v>39080</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9228909.62722843</v>
+      </c>
+      <c r="G62" t="n">
+        <v>423</v>
+      </c>
+      <c r="H62" t="n">
+        <v>36560</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.068927789934355</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.050107307171475</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B63" t="n">
+        <v>39080</v>
+      </c>
+      <c r="C63" t="n">
+        <v>40530</v>
+      </c>
+      <c r="D63" t="n">
+        <v>37470</v>
+      </c>
+      <c r="E63" t="n">
+        <v>39880</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9536090.71683709</v>
+      </c>
+      <c r="G63" t="n">
+        <v>306</v>
+      </c>
+      <c r="H63" t="n">
+        <v>39503</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.009543578968686</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.06012908918306</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B64" t="n">
+        <v>39880</v>
+      </c>
+      <c r="C64" t="n">
+        <v>43670</v>
+      </c>
+      <c r="D64" t="n">
+        <v>37590</v>
+      </c>
+      <c r="E64" t="n">
+        <v>41190</v>
+      </c>
+      <c r="F64" t="n">
+        <v>17173412.23946387</v>
+      </c>
+      <c r="G64" t="n">
+        <v>608</v>
+      </c>
+      <c r="H64" t="n">
+        <v>40186</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.024983825212761</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.086615169050173</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B65" t="n">
+        <v>41180</v>
+      </c>
+      <c r="C65" t="n">
+        <v>41880</v>
+      </c>
+      <c r="D65" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E65" t="n">
+        <v>41140</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6699680.18118407</v>
+      </c>
+      <c r="G65" t="n">
+        <v>288</v>
+      </c>
+      <c r="H65" t="n">
+        <v>41788</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.984493155929932</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.069765197059542</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.550684407006803</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B66" t="n">
+        <v>41130</v>
+      </c>
+      <c r="C66" t="n">
+        <v>43460</v>
+      </c>
+      <c r="D66" t="n">
+        <v>40590</v>
+      </c>
+      <c r="E66" t="n">
+        <v>42750</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6328796.92304771</v>
+      </c>
+      <c r="G66" t="n">
+        <v>287</v>
+      </c>
+      <c r="H66" t="n">
+        <v>41418</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.032159930465015</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.10416877141087</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B67" t="n">
+        <v>42730</v>
+      </c>
+      <c r="C67" t="n">
+        <v>55000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>42620</v>
+      </c>
+      <c r="E67" t="n">
+        <v>53400</v>
+      </c>
+      <c r="F67" t="n">
+        <v>28065781.15500577</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1238</v>
+      </c>
+      <c r="H67" t="n">
+        <v>43017</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.241369691052375</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.370681646635992</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B68" t="n">
+        <v>53220</v>
+      </c>
+      <c r="C68" t="n">
+        <v>58780</v>
+      </c>
+      <c r="D68" t="n">
+        <v>50370</v>
+      </c>
+      <c r="E68" t="n">
+        <v>54380</v>
+      </c>
+      <c r="F68" t="n">
+        <v>24834286.70194932</v>
+      </c>
+      <c r="G68" t="n">
+        <v>841</v>
+      </c>
+      <c r="H68" t="n">
+        <v>54458</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.9985677035513607</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.3687184241813</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.1432296448639239</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B69" t="n">
+        <v>54310</v>
+      </c>
+      <c r="C69" t="n">
+        <v>64070</v>
+      </c>
+      <c r="D69" t="n">
+        <v>53700</v>
+      </c>
+      <c r="E69" t="n">
+        <v>63700</v>
+      </c>
+      <c r="F69" t="n">
+        <v>37399233.46701108</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1037</v>
+      </c>
+      <c r="H69" t="n">
+        <v>55151</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.155010788562311</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.580884546433406</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B70" t="n">
+        <v>63710</v>
+      </c>
+      <c r="C70" t="n">
+        <v>89590</v>
+      </c>
+      <c r="D70" t="n">
+        <v>61500</v>
+      </c>
+      <c r="E70" t="n">
+        <v>86000</v>
+      </c>
+      <c r="F70" t="n">
+        <v>71486954.06389952</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2809</v>
+      </c>
+      <c r="H70" t="n">
+        <v>64747</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.328246868580784</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.099804948387924</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B71" t="n">
+        <v>86000</v>
+      </c>
+      <c r="C71" t="n">
+        <v>117750</v>
+      </c>
+      <c r="D71" t="n">
+        <v>82200</v>
+      </c>
+      <c r="E71" t="n">
+        <v>112000</v>
+      </c>
+      <c r="F71" t="n">
+        <v>57594604.58783567</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3555</v>
+      </c>
+      <c r="H71" t="n">
+        <v>88809</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.26113344368251</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.648134245622038</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B72" t="n">
+        <v>111850</v>
+      </c>
+      <c r="C72" t="n">
+        <v>124800</v>
+      </c>
+      <c r="D72" t="n">
+        <v>101300</v>
+      </c>
+      <c r="E72" t="n">
+        <v>113750</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12707620.0640858</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2350</v>
+      </c>
+      <c r="H72" t="n">
+        <v>115405</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.9856592002079633</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.610157882583136</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.43407997920368</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B73" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>909435778.1123736</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.909999999999999</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B74" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F74" t="n">
+        <v>400497587.9558572</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.8400000000000006</v>
+      </c>
+      <c r="H74" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.898242218996936</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.898242218996936</v>
+      </c>
+      <c r="K74" t="n">
+        <v>10.1757781003064</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B75" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>479612273.6535322</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9699999999999996</v>
+      </c>
+      <c r="H75" t="n">
+        <v>56.54000000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9939865581888928</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.8928406916807181</v>
+      </c>
+      <c r="K75" t="n">
+        <v>10.71593083192819</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B76" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="F76" t="n">
+        <v>565394557.4316578</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H76" t="n">
+        <v>57.37</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.192260763465226</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.064498924716073</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B77" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="C77" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>620082030.3171985</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.040000000000001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>69.87</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.069128381279519</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.138086012255484</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B78" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>67</v>
+      </c>
+      <c r="E78" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="F78" t="n">
+        <v>499201037.7858518</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9439450026441037</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.07429060384772</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5.605499735589624</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B79" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D79" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>352262630.0792443</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.8400000000000006</v>
+      </c>
+      <c r="H79" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9968376185893029</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.070893287212426</v>
+      </c>
+      <c r="K79" t="n">
+        <v>5.904011148497831</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B80" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D80" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>249002416.1423054</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H80" t="n">
+        <v>73.24000000000001</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.11004915346805</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.188744186924771</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B81" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D81" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="E81" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>210283493.4041202</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5199999999999989</v>
+      </c>
+      <c r="H81" t="n">
+        <v>82.64999999999999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.188744186924771</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B82" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C82" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>207830571.739557</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H82" t="n">
+        <v>78.92</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.9655347187024835</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.147773784131621</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3.446528129751643</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B83" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C83" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E83" t="n">
+        <v>79</v>
+      </c>
+      <c r="F83" t="n">
+        <v>343717768.6508819</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.7399999999999992</v>
+      </c>
+      <c r="H83" t="n">
+        <v>76.64999999999999</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.030658838878017</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.182963195647724</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4863107925685438</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B84" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>266602282.9478185</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.010000000000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>79.94</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.182963195647724</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.4863107925685438</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B85" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E85" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="F85" t="n">
+        <v>215333649.7677504</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.017766147913511</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.203979894757841</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B86" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="C86" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F86" t="n">
+        <v>97507879.8978339</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.5599999999999995</v>
+      </c>
+      <c r="H86" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.013440860215054</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.220162420225017</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3945</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4150</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3770</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15429081.87184477</v>
+      </c>
+      <c r="G87" t="n">
+        <v>125</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
           <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3775</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3820</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3345</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3670</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7888598.08784238</v>
+      </c>
+      <c r="G88" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3670</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4125</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3290</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3610</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12153795.18087576</v>
+      </c>
+      <c r="G89" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3717.5</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9710827168796234</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9710827168796234</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.891728312037656</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3610</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4600</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4300</v>
+      </c>
+      <c r="F90" t="n">
+        <v>27515212.36262158</v>
+      </c>
+      <c r="G90" t="n">
+        <v>110</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3693.5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.164207391363206</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.130541676616321</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4300</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4895</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4155</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4845</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12544250.25308569</v>
+      </c>
+      <c r="G91" t="n">
+        <v>74</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4410</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.098639455782313</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.242057692336978</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4845</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4280</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4850</v>
+      </c>
+      <c r="F92" t="n">
+        <v>17088119.26683409</v>
+      </c>
+      <c r="G92" t="n">
+        <v>96</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4919</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.9859727586907908</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.224635049366608</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.402724130920921</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4850</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5885</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4560</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5485</v>
+      </c>
+      <c r="F93" t="n">
+        <v>70759190.12374032</v>
+      </c>
+      <c r="G93" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4946</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.108976951071573</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.358092043221966</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5485</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6300</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6185</v>
+      </c>
+      <c r="F94" t="n">
+        <v>21870386.34761748</v>
+      </c>
+      <c r="G94" t="n">
+        <v>103</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5617.5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.101023587004895</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.495291372911057</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6190</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5955</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6060</v>
+      </c>
+      <c r="F95" t="n">
+        <v>46545611.28324727</v>
+      </c>
+      <c r="G95" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6293</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.9629747338312411</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.439927811829176</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3.70252661687589</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6620</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5515</v>
+      </c>
+      <c r="E96" t="n">
+        <v>6595</v>
+      </c>
+      <c r="F96" t="n">
+        <v>19551898.83518475</v>
+      </c>
+      <c r="G96" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6164.5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.069835347554546</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.540485671021723</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6590</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7180</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6305</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6700</v>
+      </c>
+      <c r="F97" t="n">
+        <v>35385185.04861008</v>
+      </c>
+      <c r="G97" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6700.5</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9999253787030818</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.540370717983068</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.007462129691816875</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6700</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6895</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5930</v>
+      </c>
+      <c r="F98" t="n">
+        <v>26163659.38109585</v>
+      </c>
+      <c r="G98" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H98" t="n">
+        <v>6787.5</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.8736648250460405</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.345767713832721</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12.64003689562762</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5935</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6450</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5765</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6040</v>
+      </c>
+      <c r="F99" t="n">
+        <v>14281873.23732697</v>
+      </c>
+      <c r="G99" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6035.5</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.000745588600779</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.346771102899451</v>
+      </c>
+      <c r="K99" t="n">
+        <v>12.57490230297254</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6445</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5810</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6280</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4841958.82437846</v>
+      </c>
+      <c r="G100" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>6108.5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.028075632315626</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.384582553197765</v>
+      </c>
+      <c r="K100" t="n">
+        <v>10.12038740487315</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>KRW-SXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="C101" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>498358182623.1262</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.3730000000000001</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E102" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>350293773196.5637</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8.992999999999999</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9029244968308685</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.9029244968308685</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9.707550316913149</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B103" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="F103" t="n">
+        <v>125124198933.2419</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.1330000000000001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8.296999999999999</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9437145956369773</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.8521030264174643</v>
+      </c>
+      <c r="K103" t="n">
+        <v>14.78969735825357</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C104" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F104" t="n">
+        <v>95806666892.08585</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.08500000000000006</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7.963</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.04859977395454</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.8935150408873321</v>
+      </c>
+      <c r="K104" t="n">
+        <v>10.64849591126679</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="E105" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>122473126100.3057</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8.445</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.030195381882771</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.9204950687649246</v>
+      </c>
+      <c r="K105" t="n">
+        <v>7.95049312350754</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="C106" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F106" t="n">
+        <v>89549202925.48204</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.1050000000000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>8.829000000000001</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9378185524974515</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.8632573529701637</v>
+      </c>
+      <c r="K106" t="n">
+        <v>13.67426470298363</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>35793765676.43005</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.04299999999999998</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8.395</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9779630732578918</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.844233813923174</v>
+      </c>
+      <c r="K107" t="n">
+        <v>15.5766186076826</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="C108" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>49306861583.3456</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.05700000000000003</v>
+      </c>
+      <c r="H108" t="n">
+        <v>8.253</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.033563552647522</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.8725692999836027</v>
+      </c>
+      <c r="K108" t="n">
+        <v>12.74307000163973</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="F109" t="n">
+        <v>57847290291.28767</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.05999999999999997</v>
+      </c>
+      <c r="H109" t="n">
+        <v>8.587</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.006172120647491</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.8779549029763978</v>
+      </c>
+      <c r="K109" t="n">
+        <v>12.20450970236022</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="C110" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E110" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="F110" t="n">
+        <v>45325736502.46541</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.05999999999999997</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8.700000000000001</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9701149425287354</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.8517171702437696</v>
+      </c>
+      <c r="K110" t="n">
+        <v>14.82828297562304</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="C111" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="F111" t="n">
+        <v>41625224316.42494</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0290000000000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.001176470588235</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.8527191904440564</v>
+      </c>
+      <c r="K111" t="n">
+        <v>14.72808095559436</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="F112" t="n">
+        <v>69576341899.92999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>8.529</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.8527191904440564</v>
+      </c>
+      <c r="K112" t="n">
+        <v>14.72808095559436</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="F113" t="n">
+        <v>164687859139.5272</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.1590000000000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>8.081</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.071649548323227</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.9138161352859211</v>
+      </c>
+      <c r="K113" t="n">
+        <v>8.618386471407891</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F114" t="n">
+        <v>40076093886.44747</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.07600000000000016</v>
+      </c>
+      <c r="H114" t="n">
+        <v>8.829000000000001</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9887869520897044</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.9035694711797588</v>
+      </c>
+      <c r="K114" t="n">
+        <v>9.643052882024117</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B115" t="n">
+        <v>40690</v>
+      </c>
+      <c r="C115" t="n">
+        <v>43500</v>
+      </c>
+      <c r="D115" t="n">
+        <v>33290</v>
+      </c>
+      <c r="E115" t="n">
+        <v>41800</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2780690.50743581</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1021</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B116" t="n">
+        <v>41810</v>
+      </c>
+      <c r="C116" t="n">
+        <v>42080</v>
+      </c>
+      <c r="D116" t="n">
+        <v>37650</v>
+      </c>
+      <c r="E116" t="n">
+        <v>38100</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1068313.10025634</v>
+      </c>
+      <c r="G116" t="n">
+        <v>443</v>
+      </c>
+      <c r="H116" t="n">
+        <v>42831</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B117" t="n">
+        <v>38030</v>
+      </c>
+      <c r="C117" t="n">
+        <v>40600</v>
+      </c>
+      <c r="D117" t="n">
+        <v>36200</v>
+      </c>
+      <c r="E117" t="n">
+        <v>38780</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1021862.25523627</v>
+      </c>
+      <c r="G117" t="n">
+        <v>440</v>
+      </c>
+      <c r="H117" t="n">
+        <v>38473</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.007979622072622</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.007979622072622</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B118" t="n">
+        <v>38700</v>
+      </c>
+      <c r="C118" t="n">
+        <v>41800</v>
+      </c>
+      <c r="D118" t="n">
+        <v>38000</v>
+      </c>
+      <c r="E118" t="n">
+        <v>41760</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1105199.10306394</v>
+      </c>
+      <c r="G118" t="n">
+        <v>380</v>
+      </c>
+      <c r="H118" t="n">
+        <v>39140</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.066939192641799</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.075452964173549</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B119" t="n">
+        <v>41760</v>
+      </c>
+      <c r="C119" t="n">
+        <v>43810</v>
+      </c>
+      <c r="D119" t="n">
+        <v>40600</v>
+      </c>
+      <c r="E119" t="n">
+        <v>43290</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1062066.56885417</v>
+      </c>
+      <c r="G119" t="n">
+        <v>321</v>
+      </c>
+      <c r="H119" t="n">
+        <v>42140</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.027289985761747</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.104802060253273</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B120" t="n">
+        <v>43290</v>
+      </c>
+      <c r="C120" t="n">
+        <v>44520</v>
+      </c>
+      <c r="D120" t="n">
+        <v>40520</v>
+      </c>
+      <c r="E120" t="n">
+        <v>42400</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1067544.15935132</v>
+      </c>
+      <c r="G120" t="n">
+        <v>400</v>
+      </c>
+      <c r="H120" t="n">
+        <v>43611</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.9722317763866914</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.074123669595716</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2.776822361330862</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B121" t="n">
+        <v>42450</v>
+      </c>
+      <c r="C121" t="n">
+        <v>44100</v>
+      </c>
+      <c r="D121" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E121" t="n">
+        <v>43360</v>
+      </c>
+      <c r="F121" t="n">
+        <v>857865.9795724</v>
+      </c>
+      <c r="G121" t="n">
+        <v>327</v>
+      </c>
+      <c r="H121" t="n">
+        <v>42850</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.011901983663944</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.0869078719643</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1.619673689318696</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B122" t="n">
+        <v>43370</v>
+      </c>
+      <c r="C122" t="n">
+        <v>45880</v>
+      </c>
+      <c r="D122" t="n">
+        <v>42800</v>
+      </c>
+      <c r="E122" t="n">
+        <v>44950</v>
+      </c>
+      <c r="F122" t="n">
+        <v>939999.80347376</v>
+      </c>
+      <c r="G122" t="n">
+        <v>308</v>
+      </c>
+      <c r="H122" t="n">
+        <v>43697</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.02867473739616</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.118074669766695</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B123" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C123" t="n">
+        <v>49140</v>
+      </c>
+      <c r="D123" t="n">
+        <v>44230</v>
+      </c>
+      <c r="E123" t="n">
+        <v>49140</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1071906.51013474</v>
+      </c>
+      <c r="G123" t="n">
+        <v>491</v>
+      </c>
+      <c r="H123" t="n">
+        <v>45258</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.085774890627071</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.213977402278833</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B124" t="n">
+        <v>49110</v>
+      </c>
+      <c r="C124" t="n">
+        <v>49770</v>
+      </c>
+      <c r="D124" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E124" t="n">
+        <v>47790</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1123032.81095014</v>
+      </c>
+      <c r="G124" t="n">
+        <v>373</v>
+      </c>
+      <c r="H124" t="n">
+        <v>49601</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9634886393419487</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.169653435513506</v>
+      </c>
+      <c r="K124" t="n">
+        <v>3.651136065805121</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B125" t="n">
+        <v>47790</v>
+      </c>
+      <c r="C125" t="n">
+        <v>51890</v>
+      </c>
+      <c r="D125" t="n">
+        <v>47410</v>
+      </c>
+      <c r="E125" t="n">
+        <v>51460</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1150207.59826377</v>
+      </c>
+      <c r="G125" t="n">
+        <v>448</v>
+      </c>
+      <c r="H125" t="n">
+        <v>48163</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.068455038099786</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.249722106005129</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B126" t="n">
+        <v>51460</v>
+      </c>
+      <c r="C126" t="n">
+        <v>61500</v>
+      </c>
+      <c r="D126" t="n">
+        <v>47550</v>
+      </c>
+      <c r="E126" t="n">
+        <v>57200</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5310476.26742387</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1395</v>
+      </c>
+      <c r="H126" t="n">
+        <v>51908</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.101949603144024</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.377130778752666</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B127" t="n">
+        <v>57110</v>
+      </c>
+      <c r="C127" t="n">
+        <v>70260</v>
+      </c>
+      <c r="D127" t="n">
+        <v>56060</v>
+      </c>
+      <c r="E127" t="n">
+        <v>59270</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9051511.402777771</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1420</v>
+      </c>
+      <c r="H127" t="n">
+        <v>58505</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.013075805486711</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.395137872945398</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B128" t="n">
+        <v>59300</v>
+      </c>
+      <c r="C128" t="n">
+        <v>59560</v>
+      </c>
+      <c r="D128" t="n">
+        <v>55970</v>
+      </c>
+      <c r="E128" t="n">
+        <v>57720</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1645172.00991526</v>
+      </c>
+      <c r="G128" t="n">
+        <v>359</v>
+      </c>
+      <c r="H128" t="n">
+        <v>60720</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.395137872945398</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>KRW-LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B129" t="n">
+        <v>989500</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1066000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>770000</v>
+      </c>
+      <c r="E129" t="n">
+        <v>998900</v>
+      </c>
+      <c r="F129" t="n">
+        <v>486853.00572375</v>
+      </c>
+      <c r="G129" t="n">
+        <v>29600</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B130" t="n">
+        <v>998900</v>
+      </c>
+      <c r="C130" t="n">
+        <v>999500</v>
+      </c>
+      <c r="D130" t="n">
+        <v>901400</v>
+      </c>
+      <c r="E130" t="n">
+        <v>937000</v>
+      </c>
+      <c r="F130" t="n">
+        <v>155186.79386833</v>
+      </c>
+      <c r="G130" t="n">
+        <v>9810</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1028500</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B131" t="n">
+        <v>937000</v>
+      </c>
+      <c r="C131" t="n">
+        <v>979700</v>
+      </c>
+      <c r="D131" t="n">
+        <v>873000</v>
+      </c>
+      <c r="E131" t="n">
+        <v>926000</v>
+      </c>
+      <c r="F131" t="n">
+        <v>123212.36987656</v>
+      </c>
+      <c r="G131" t="n">
+        <v>10670</v>
+      </c>
+      <c r="H131" t="n">
+        <v>946810</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.978020933450217</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.978020933450217</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2.197906654978299</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B132" t="n">
+        <v>926000</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1014000</v>
+      </c>
+      <c r="D132" t="n">
+        <v>907500</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1007500</v>
+      </c>
+      <c r="F132" t="n">
+        <v>130945.07948418</v>
+      </c>
+      <c r="G132" t="n">
+        <v>10650</v>
+      </c>
+      <c r="H132" t="n">
+        <v>936670</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.075618947975274</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.051977847535518</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1007500</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1048000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>981700</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1048000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>115049.15651269</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6630</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1018150</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.029317880469479</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.082819608326104</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1048000</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1096500</v>
+      </c>
+      <c r="D134" t="n">
+        <v>990000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1064000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>138023.14041875</v>
+      </c>
+      <c r="G134" t="n">
+        <v>10650</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1054630</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.008884632525151</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.092440062637109</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1064000</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1070000</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1020500</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1047000</v>
+      </c>
+      <c r="F135" t="n">
+        <v>74351.95106267001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4950</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1074650</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.092440062637109</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1046500</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1188000</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1040000</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1172500</v>
+      </c>
+      <c r="F136" t="n">
+        <v>147025.41112758</v>
+      </c>
+      <c r="G136" t="n">
+        <v>14800</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1051450</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.115126729754149</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.218209114500937</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1172500</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1222000</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1151000</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1200500</v>
+      </c>
+      <c r="F137" t="n">
+        <v>129201.20577266</v>
+      </c>
+      <c r="G137" t="n">
+        <v>7100</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1187300</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.011117661922008</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.231752751586268</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1199500</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1210000</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1130000</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1176000</v>
+      </c>
+      <c r="F138" t="n">
+        <v>87707.13827747</v>
+      </c>
+      <c r="G138" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1206600</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.9746394828443561</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.200514864798153</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2.53605171556439</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1176000</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1172500</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1246500</v>
+      </c>
+      <c r="F139" t="n">
+        <v>125267.13671564</v>
+      </c>
+      <c r="G139" t="n">
+        <v>8750</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1184000</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.052787162162162</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.263886637644339</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1247500</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1154000</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1204000</v>
+      </c>
+      <c r="F140" t="n">
+        <v>302614.96537124</v>
+      </c>
+      <c r="G140" t="n">
+        <v>15600</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1256250</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.958407960199005</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.21131901430749</v>
+      </c>
+      <c r="K140" t="n">
+        <v>4.159203980099498</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1203000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1841000</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1188000</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1824500</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1246181.12811631</v>
+      </c>
+      <c r="G141" t="n">
+        <v>65300</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1218600</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.497209913014935</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.813598836044654</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1821000</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1965000</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1628500</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1701000</v>
+      </c>
+      <c r="F142" t="n">
+        <v>458391.16295824</v>
+      </c>
+      <c r="G142" t="n">
+        <v>33650</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1886300</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.9017653607591581</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.635440608658197</v>
+      </c>
+      <c r="K142" t="n">
+        <v>9.823463924084185</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>KRW-BCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B143" t="n">
+        <v>14700</v>
+      </c>
+      <c r="C143" t="n">
+        <v>18220</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12220</v>
+      </c>
+      <c r="E143" t="n">
+        <v>17350</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6595975.12497549</v>
+      </c>
+      <c r="G143" t="n">
+        <v>600</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B144" t="n">
+        <v>17350</v>
+      </c>
+      <c r="C144" t="n">
+        <v>17410</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15790</v>
+      </c>
+      <c r="E144" t="n">
+        <v>16030</v>
+      </c>
+      <c r="F144" t="n">
+        <v>414522.10446099</v>
+      </c>
+      <c r="G144" t="n">
+        <v>162</v>
+      </c>
+      <c r="H144" t="n">
+        <v>17950</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B145" t="n">
+        <v>16030</v>
+      </c>
+      <c r="C145" t="n">
+        <v>17440</v>
+      </c>
+      <c r="D145" t="n">
+        <v>14910</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15830</v>
+      </c>
+      <c r="F145" t="n">
+        <v>634606.03450762</v>
+      </c>
+      <c r="G145" t="n">
+        <v>253</v>
+      </c>
+      <c r="H145" t="n">
+        <v>16192</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.977643280632411</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.977643280632411</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2.235671936758898</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15800</v>
+      </c>
+      <c r="C146" t="n">
+        <v>23350</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15510</v>
+      </c>
+      <c r="E146" t="n">
+        <v>22050</v>
+      </c>
+      <c r="F146" t="n">
+        <v>12934367.28140221</v>
+      </c>
+      <c r="G146" t="n">
+        <v>784</v>
+      </c>
+      <c r="H146" t="n">
+        <v>16053</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.373575032704167</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.342866401167673</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B147" t="n">
+        <v>22060</v>
+      </c>
+      <c r="C147" t="n">
+        <v>29760</v>
+      </c>
+      <c r="D147" t="n">
+        <v>20880</v>
+      </c>
+      <c r="E147" t="n">
+        <v>24280</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9305495.536341101</v>
+      </c>
+      <c r="G147" t="n">
+        <v>888</v>
+      </c>
+      <c r="H147" t="n">
+        <v>22844</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.062861145158466</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.427280520939902</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B148" t="n">
+        <v>24270</v>
+      </c>
+      <c r="C148" t="n">
+        <v>25580</v>
+      </c>
+      <c r="D148" t="n">
+        <v>21230</v>
+      </c>
+      <c r="E148" t="n">
+        <v>22360</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1376910.24135148</v>
+      </c>
+      <c r="G148" t="n">
+        <v>435</v>
+      </c>
+      <c r="H148" t="n">
+        <v>25158</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.8887828921217903</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.268542509270061</v>
+      </c>
+      <c r="K148" t="n">
+        <v>11.12171078782098</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B149" t="n">
+        <v>22370</v>
+      </c>
+      <c r="C149" t="n">
+        <v>28400</v>
+      </c>
+      <c r="D149" t="n">
+        <v>21140</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27450</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3725173.07842786</v>
+      </c>
+      <c r="G149" t="n">
+        <v>726</v>
+      </c>
+      <c r="H149" t="n">
+        <v>22805</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.203683402762552</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.526923564107133</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B150" t="n">
+        <v>27500</v>
+      </c>
+      <c r="C150" t="n">
+        <v>29070</v>
+      </c>
+      <c r="D150" t="n">
+        <v>25270</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27500</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1905273.98903418</v>
+      </c>
+      <c r="G150" t="n">
+        <v>380</v>
+      </c>
+      <c r="H150" t="n">
+        <v>28226</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.9742790335151987</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.48764961428988</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2.572096648480132</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B151" t="n">
+        <v>27500</v>
+      </c>
+      <c r="C151" t="n">
+        <v>28190</v>
+      </c>
+      <c r="D151" t="n">
+        <v>26300</v>
+      </c>
+      <c r="E151" t="n">
+        <v>26840</v>
+      </c>
+      <c r="F151" t="n">
+        <v>814553.5621533199</v>
+      </c>
+      <c r="G151" t="n">
+        <v>189</v>
+      </c>
+      <c r="H151" t="n">
+        <v>27880</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.9626972740315638</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.432156228390975</v>
+      </c>
+      <c r="K151" t="n">
+        <v>6.20642302888117</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B152" t="n">
+        <v>26830</v>
+      </c>
+      <c r="C152" t="n">
+        <v>31230</v>
+      </c>
+      <c r="D152" t="n">
+        <v>25050</v>
+      </c>
+      <c r="E152" t="n">
+        <v>28750</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3737254.2783396</v>
+      </c>
+      <c r="G152" t="n">
+        <v>618</v>
+      </c>
+      <c r="H152" t="n">
+        <v>27019</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.0640660276102</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.523908788861192</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.1974411369900249</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B153" t="n">
+        <v>28740</v>
+      </c>
+      <c r="C153" t="n">
+        <v>57960</v>
+      </c>
+      <c r="D153" t="n">
+        <v>28550</v>
+      </c>
+      <c r="E153" t="n">
+        <v>40420</v>
+      </c>
+      <c r="F153" t="n">
+        <v>24560966.59953056</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2941</v>
+      </c>
+      <c r="H153" t="n">
+        <v>29358</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.376796784522107</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.098112720409066</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B154" t="n">
+        <v>40420</v>
+      </c>
+      <c r="C154" t="n">
+        <v>54530</v>
+      </c>
+      <c r="D154" t="n">
+        <v>37290</v>
+      </c>
+      <c r="E154" t="n">
+        <v>44260</v>
+      </c>
+      <c r="F154" t="n">
+        <v>27294868.58025032</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1724</v>
+      </c>
+      <c r="H154" t="n">
+        <v>43361</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.020732916676276</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.141612716618742</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B155" t="n">
+        <v>44250</v>
+      </c>
+      <c r="C155" t="n">
+        <v>49710</v>
+      </c>
+      <c r="D155" t="n">
+        <v>40640</v>
+      </c>
+      <c r="E155" t="n">
+        <v>43130</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8703194.77849146</v>
+      </c>
+      <c r="G155" t="n">
+        <v>907</v>
+      </c>
+      <c r="H155" t="n">
+        <v>45974</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.9381389481011007</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.009130301208647</v>
+      </c>
+      <c r="K155" t="n">
+        <v>6.186105189889932</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B156" t="n">
+        <v>43090</v>
+      </c>
+      <c r="C156" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D156" t="n">
+        <v>40300</v>
+      </c>
+      <c r="E156" t="n">
+        <v>41860</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1259753.84595514</v>
+      </c>
+      <c r="G156" t="n">
+        <v>469</v>
+      </c>
+      <c r="H156" t="n">
+        <v>43997</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.9514285064890788</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.911543841820896</v>
+      </c>
+      <c r="K156" t="n">
+        <v>10.74278617289343</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B157" t="n">
+        <v>291900</v>
+      </c>
+      <c r="C157" t="n">
+        <v>303700</v>
+      </c>
+      <c r="D157" t="n">
+        <v>233500</v>
+      </c>
+      <c r="E157" t="n">
+        <v>287850</v>
+      </c>
+      <c r="F157" t="n">
+        <v>309948.44212582</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7020</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B158" t="n">
+        <v>287800</v>
+      </c>
+      <c r="C158" t="n">
+        <v>287850</v>
+      </c>
+      <c r="D158" t="n">
+        <v>265150</v>
+      </c>
+      <c r="E158" t="n">
+        <v>274600</v>
+      </c>
+      <c r="F158" t="n">
+        <v>96582.89317418</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2270</v>
+      </c>
+      <c r="H158" t="n">
+        <v>294820</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B159" t="n">
+        <v>274600</v>
+      </c>
+      <c r="C159" t="n">
+        <v>286100</v>
+      </c>
+      <c r="D159" t="n">
+        <v>256600</v>
+      </c>
+      <c r="E159" t="n">
+        <v>273550</v>
+      </c>
+      <c r="F159" t="n">
+        <v>135865.2401894</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2950</v>
+      </c>
+      <c r="H159" t="n">
+        <v>276870</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.9880088128002311</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.9880088128002311</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1.199118719976888</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B160" t="n">
+        <v>273650</v>
+      </c>
+      <c r="C160" t="n">
+        <v>294150</v>
+      </c>
+      <c r="D160" t="n">
+        <v>268050</v>
+      </c>
+      <c r="E160" t="n">
+        <v>294000</v>
+      </c>
+      <c r="F160" t="n">
+        <v>151929.75921094</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2610</v>
+      </c>
+      <c r="H160" t="n">
+        <v>276600</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.062906724511931</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.050161211002415</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B161" t="n">
+        <v>294000</v>
+      </c>
+      <c r="C161" t="n">
+        <v>308400</v>
+      </c>
+      <c r="D161" t="n">
+        <v>287400</v>
+      </c>
+      <c r="E161" t="n">
+        <v>305950</v>
+      </c>
+      <c r="F161" t="n">
+        <v>128378.08308628</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2100</v>
+      </c>
+      <c r="H161" t="n">
+        <v>296610</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.031489160850949</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.083229906295097</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B162" t="n">
+        <v>305950</v>
+      </c>
+      <c r="C162" t="n">
+        <v>314500</v>
+      </c>
+      <c r="D162" t="n">
+        <v>288850</v>
+      </c>
+      <c r="E162" t="n">
+        <v>302650</v>
+      </c>
+      <c r="F162" t="n">
+        <v>118199.07128063</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2565</v>
+      </c>
+      <c r="H162" t="n">
+        <v>308050</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.9824703781853595</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.064241295699436</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.752962181464056</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B163" t="n">
+        <v>302100</v>
+      </c>
+      <c r="C163" t="n">
+        <v>309000</v>
+      </c>
+      <c r="D163" t="n">
+        <v>292800</v>
+      </c>
+      <c r="E163" t="n">
+        <v>304100</v>
+      </c>
+      <c r="F163" t="n">
+        <v>89942.72438204</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1620</v>
+      </c>
+      <c r="H163" t="n">
+        <v>304665</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.9981455040782499</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.062267664556803</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1.935160912422555</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B164" t="n">
+        <v>304050</v>
+      </c>
+      <c r="C164" t="n">
+        <v>324250</v>
+      </c>
+      <c r="D164" t="n">
+        <v>301950</v>
+      </c>
+      <c r="E164" t="n">
+        <v>319650</v>
+      </c>
+      <c r="F164" t="n">
+        <v>124086.9718166</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2230</v>
+      </c>
+      <c r="H164" t="n">
+        <v>305670</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.04573559721268</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.110851110595028</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B165" t="n">
+        <v>319650</v>
+      </c>
+      <c r="C165" t="n">
+        <v>332900</v>
+      </c>
+      <c r="D165" t="n">
+        <v>315600</v>
+      </c>
+      <c r="E165" t="n">
+        <v>329500</v>
+      </c>
+      <c r="F165" t="n">
+        <v>118468.00200485</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1730</v>
+      </c>
+      <c r="H165" t="n">
+        <v>321880</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.023673418665341</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.137148754011003</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B166" t="n">
+        <v>329550</v>
+      </c>
+      <c r="C166" t="n">
+        <v>332500</v>
+      </c>
+      <c r="D166" t="n">
+        <v>315100</v>
+      </c>
+      <c r="E166" t="n">
+        <v>324900</v>
+      </c>
+      <c r="F166" t="n">
+        <v>121292.92538377</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1740</v>
+      </c>
+      <c r="H166" t="n">
+        <v>331280</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.9807413668196088</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.115248823285966</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1.92586331803913</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B167" t="n">
+        <v>324800</v>
+      </c>
+      <c r="C167" t="n">
+        <v>364950</v>
+      </c>
+      <c r="D167" t="n">
+        <v>324500</v>
+      </c>
+      <c r="E167" t="n">
+        <v>361200</v>
+      </c>
+      <c r="F167" t="n">
+        <v>202077.96162314</v>
+      </c>
+      <c r="G167" t="n">
+        <v>4045</v>
+      </c>
+      <c r="H167" t="n">
+        <v>326540</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.106143198383047</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.233624900382468</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B168" t="n">
+        <v>361200</v>
+      </c>
+      <c r="C168" t="n">
+        <v>422000</v>
+      </c>
+      <c r="D168" t="n">
+        <v>335200</v>
+      </c>
+      <c r="E168" t="n">
+        <v>384400</v>
+      </c>
+      <c r="F168" t="n">
+        <v>891480.56249641</v>
+      </c>
+      <c r="G168" t="n">
+        <v>8680</v>
+      </c>
+      <c r="H168" t="n">
+        <v>365245</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.052444249750168</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.298321432756151</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B169" t="n">
+        <v>384450</v>
+      </c>
+      <c r="C169" t="n">
+        <v>436900</v>
+      </c>
+      <c r="D169" t="n">
+        <v>376400</v>
+      </c>
+      <c r="E169" t="n">
+        <v>427500</v>
+      </c>
+      <c r="F169" t="n">
+        <v>743332.63716427</v>
+      </c>
+      <c r="G169" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H169" t="n">
+        <v>393130</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.08742655101366</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.411829197729134</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B170" t="n">
+        <v>427300</v>
+      </c>
+      <c r="C170" t="n">
+        <v>446000</v>
+      </c>
+      <c r="D170" t="n">
+        <v>398400</v>
+      </c>
+      <c r="E170" t="n">
+        <v>409050</v>
+      </c>
+      <c r="F170" t="n">
+        <v>227593.03206347</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4760</v>
+      </c>
+      <c r="H170" t="n">
+        <v>433350</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.9439252336448598</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.332661205333108</v>
+      </c>
+      <c r="K170" t="n">
+        <v>5.607476635514019</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>KRW-LTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8060</v>
+      </c>
+      <c r="C171" t="n">
+        <v>8430</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E171" t="n">
+        <v>7815</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3529400.61574133</v>
+      </c>
+      <c r="G171" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B172" t="n">
+        <v>7820</v>
+      </c>
+      <c r="C172" t="n">
+        <v>7930</v>
+      </c>
+      <c r="D172" t="n">
+        <v>7165</v>
+      </c>
+      <c r="E172" t="n">
+        <v>7315</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1450343.93834911</v>
+      </c>
+      <c r="G172" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="H172" t="n">
+        <v>8052.5</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B173" t="n">
+        <v>7335</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8185</v>
+      </c>
+      <c r="D173" t="n">
+        <v>7065</v>
+      </c>
+      <c r="E173" t="n">
+        <v>7575</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2780943.85311178</v>
+      </c>
+      <c r="G173" t="n">
+        <v>112</v>
+      </c>
+      <c r="H173" t="n">
+        <v>7411.5</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1.022060311677798</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.022060311677798</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B174" t="n">
+        <v>7565</v>
+      </c>
+      <c r="C174" t="n">
+        <v>8445</v>
+      </c>
+      <c r="D174" t="n">
+        <v>7390</v>
+      </c>
+      <c r="E174" t="n">
+        <v>8440</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2651265.30041314</v>
+      </c>
+      <c r="G174" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="H174" t="n">
+        <v>7677</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.099387781685554</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.1236406188043</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8445</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8940</v>
+      </c>
+      <c r="D175" t="n">
+        <v>8230</v>
+      </c>
+      <c r="E175" t="n">
+        <v>8930</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2641036.54763125</v>
+      </c>
+      <c r="G175" t="n">
+        <v>71</v>
+      </c>
+      <c r="H175" t="n">
+        <v>8550.5</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.044383369393603</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.173511575454348</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8915</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D176" t="n">
+        <v>8055</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8680</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2318476.08520698</v>
+      </c>
+      <c r="G176" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="H176" t="n">
+        <v>8986</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.9659470287113288</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.133550019468478</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3.405297128867133</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8650</v>
+      </c>
+      <c r="C177" t="n">
+        <v>8815</v>
+      </c>
+      <c r="D177" t="n">
+        <v>8300</v>
+      </c>
+      <c r="E177" t="n">
+        <v>8650</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1587866.19025851</v>
+      </c>
+      <c r="G177" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="H177" t="n">
+        <v>8774.5</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.9858111573309021</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.117466256584686</v>
+      </c>
+      <c r="K177" t="n">
+        <v>4.775864170573898</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B178" t="n">
+        <v>8655</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9260</v>
+      </c>
+      <c r="D178" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9115</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1843622.53524683</v>
+      </c>
+      <c r="G178" t="n">
+        <v>76</v>
+      </c>
+      <c r="H178" t="n">
+        <v>8706.5</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.046918968586688</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.169896620774068</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.3080459328985137</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9795</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9690</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2191533.16386509</v>
+      </c>
+      <c r="G179" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="H179" t="n">
+        <v>9201</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.053146397130747</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.232072411183645</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9685</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9755</v>
+      </c>
+      <c r="D180" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9470</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1722196.06395883</v>
+      </c>
+      <c r="G180" t="n">
+        <v>76</v>
+      </c>
+      <c r="H180" t="n">
+        <v>9764.5</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.232072411183645</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9480</v>
+      </c>
+      <c r="C181" t="n">
+        <v>12800</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18141541.86535637</v>
+      </c>
+      <c r="G181" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="H181" t="n">
+        <v>9556</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.203432398493093</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.482715856907902</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11500</v>
+      </c>
+      <c r="C182" t="n">
+        <v>13070</v>
+      </c>
+      <c r="D182" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E182" t="n">
+        <v>10920</v>
+      </c>
+      <c r="F182" t="n">
+        <v>20349512.93877518</v>
+      </c>
+      <c r="G182" t="n">
+        <v>268</v>
+      </c>
+      <c r="H182" t="n">
+        <v>11836.5</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.9225700164744646</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.367909192534473</v>
+      </c>
+      <c r="K182" t="n">
+        <v>7.742998352553536</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B183" t="n">
+        <v>10920</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12710</v>
+      </c>
+      <c r="D183" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11920</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13141754.85984913</v>
+      </c>
+      <c r="G183" t="n">
+        <v>200</v>
+      </c>
+      <c r="H183" t="n">
+        <v>11188</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.065427243475152</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.457407720326324</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1.706877043478567</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11910</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12680</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11530</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12090</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3010410.22035308</v>
+      </c>
+      <c r="G184" t="n">
+        <v>115</v>
+      </c>
+      <c r="H184" t="n">
+        <v>12110</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.9983484723369116</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.455000771159807</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1.86921085513261</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B185" t="n">
+        <v>85060</v>
+      </c>
+      <c r="C185" t="n">
+        <v>124750</v>
+      </c>
+      <c r="D185" t="n">
+        <v>82600</v>
+      </c>
+      <c r="E185" t="n">
+        <v>101500</v>
+      </c>
+      <c r="F185" t="n">
+        <v>16022765.44028343</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4215</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B186" t="n">
+        <v>101550</v>
+      </c>
+      <c r="C186" t="n">
+        <v>113000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>95240</v>
+      </c>
+      <c r="E186" t="n">
+        <v>100800</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3128915.53525336</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1776</v>
+      </c>
+      <c r="H186" t="n">
+        <v>105765</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.9530563040703446</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.9530563040703446</v>
+      </c>
+      <c r="K186" t="n">
+        <v>4.694369592965542</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44311.375</v>
+      </c>
+      <c r="B187" t="n">
+        <v>100800</v>
+      </c>
+      <c r="C187" t="n">
+        <v>105200</v>
+      </c>
+      <c r="D187" t="n">
+        <v>92000</v>
+      </c>
+      <c r="E187" t="n">
+        <v>99850</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2110504.61983354</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1320</v>
+      </c>
+      <c r="H187" t="n">
+        <v>102576</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.9734245827484012</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.9277284351254085</v>
+      </c>
+      <c r="K187" t="n">
+        <v>7.227156487459152</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B188" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C188" t="n">
+        <v>107650</v>
+      </c>
+      <c r="D188" t="n">
+        <v>96320</v>
+      </c>
+      <c r="E188" t="n">
+        <v>107600</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2007802.46572745</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1133</v>
+      </c>
+      <c r="H188" t="n">
+        <v>101170</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.063556390234259</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.9866915055796575</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1.330849442034254</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B189" t="n">
+        <v>107550</v>
+      </c>
+      <c r="C189" t="n">
+        <v>115450</v>
+      </c>
+      <c r="D189" t="n">
+        <v>101300</v>
+      </c>
+      <c r="E189" t="n">
+        <v>109250</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2120730.20581291</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1415</v>
+      </c>
+      <c r="H189" t="n">
+        <v>108683</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.005217007259645</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.9918390823272965</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.8160917672703549</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B190" t="n">
+        <v>109250</v>
+      </c>
+      <c r="C190" t="n">
+        <v>122000</v>
+      </c>
+      <c r="D190" t="n">
+        <v>99960</v>
+      </c>
+      <c r="E190" t="n">
+        <v>107950</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3201570.58785228</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2204</v>
+      </c>
+      <c r="H190" t="n">
+        <v>110665</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.9754664979894275</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.9675057962068554</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3.24942037931446</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B191" t="n">
+        <v>108000</v>
+      </c>
+      <c r="C191" t="n">
+        <v>109850</v>
+      </c>
+      <c r="D191" t="n">
+        <v>102100</v>
+      </c>
+      <c r="E191" t="n">
+        <v>105200</v>
+      </c>
+      <c r="F191" t="n">
+        <v>721217.17054131</v>
+      </c>
+      <c r="G191" t="n">
+        <v>775</v>
+      </c>
+      <c r="H191" t="n">
+        <v>110204</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.9675057962068554</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3.24942037931446</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B192" t="n">
+        <v>105300</v>
+      </c>
+      <c r="C192" t="n">
+        <v>113000</v>
+      </c>
+      <c r="D192" t="n">
+        <v>103100</v>
+      </c>
+      <c r="E192" t="n">
+        <v>110350</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1517967.64484971</v>
+      </c>
+      <c r="G192" t="n">
+        <v>990</v>
+      </c>
+      <c r="H192" t="n">
+        <v>106075</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.040301673344332</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1.006497898764332</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B193" t="n">
+        <v>110400</v>
+      </c>
+      <c r="C193" t="n">
+        <v>117900</v>
+      </c>
+      <c r="D193" t="n">
+        <v>109150</v>
+      </c>
+      <c r="E193" t="n">
+        <v>116700</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1805996.14017901</v>
+      </c>
+      <c r="G193" t="n">
+        <v>875</v>
+      </c>
+      <c r="H193" t="n">
+        <v>111390</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1.047670347427956</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.054478003283935</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B194" t="n">
+        <v>116600</v>
+      </c>
+      <c r="C194" t="n">
+        <v>119250</v>
+      </c>
+      <c r="D194" t="n">
+        <v>109350</v>
+      </c>
+      <c r="E194" t="n">
+        <v>113700</v>
+      </c>
+      <c r="F194" t="n">
+        <v>957507.43239611</v>
+      </c>
+      <c r="G194" t="n">
+        <v>990</v>
+      </c>
+      <c r="H194" t="n">
+        <v>117475</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.9678655032985741</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1.020592883365681</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3.213449670142585</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B195" t="n">
+        <v>113700</v>
+      </c>
+      <c r="C195" t="n">
+        <v>118450</v>
+      </c>
+      <c r="D195" t="n">
+        <v>113100</v>
+      </c>
+      <c r="E195" t="n">
+        <v>117800</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1257342.84535953</v>
+      </c>
+      <c r="G195" t="n">
+        <v>535</v>
+      </c>
+      <c r="H195" t="n">
+        <v>114690</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1.027116575115529</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1.048267866949841</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.5889299079500937</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B196" t="n">
+        <v>117800</v>
+      </c>
+      <c r="C196" t="n">
+        <v>141300</v>
+      </c>
+      <c r="D196" t="n">
+        <v>117750</v>
+      </c>
+      <c r="E196" t="n">
+        <v>136000</v>
+      </c>
+      <c r="F196" t="n">
+        <v>5188805.35010645</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2355</v>
+      </c>
+      <c r="H196" t="n">
+        <v>118335</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1.149279587611442</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1.204752861834439</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B197" t="n">
+        <v>135750</v>
+      </c>
+      <c r="C197" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D197" t="n">
+        <v>130200</v>
+      </c>
+      <c r="E197" t="n">
+        <v>163300</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4532726.93718715</v>
+      </c>
+      <c r="G197" t="n">
+        <v>3880</v>
+      </c>
+      <c r="H197" t="n">
+        <v>138105</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.182433655551935</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1.424540330455551</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B198" t="n">
+        <v>163300</v>
+      </c>
+      <c r="C198" t="n">
+        <v>218000</v>
+      </c>
+      <c r="D198" t="n">
+        <v>162900</v>
+      </c>
+      <c r="E198" t="n">
+        <v>190000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4723006.0254142</v>
+      </c>
+      <c r="G198" t="n">
+        <v>5510</v>
+      </c>
+      <c r="H198" t="n">
+        <v>167180</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1.136499581289628</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1.618989489092922</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
         </is>
       </c>
     </row>

--- a/dd.xlsx
+++ b/dd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,16 +504,16 @@
         <v>68700000</v>
       </c>
       <c r="C2" t="n">
-        <v>69900000</v>
+        <v>70853000</v>
       </c>
       <c r="D2" t="n">
         <v>67899000</v>
       </c>
       <c r="E2" t="n">
-        <v>69425000</v>
+        <v>68400000</v>
       </c>
       <c r="F2" t="n">
-        <v>4848.23831146</v>
+        <v>10549.72503207</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -542,7 +542,7 @@
         <v>18322.27248634</v>
       </c>
       <c r="G3" t="n">
-        <v>504000</v>
+        <v>1512000</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -580,16 +580,16 @@
         <v>9860.607521620001</v>
       </c>
       <c r="G4" t="n">
-        <v>182900</v>
+        <v>548700</v>
       </c>
       <c r="H4" t="n">
-        <v>68460000</v>
+        <v>69468000</v>
       </c>
       <c r="I4" t="n">
-        <v>1.008603564125037</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.008603564125037</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>7970.05825148</v>
       </c>
       <c r="G5" t="n">
-        <v>249400</v>
+        <v>748200</v>
       </c>
       <c r="H5" t="n">
-        <v>69223900</v>
+        <v>69589700</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9888492269288497</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9973568546627249</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.115077307115028</v>
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -660,16 +660,16 @@
         <v>9426.09845223</v>
       </c>
       <c r="G6" t="n">
-        <v>271800</v>
+        <v>815400</v>
       </c>
       <c r="H6" t="n">
-        <v>68701400</v>
+        <v>69200200</v>
       </c>
       <c r="I6" t="n">
-        <v>1.01884386635498</v>
+        <v>1.011499966763102</v>
       </c>
       <c r="J6" t="n">
-        <v>1.016150913940212</v>
+        <v>1.011499966763102</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>12631.44767277</v>
       </c>
       <c r="G7" t="n">
-        <v>399000</v>
+        <v>1197000</v>
       </c>
       <c r="H7" t="n">
-        <v>70267800</v>
+        <v>70811400</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9510615103930962</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9664220229993034</v>
+        <v>1.011499966763102</v>
       </c>
       <c r="K7" t="n">
-        <v>4.893848960690385</v>
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -740,19 +740,19 @@
         <v>11726.55219754</v>
       </c>
       <c r="G8" t="n">
-        <v>350700</v>
+        <v>1052100</v>
       </c>
       <c r="H8" t="n">
-        <v>67227000</v>
+        <v>68025000</v>
       </c>
       <c r="I8" t="n">
-        <v>1.021598464902495</v>
+        <v>1.009614112458655</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9872952551440516</v>
+        <v>1.021224641195488</v>
       </c>
       <c r="K8" t="n">
-        <v>2.839702095456511</v>
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -768,31 +768,31 @@
         <v>68700000</v>
       </c>
       <c r="C9" t="n">
-        <v>69900000</v>
+        <v>70853000</v>
       </c>
       <c r="D9" t="n">
         <v>67899000</v>
       </c>
       <c r="E9" t="n">
-        <v>69425000</v>
+        <v>68400000</v>
       </c>
       <c r="F9" t="n">
-        <v>4848.23831146</v>
+        <v>10549.72503207</v>
       </c>
       <c r="G9" t="n">
-        <v>200100</v>
+        <v>886200</v>
       </c>
       <c r="H9" t="n">
-        <v>69050700</v>
+        <v>69752100</v>
       </c>
       <c r="I9" t="n">
-        <v>1.005420654678374</v>
+        <v>0.9806156373786595</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9926470417877846</v>
+        <v>1.001428852432706</v>
       </c>
       <c r="K9" t="n">
-        <v>2.313029672068038</v>
+        <v>1.938436262134036</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -805,22 +805,22 @@
         <v>44316.375</v>
       </c>
       <c r="B10" t="n">
-        <v>363</v>
+        <v>3279000</v>
       </c>
       <c r="C10" t="n">
-        <v>405</v>
+        <v>3309000</v>
       </c>
       <c r="D10" t="n">
-        <v>360</v>
+        <v>3221000</v>
       </c>
       <c r="E10" t="n">
-        <v>398</v>
+        <v>3271000</v>
       </c>
       <c r="F10" t="n">
-        <v>2756637378.346507</v>
+        <v>117942.84932895</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>26400</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-ETH</t>
         </is>
       </c>
     </row>
@@ -843,38 +843,38 @@
         <v>44317.375</v>
       </c>
       <c r="B11" t="n">
-        <v>397</v>
+        <v>3271000</v>
       </c>
       <c r="C11" t="n">
-        <v>474</v>
+        <v>3525000</v>
       </c>
       <c r="D11" t="n">
-        <v>384</v>
+        <v>3232000</v>
       </c>
       <c r="E11" t="n">
-        <v>465</v>
+        <v>3507000</v>
       </c>
       <c r="F11" t="n">
-        <v>5159788208.249722</v>
+        <v>134203.28134889</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>87900</v>
       </c>
       <c r="H11" t="n">
-        <v>401.5</v>
+        <v>3297400</v>
       </c>
       <c r="I11" t="n">
-        <v>1.158156911581569</v>
+        <v>1.063565233214048</v>
       </c>
       <c r="J11" t="n">
-        <v>1.158156911581569</v>
+        <v>1.063565233214048</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-ETH</t>
         </is>
       </c>
     </row>
@@ -883,38 +883,38 @@
         <v>44318.375</v>
       </c>
       <c r="B12" t="n">
-        <v>464</v>
+        <v>3509000</v>
       </c>
       <c r="C12" t="n">
-        <v>483</v>
+        <v>3589000</v>
       </c>
       <c r="D12" t="n">
-        <v>434</v>
+        <v>3400000</v>
       </c>
       <c r="E12" t="n">
-        <v>453</v>
+        <v>3563000</v>
       </c>
       <c r="F12" t="n">
-        <v>3530273013.891833</v>
+        <v>119685.09297857</v>
       </c>
       <c r="G12" t="n">
-        <v>4.9</v>
+        <v>56700</v>
       </c>
       <c r="H12" t="n">
-        <v>473</v>
+        <v>3596900</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9577167019027484</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.109186217645773</v>
+        <v>1.063565233214048</v>
       </c>
       <c r="K12" t="n">
-        <v>4.228329809725154</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-ETH</t>
         </is>
       </c>
     </row>
@@ -923,38 +923,38 @@
         <v>44319.375</v>
       </c>
       <c r="B13" t="n">
-        <v>453</v>
+        <v>3564000</v>
       </c>
       <c r="C13" t="n">
-        <v>548</v>
+        <v>4247000</v>
       </c>
       <c r="D13" t="n">
-        <v>453</v>
+        <v>3562000</v>
       </c>
       <c r="E13" t="n">
-        <v>539</v>
+        <v>4226000</v>
       </c>
       <c r="F13" t="n">
-        <v>4918062599.184709</v>
+        <v>345720.61229584</v>
       </c>
       <c r="G13" t="n">
-        <v>9.5</v>
+        <v>205500</v>
       </c>
       <c r="H13" t="n">
-        <v>457.9</v>
+        <v>3620700</v>
       </c>
       <c r="I13" t="n">
-        <v>1.177112906748198</v>
+        <v>1.167177617587759</v>
       </c>
       <c r="J13" t="n">
-        <v>1.305637412778056</v>
+        <v>1.241369535051942</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-ETH</t>
         </is>
       </c>
     </row>
@@ -963,38 +963,38 @@
         <v>44320.375</v>
       </c>
       <c r="B14" t="n">
-        <v>539</v>
+        <v>4226000</v>
       </c>
       <c r="C14" t="n">
-        <v>768</v>
+        <v>4527000</v>
       </c>
       <c r="D14" t="n">
-        <v>501</v>
+        <v>3934000</v>
       </c>
       <c r="E14" t="n">
-        <v>675</v>
+        <v>4081000</v>
       </c>
       <c r="F14" t="n">
-        <v>17030012491.00062</v>
+        <v>580003.30887624</v>
       </c>
       <c r="G14" t="n">
-        <v>26.7</v>
+        <v>177900</v>
       </c>
       <c r="H14" t="n">
-        <v>548.5</v>
+        <v>4431500</v>
       </c>
       <c r="I14" t="n">
-        <v>1.230628988149499</v>
+        <v>0.9209071420512241</v>
       </c>
       <c r="J14" t="n">
-        <v>1.606755248177189</v>
+        <v>1.14318607075414</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>7.909285794877592</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-ETH</t>
         </is>
       </c>
     </row>
@@ -1003,38 +1003,38 @@
         <v>44321.375</v>
       </c>
       <c r="B15" t="n">
-        <v>674</v>
+        <v>4081000</v>
       </c>
       <c r="C15" t="n">
-        <v>887</v>
+        <v>4257000</v>
       </c>
       <c r="D15" t="n">
-        <v>668</v>
+        <v>3986000</v>
       </c>
       <c r="E15" t="n">
-        <v>783</v>
+        <v>4209000</v>
       </c>
       <c r="F15" t="n">
-        <v>15198662286.47263</v>
+        <v>265264.90113417</v>
       </c>
       <c r="G15" t="n">
-        <v>21.9</v>
+        <v>81300</v>
       </c>
       <c r="H15" t="n">
-        <v>700.7</v>
+        <v>4258900</v>
       </c>
       <c r="I15" t="n">
-        <v>1.117453974596832</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.795475038279919</v>
+        <v>1.14318607075414</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>7.909285794877592</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-ETH</t>
         </is>
       </c>
     </row>
@@ -1043,38 +1043,38 @@
         <v>44322.375</v>
       </c>
       <c r="B16" t="n">
-        <v>783</v>
+        <v>4209000</v>
       </c>
       <c r="C16" t="n">
-        <v>805</v>
+        <v>4330000</v>
       </c>
       <c r="D16" t="n">
-        <v>708</v>
+        <v>4091000</v>
       </c>
       <c r="E16" t="n">
-        <v>740</v>
+        <v>4265000</v>
       </c>
       <c r="F16" t="n">
-        <v>2618150952.10072</v>
+        <v>127277.51836378</v>
       </c>
       <c r="G16" t="n">
-        <v>9.700000000000001</v>
+        <v>71700</v>
       </c>
       <c r="H16" t="n">
-        <v>804.9</v>
+        <v>4290300</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9193688656976022</v>
+        <v>0.9941029764818311</v>
       </c>
       <c r="J16" t="n">
-        <v>1.650703849331768</v>
+        <v>1.13644467560926</v>
       </c>
       <c r="K16" t="n">
-        <v>8.063113430239778</v>
+        <v>8.452346902350168</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-ETH</t>
         </is>
       </c>
     </row>
@@ -1083,22 +1083,22 @@
         <v>44316.375</v>
       </c>
       <c r="B17" t="n">
-        <v>227</v>
+        <v>363</v>
       </c>
       <c r="C17" t="n">
-        <v>242</v>
+        <v>405</v>
       </c>
       <c r="D17" t="n">
-        <v>222</v>
+        <v>360</v>
       </c>
       <c r="E17" t="n">
-        <v>237</v>
+        <v>398</v>
       </c>
       <c r="F17" t="n">
-        <v>1274774678.973034</v>
+        <v>2756637378.346507</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
@@ -1121,38 +1121,38 @@
         <v>44317.375</v>
       </c>
       <c r="B18" t="n">
-        <v>237</v>
+        <v>397</v>
       </c>
       <c r="C18" t="n">
-        <v>248</v>
+        <v>474</v>
       </c>
       <c r="D18" t="n">
-        <v>231</v>
+        <v>384</v>
       </c>
       <c r="E18" t="n">
-        <v>243</v>
+        <v>465</v>
       </c>
       <c r="F18" t="n">
-        <v>1099209383.076911</v>
+        <v>5159788208.249722</v>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>239</v>
+        <v>410.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.01673640167364</v>
+        <v>1.132764920828258</v>
       </c>
       <c r="J18" t="n">
-        <v>1.01673640167364</v>
+        <v>1.132764920828258</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
@@ -1161,38 +1161,38 @@
         <v>44318.375</v>
       </c>
       <c r="B19" t="n">
-        <v>243</v>
+        <v>464</v>
       </c>
       <c r="C19" t="n">
-        <v>268</v>
+        <v>483</v>
       </c>
       <c r="D19" t="n">
-        <v>235</v>
+        <v>434</v>
       </c>
       <c r="E19" t="n">
-        <v>260</v>
+        <v>453</v>
       </c>
       <c r="F19" t="n">
-        <v>2009108457.321046</v>
+        <v>3530273013.891833</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>14.7</v>
       </c>
       <c r="H19" t="n">
-        <v>244.7</v>
+        <v>491</v>
       </c>
       <c r="I19" t="n">
-        <v>1.062525541479363</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.080308395730063</v>
+        <v>1.132764920828258</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
@@ -1201,38 +1201,38 @@
         <v>44319.375</v>
       </c>
       <c r="B20" t="n">
-        <v>260</v>
+        <v>453</v>
       </c>
       <c r="C20" t="n">
-        <v>269</v>
+        <v>548</v>
       </c>
       <c r="D20" t="n">
-        <v>252</v>
+        <v>453</v>
       </c>
       <c r="E20" t="n">
-        <v>258</v>
+        <v>539</v>
       </c>
       <c r="F20" t="n">
-        <v>1109849949.486332</v>
+        <v>4918062599.184709</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>28.5</v>
       </c>
       <c r="H20" t="n">
-        <v>263.3</v>
+        <v>467.7</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9798708697303455</v>
+        <v>1.15244815052384</v>
       </c>
       <c r="J20" t="n">
-        <v>1.058562727301011</v>
+        <v>1.30545283798681</v>
       </c>
       <c r="K20" t="n">
-        <v>2.012913026965439</v>
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
@@ -1241,38 +1241,38 @@
         <v>44320.375</v>
       </c>
       <c r="B21" t="n">
-        <v>259</v>
+        <v>539</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>768</v>
       </c>
       <c r="D21" t="n">
-        <v>232</v>
+        <v>501</v>
       </c>
       <c r="E21" t="n">
-        <v>235</v>
+        <v>675</v>
       </c>
       <c r="F21" t="n">
-        <v>1550068043.134178</v>
+        <v>17030012491.00062</v>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>260.7</v>
+        <v>567.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>1.18942731277533</v>
       </c>
       <c r="J21" t="n">
-        <v>1.058562727301011</v>
+        <v>1.552741261041581</v>
       </c>
       <c r="K21" t="n">
-        <v>2.012913026965439</v>
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
@@ -1281,38 +1281,38 @@
         <v>44321.375</v>
       </c>
       <c r="B22" t="n">
-        <v>236</v>
+        <v>674</v>
       </c>
       <c r="C22" t="n">
-        <v>251</v>
+        <v>887</v>
       </c>
       <c r="D22" t="n">
-        <v>234</v>
+        <v>668</v>
       </c>
       <c r="E22" t="n">
-        <v>248</v>
+        <v>783</v>
       </c>
       <c r="F22" t="n">
-        <v>1459084979.892305</v>
+        <v>15198662286.47263</v>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>65.7</v>
       </c>
       <c r="H22" t="n">
-        <v>238.8</v>
+        <v>754.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.038525963149079</v>
+        <v>1.038323829730805</v>
       </c>
       <c r="J22" t="n">
-        <v>1.099344875923998</v>
+        <v>1.612248252745733</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
@@ -1321,38 +1321,38 @@
         <v>44322.375</v>
       </c>
       <c r="B23" t="n">
-        <v>248</v>
+        <v>783</v>
       </c>
       <c r="C23" t="n">
-        <v>260</v>
+        <v>805</v>
       </c>
       <c r="D23" t="n">
-        <v>238</v>
+        <v>700</v>
       </c>
       <c r="E23" t="n">
-        <v>253</v>
+        <v>700</v>
       </c>
       <c r="F23" t="n">
-        <v>797794880.6418343</v>
+        <v>4515629643.06786</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>31.5</v>
       </c>
       <c r="H23" t="n">
-        <v>249.7</v>
+        <v>848.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1.013215859030837</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.113873662830483</v>
+        <v>1.612248252745733</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
     </row>
@@ -1361,22 +1361,22 @@
         <v>44316.375</v>
       </c>
       <c r="B24" t="n">
-        <v>45</v>
+        <v>1660</v>
       </c>
       <c r="C24" t="n">
-        <v>48.5</v>
+        <v>1940</v>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>1640</v>
       </c>
       <c r="E24" t="n">
-        <v>48.1</v>
+        <v>1885</v>
       </c>
       <c r="F24" t="n">
-        <v>808430094.6499189</v>
+        <v>1533605398.745113</v>
       </c>
       <c r="G24" t="n">
-        <v>0.45</v>
+        <v>90</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-XRP</t>
         </is>
       </c>
     </row>
@@ -1399,38 +1399,38 @@
         <v>44317.375</v>
       </c>
       <c r="B25" t="n">
-        <v>48.1</v>
+        <v>1885</v>
       </c>
       <c r="C25" t="n">
-        <v>49</v>
+        <v>1995</v>
       </c>
       <c r="D25" t="n">
-        <v>45.9</v>
+        <v>1830</v>
       </c>
       <c r="E25" t="n">
-        <v>47.7</v>
+        <v>1965</v>
       </c>
       <c r="F25" t="n">
-        <v>812731622.9144793</v>
+        <v>639318453.4081428</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3100000000000002</v>
+        <v>49.5</v>
       </c>
       <c r="H25" t="n">
-        <v>48.55</v>
+        <v>1975</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9824922760041195</v>
+        <v>0.9949367088607595</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9824922760041195</v>
+        <v>0.9949367088607595</v>
       </c>
       <c r="K25" t="n">
-        <v>1.750772399588052</v>
+        <v>0.5063291139240533</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-XRP</t>
         </is>
       </c>
     </row>
@@ -1439,38 +1439,38 @@
         <v>44318.375</v>
       </c>
       <c r="B26" t="n">
-        <v>47.7</v>
+        <v>1970</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>1980</v>
       </c>
       <c r="D26" t="n">
-        <v>47.2</v>
+        <v>1820</v>
       </c>
       <c r="E26" t="n">
-        <v>49.9</v>
+        <v>1890</v>
       </c>
       <c r="F26" t="n">
-        <v>3202139199.788204</v>
+        <v>550237675.7078196</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6799999999999997</v>
+        <v>48</v>
       </c>
       <c r="H26" t="n">
-        <v>48.01000000000001</v>
+        <v>2019.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.039366798583628</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.021169851543544</v>
+        <v>0.9949367088607595</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.5063291139240533</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-XRP</t>
         </is>
       </c>
     </row>
@@ -1479,38 +1479,38 @@
         <v>44319.375</v>
       </c>
       <c r="B27" t="n">
-        <v>49.9</v>
+        <v>1885</v>
       </c>
       <c r="C27" t="n">
-        <v>51.4</v>
+        <v>1955</v>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>1865</v>
       </c>
       <c r="E27" t="n">
-        <v>50.1</v>
+        <v>1905</v>
       </c>
       <c r="F27" t="n">
-        <v>1229382483.299647</v>
+        <v>568926042.3170128</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2399999999999999</v>
+        <v>27</v>
       </c>
       <c r="H27" t="n">
-        <v>50.58</v>
+        <v>1933</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9905100830367735</v>
+        <v>0.9855147439213657</v>
       </c>
       <c r="J27" t="n">
-        <v>1.011479034447046</v>
+        <v>0.9805247958508778</v>
       </c>
       <c r="K27" t="n">
-        <v>0.948991696322659</v>
+        <v>1.947520414912218</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-XRP</t>
         </is>
       </c>
     </row>
@@ -1519,38 +1519,38 @@
         <v>44320.375</v>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>1905</v>
       </c>
       <c r="C28" t="n">
-        <v>50.2</v>
+        <v>1910</v>
       </c>
       <c r="D28" t="n">
-        <v>43.9</v>
+        <v>1675</v>
       </c>
       <c r="E28" t="n">
-        <v>45.1</v>
+        <v>1745</v>
       </c>
       <c r="F28" t="n">
-        <v>1506431004.002772</v>
+        <v>1209373090.51612</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6300000000000004</v>
+        <v>70.5</v>
       </c>
       <c r="H28" t="n">
-        <v>50.24</v>
+        <v>1932</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.011479034447046</v>
+        <v>0.9805247958508778</v>
       </c>
       <c r="K28" t="n">
-        <v>0.948991696322659</v>
+        <v>1.947520414912218</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-XRP</t>
         </is>
       </c>
     </row>
@@ -1559,38 +1559,38 @@
         <v>44321.375</v>
       </c>
       <c r="B29" t="n">
-        <v>45.1</v>
+        <v>1750</v>
       </c>
       <c r="C29" t="n">
-        <v>55</v>
+        <v>1950</v>
       </c>
       <c r="D29" t="n">
-        <v>44.4</v>
+        <v>1715</v>
       </c>
       <c r="E29" t="n">
-        <v>49.3</v>
+        <v>1925</v>
       </c>
       <c r="F29" t="n">
-        <v>3310528864.839075</v>
+        <v>1326856740.081407</v>
       </c>
       <c r="G29" t="n">
-        <v>1.06</v>
+        <v>70.5</v>
       </c>
       <c r="H29" t="n">
-        <v>45.73</v>
+        <v>1820.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.078066914498141</v>
+        <v>1.057401812688822</v>
       </c>
       <c r="J29" t="n">
-        <v>1.090442081745886</v>
+        <v>1.036808696519055</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-XRP</t>
         </is>
       </c>
     </row>
@@ -1599,38 +1599,38 @@
         <v>44322.375</v>
       </c>
       <c r="B30" t="n">
-        <v>49.3</v>
+        <v>1920</v>
       </c>
       <c r="C30" t="n">
-        <v>52</v>
+        <v>2155</v>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>1920</v>
       </c>
       <c r="E30" t="n">
-        <v>50.9</v>
+        <v>2025</v>
       </c>
       <c r="F30" t="n">
-        <v>816553167.7731473</v>
+        <v>1174265228.640468</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>70.5</v>
       </c>
       <c r="H30" t="n">
-        <v>50.36</v>
+        <v>1990.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.010722795869738</v>
+        <v>1.017332328560663</v>
       </c>
       <c r="J30" t="n">
-        <v>1.102134669596219</v>
+        <v>1.054779005501677</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-XRP</t>
         </is>
       </c>
     </row>
@@ -1639,22 +1639,22 @@
         <v>44316.375</v>
       </c>
       <c r="B31" t="n">
-        <v>41130</v>
+        <v>1565</v>
       </c>
       <c r="C31" t="n">
-        <v>43460</v>
+        <v>1615</v>
       </c>
       <c r="D31" t="n">
-        <v>40590</v>
+        <v>1535</v>
       </c>
       <c r="E31" t="n">
-        <v>42750</v>
+        <v>1590</v>
       </c>
       <c r="F31" t="n">
-        <v>6328796.92304771</v>
+        <v>56947020.07461915</v>
       </c>
       <c r="G31" t="n">
-        <v>287</v>
+        <v>24</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-ADA</t>
         </is>
       </c>
     </row>
@@ -1677,38 +1677,38 @@
         <v>44317.375</v>
       </c>
       <c r="B32" t="n">
-        <v>42730</v>
+        <v>1595</v>
       </c>
       <c r="C32" t="n">
-        <v>55000</v>
+        <v>1625</v>
       </c>
       <c r="D32" t="n">
-        <v>42620</v>
+        <v>1560</v>
       </c>
       <c r="E32" t="n">
-        <v>53400</v>
+        <v>1615</v>
       </c>
       <c r="F32" t="n">
-        <v>28065781.15500577</v>
+        <v>40415365.37261509</v>
       </c>
       <c r="G32" t="n">
-        <v>1238</v>
+        <v>19.5</v>
       </c>
       <c r="H32" t="n">
-        <v>43017</v>
+        <v>1619</v>
       </c>
       <c r="I32" t="n">
-        <v>1.241369691052375</v>
+        <v>0.9975293390982087</v>
       </c>
       <c r="J32" t="n">
-        <v>1.241369691052375</v>
+        <v>0.9975293390982087</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.2470660901791266</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-ADA</t>
         </is>
       </c>
     </row>
@@ -1717,38 +1717,38 @@
         <v>44318.375</v>
       </c>
       <c r="B33" t="n">
-        <v>53220</v>
+        <v>1615</v>
       </c>
       <c r="C33" t="n">
-        <v>58780</v>
+        <v>1620</v>
       </c>
       <c r="D33" t="n">
-        <v>50370</v>
+        <v>1535</v>
       </c>
       <c r="E33" t="n">
-        <v>54380</v>
+        <v>1600</v>
       </c>
       <c r="F33" t="n">
-        <v>24834286.70194932</v>
+        <v>37420857.46996944</v>
       </c>
       <c r="G33" t="n">
-        <v>841</v>
+        <v>25.5</v>
       </c>
       <c r="H33" t="n">
-        <v>54458</v>
+        <v>1634.5</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9985677035513607</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.239591681652432</v>
+        <v>0.9975293390982087</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1432296448639381</v>
+        <v>0.2470660901791266</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-ADA</t>
         </is>
       </c>
     </row>
@@ -1757,38 +1757,38 @@
         <v>44319.375</v>
       </c>
       <c r="B34" t="n">
-        <v>54310</v>
+        <v>1605</v>
       </c>
       <c r="C34" t="n">
-        <v>64070</v>
+        <v>1670</v>
       </c>
       <c r="D34" t="n">
-        <v>53700</v>
+        <v>1600</v>
       </c>
       <c r="E34" t="n">
-        <v>63700</v>
+        <v>1670</v>
       </c>
       <c r="F34" t="n">
-        <v>37399233.46701108</v>
+        <v>43947012.39944381</v>
       </c>
       <c r="G34" t="n">
-        <v>1037</v>
+        <v>21</v>
       </c>
       <c r="H34" t="n">
-        <v>55151</v>
+        <v>1630.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1.155010788562311</v>
+        <v>1.024225697638761</v>
       </c>
       <c r="J34" t="n">
-        <v>1.431741765720656</v>
+        <v>1.021695183252995</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-ADA</t>
         </is>
       </c>
     </row>
@@ -1797,38 +1797,38 @@
         <v>44320.375</v>
       </c>
       <c r="B35" t="n">
-        <v>63710</v>
+        <v>1670</v>
       </c>
       <c r="C35" t="n">
-        <v>89590</v>
+        <v>1680</v>
       </c>
       <c r="D35" t="n">
-        <v>61500</v>
+        <v>1575</v>
       </c>
       <c r="E35" t="n">
-        <v>86000</v>
+        <v>1590</v>
       </c>
       <c r="F35" t="n">
-        <v>71486954.06389952</v>
+        <v>63224115.39528198</v>
       </c>
       <c r="G35" t="n">
-        <v>2809</v>
+        <v>31.5</v>
       </c>
       <c r="H35" t="n">
-        <v>64747</v>
+        <v>1691</v>
       </c>
       <c r="I35" t="n">
-        <v>1.328246868580784</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.901706516934783</v>
+        <v>1.021695183252995</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-ADA</t>
         </is>
       </c>
     </row>
@@ -1837,38 +1837,38 @@
         <v>44321.375</v>
       </c>
       <c r="B36" t="n">
-        <v>86000</v>
+        <v>1595</v>
       </c>
       <c r="C36" t="n">
-        <v>117750</v>
+        <v>1795</v>
       </c>
       <c r="D36" t="n">
-        <v>82200</v>
+        <v>1580</v>
       </c>
       <c r="E36" t="n">
-        <v>112000</v>
+        <v>1765</v>
       </c>
       <c r="F36" t="n">
-        <v>57594604.58783567</v>
+        <v>88906224.77378663</v>
       </c>
       <c r="G36" t="n">
-        <v>3555</v>
+        <v>64.5</v>
       </c>
       <c r="H36" t="n">
-        <v>88809</v>
+        <v>1626.5</v>
       </c>
       <c r="I36" t="n">
-        <v>1.26113344368251</v>
+        <v>1.085152167230249</v>
       </c>
       <c r="J36" t="n">
-        <v>2.398305688575434</v>
+        <v>1.108694742355694</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-ADA</t>
         </is>
       </c>
     </row>
@@ -1877,38 +1877,38 @@
         <v>44322.375</v>
       </c>
       <c r="B37" t="n">
-        <v>111850</v>
+        <v>1765</v>
       </c>
       <c r="C37" t="n">
-        <v>124800</v>
+        <v>2115</v>
       </c>
       <c r="D37" t="n">
-        <v>101300</v>
+        <v>1700</v>
       </c>
       <c r="E37" t="n">
-        <v>114100</v>
+        <v>1950</v>
       </c>
       <c r="F37" t="n">
-        <v>13120736.90719358</v>
+        <v>245271455.3267318</v>
       </c>
       <c r="G37" t="n">
-        <v>2350</v>
+        <v>124.5</v>
       </c>
       <c r="H37" t="n">
-        <v>115405</v>
+        <v>1829.5</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9886919977470647</v>
+        <v>1.065864990434545</v>
       </c>
       <c r="J37" t="n">
-        <v>2.371185642445796</v>
+        <v>1.181718910955782</v>
       </c>
       <c r="K37" t="n">
-        <v>1.130800225293522</v>
+        <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-ADA</t>
         </is>
       </c>
     </row>
@@ -1917,22 +1917,22 @@
         <v>44316.375</v>
       </c>
       <c r="B38" t="n">
-        <v>72.40000000000001</v>
+        <v>42780</v>
       </c>
       <c r="C38" t="n">
-        <v>81.59999999999999</v>
+        <v>43890</v>
       </c>
       <c r="D38" t="n">
-        <v>71.09999999999999</v>
+        <v>41750</v>
       </c>
       <c r="E38" t="n">
-        <v>81.3</v>
+        <v>42990</v>
       </c>
       <c r="F38" t="n">
-        <v>249002416.1423054</v>
+        <v>1801621.39010413</v>
       </c>
       <c r="G38" t="n">
-        <v>1.05</v>
+        <v>642</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-DOT</t>
         </is>
       </c>
     </row>
@@ -1955,38 +1955,38 @@
         <v>44317.375</v>
       </c>
       <c r="B39" t="n">
-        <v>81.59999999999999</v>
+        <v>42980</v>
       </c>
       <c r="C39" t="n">
-        <v>81.59999999999999</v>
+        <v>44490</v>
       </c>
       <c r="D39" t="n">
-        <v>76.40000000000001</v>
+        <v>42410</v>
       </c>
       <c r="E39" t="n">
-        <v>78.3</v>
+        <v>44060</v>
       </c>
       <c r="F39" t="n">
-        <v>210283493.4041202</v>
+        <v>1342179.63142322</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5199999999999989</v>
+        <v>624</v>
       </c>
       <c r="H39" t="n">
-        <v>82.64999999999999</v>
+        <v>43622</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>1.010040805098345</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>1.010040805098345</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-DOT</t>
         </is>
       </c>
     </row>
@@ -1995,38 +1995,38 @@
         <v>44318.375</v>
       </c>
       <c r="B40" t="n">
-        <v>78.40000000000001</v>
+        <v>44030</v>
       </c>
       <c r="C40" t="n">
-        <v>79.8</v>
+        <v>45000</v>
       </c>
       <c r="D40" t="n">
-        <v>74.3</v>
+        <v>41960</v>
       </c>
       <c r="E40" t="n">
-        <v>76.2</v>
+        <v>44000</v>
       </c>
       <c r="F40" t="n">
-        <v>207830571.739557</v>
+        <v>979224.77062891</v>
       </c>
       <c r="G40" t="n">
-        <v>0.55</v>
+        <v>912</v>
       </c>
       <c r="H40" t="n">
-        <v>78.92</v>
+        <v>44654</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9655347187024835</v>
+        <v>0.9853540556277153</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9655347187024835</v>
+        <v>0.9952478036531369</v>
       </c>
       <c r="K40" t="n">
-        <v>3.446528129751647</v>
+        <v>1.46459443722847</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-DOT</t>
         </is>
       </c>
     </row>
@@ -2035,38 +2035,38 @@
         <v>44319.375</v>
       </c>
       <c r="B41" t="n">
-        <v>76.09999999999999</v>
+        <v>43990</v>
       </c>
       <c r="C41" t="n">
-        <v>83.09999999999999</v>
+        <v>46000</v>
       </c>
       <c r="D41" t="n">
-        <v>75.7</v>
+        <v>43810</v>
       </c>
       <c r="E41" t="n">
-        <v>79</v>
+        <v>45750</v>
       </c>
       <c r="F41" t="n">
-        <v>343717768.6508819</v>
+        <v>988048.34256869</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7399999999999992</v>
+        <v>657</v>
       </c>
       <c r="H41" t="n">
-        <v>76.64999999999999</v>
+        <v>44902</v>
       </c>
       <c r="I41" t="n">
-        <v>1.030658838878017</v>
+        <v>1.0188855730257</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9951368920743145</v>
+        <v>1.014043628727696</v>
       </c>
       <c r="K41" t="n">
-        <v>0.486310792568545</v>
+        <v>0</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-DOT</t>
         </is>
       </c>
     </row>
@@ -2075,38 +2075,38 @@
         <v>44320.375</v>
       </c>
       <c r="B42" t="n">
-        <v>79.2</v>
+        <v>45750</v>
       </c>
       <c r="C42" t="n">
-        <v>79.90000000000001</v>
+        <v>47410</v>
       </c>
       <c r="D42" t="n">
-        <v>69.8</v>
+        <v>42320</v>
       </c>
       <c r="E42" t="n">
-        <v>71.3</v>
+        <v>43600</v>
       </c>
       <c r="F42" t="n">
-        <v>266602282.9478185</v>
+        <v>1820927.65983363</v>
       </c>
       <c r="G42" t="n">
-        <v>1.010000000000001</v>
+        <v>1527</v>
       </c>
       <c r="H42" t="n">
-        <v>79.94</v>
+        <v>46407</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0.9395134354730967</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9951368920743145</v>
+        <v>0.9527076133455632</v>
       </c>
       <c r="K42" t="n">
-        <v>0.486310792568545</v>
+        <v>6.048656452690329</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-DOT</t>
         </is>
       </c>
     </row>
@@ -2115,38 +2115,38 @@
         <v>44321.375</v>
       </c>
       <c r="B43" t="n">
-        <v>71.59999999999999</v>
+        <v>43600</v>
       </c>
       <c r="C43" t="n">
-        <v>75.40000000000001</v>
+        <v>49820</v>
       </c>
       <c r="D43" t="n">
-        <v>70.40000000000001</v>
+        <v>43130</v>
       </c>
       <c r="E43" t="n">
-        <v>73.90000000000001</v>
+        <v>49700</v>
       </c>
       <c r="F43" t="n">
-        <v>215333649.7677504</v>
+        <v>2754598.37874758</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>2007</v>
       </c>
       <c r="H43" t="n">
-        <v>72.61</v>
+        <v>45127</v>
       </c>
       <c r="I43" t="n">
-        <v>1.017766147913511</v>
+        <v>1.101336228865203</v>
       </c>
       <c r="J43" t="n">
-        <v>1.012816641293098</v>
+        <v>1.04925141009317</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-DOT</t>
         </is>
       </c>
     </row>
@@ -2155,38 +2155,38 @@
         <v>44322.375</v>
       </c>
       <c r="B44" t="n">
-        <v>73.90000000000001</v>
+        <v>49700</v>
       </c>
       <c r="C44" t="n">
-        <v>77.09999999999999</v>
+        <v>53430</v>
       </c>
       <c r="D44" t="n">
-        <v>71.5</v>
+        <v>46550</v>
       </c>
       <c r="E44" t="n">
-        <v>76</v>
+        <v>50810</v>
       </c>
       <c r="F44" t="n">
-        <v>104158874.6521259</v>
+        <v>3527499.66214809</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5599999999999995</v>
+        <v>2064</v>
       </c>
       <c r="H44" t="n">
-        <v>74.40000000000001</v>
+        <v>51707</v>
       </c>
       <c r="I44" t="n">
-        <v>1.021505376344086</v>
+        <v>0.9826522521128668</v>
       </c>
       <c r="J44" t="n">
-        <v>1.034597644331659</v>
+        <v>1.031049261160655</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.734774788713314</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-DOT</t>
         </is>
       </c>
     </row>
@@ -2195,22 +2195,22 @@
         <v>44316.375</v>
       </c>
       <c r="B45" t="n">
-        <v>5485</v>
+        <v>1046500</v>
       </c>
       <c r="C45" t="n">
-        <v>6300</v>
+        <v>1188000</v>
       </c>
       <c r="D45" t="n">
-        <v>5270</v>
+        <v>1040000</v>
       </c>
       <c r="E45" t="n">
-        <v>6185</v>
+        <v>1172500</v>
       </c>
       <c r="F45" t="n">
-        <v>21870386.34761748</v>
+        <v>147025.41112758</v>
       </c>
       <c r="G45" t="n">
-        <v>103</v>
+        <v>44400</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-BCH</t>
         </is>
       </c>
     </row>
@@ -2233,38 +2233,38 @@
         <v>44317.375</v>
       </c>
       <c r="B46" t="n">
-        <v>6190</v>
+        <v>1172500</v>
       </c>
       <c r="C46" t="n">
-        <v>7000</v>
+        <v>1222000</v>
       </c>
       <c r="D46" t="n">
-        <v>5955</v>
+        <v>1151000</v>
       </c>
       <c r="E46" t="n">
-        <v>6060</v>
+        <v>1200500</v>
       </c>
       <c r="F46" t="n">
-        <v>46545611.28324727</v>
+        <v>129201.20577266</v>
       </c>
       <c r="G46" t="n">
-        <v>104.5</v>
+        <v>21300</v>
       </c>
       <c r="H46" t="n">
-        <v>6293</v>
+        <v>1216900</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9629747338312411</v>
+        <v>0.986523132549922</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9629747338312411</v>
+        <v>0.986523132549922</v>
       </c>
       <c r="K46" t="n">
-        <v>3.70252661687589</v>
+        <v>1.347686745007803</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-BCH</t>
         </is>
       </c>
     </row>
@@ -2273,38 +2273,38 @@
         <v>44318.375</v>
       </c>
       <c r="B47" t="n">
-        <v>6060</v>
+        <v>1199500</v>
       </c>
       <c r="C47" t="n">
-        <v>6620</v>
+        <v>1210000</v>
       </c>
       <c r="D47" t="n">
-        <v>5515</v>
+        <v>1130000</v>
       </c>
       <c r="E47" t="n">
-        <v>6595</v>
+        <v>1176000</v>
       </c>
       <c r="F47" t="n">
-        <v>19551898.83518475</v>
+        <v>87707.13827747</v>
       </c>
       <c r="G47" t="n">
-        <v>110.5</v>
+        <v>24000</v>
       </c>
       <c r="H47" t="n">
-        <v>6164.5</v>
+        <v>1220800</v>
       </c>
       <c r="I47" t="n">
-        <v>1.069835347554546</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.030224409054592</v>
+        <v>0.986523132549922</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1.347686745007803</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-BCH</t>
         </is>
       </c>
     </row>
@@ -2313,38 +2313,38 @@
         <v>44319.375</v>
       </c>
       <c r="B48" t="n">
-        <v>6590</v>
+        <v>1176000</v>
       </c>
       <c r="C48" t="n">
-        <v>7180</v>
+        <v>1260000</v>
       </c>
       <c r="D48" t="n">
-        <v>6305</v>
+        <v>1172500</v>
       </c>
       <c r="E48" t="n">
-        <v>6700</v>
+        <v>1246500</v>
       </c>
       <c r="F48" t="n">
-        <v>35385185.04861008</v>
+        <v>125267.13671564</v>
       </c>
       <c r="G48" t="n">
-        <v>87.5</v>
+        <v>26250</v>
       </c>
       <c r="H48" t="n">
-        <v>6700.5</v>
+        <v>1200000</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9999253787030818</v>
+        <v>1.03875</v>
       </c>
       <c r="J48" t="n">
-        <v>1.030147532373072</v>
+        <v>1.024750903936231</v>
       </c>
       <c r="K48" t="n">
-        <v>0.007462129691821437</v>
+        <v>0</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-BCH</t>
         </is>
       </c>
     </row>
@@ -2353,38 +2353,38 @@
         <v>44320.375</v>
       </c>
       <c r="B49" t="n">
-        <v>6700</v>
+        <v>1247500</v>
       </c>
       <c r="C49" t="n">
-        <v>6895</v>
+        <v>1310000</v>
       </c>
       <c r="D49" t="n">
-        <v>5890</v>
+        <v>1154000</v>
       </c>
       <c r="E49" t="n">
-        <v>5930</v>
+        <v>1204000</v>
       </c>
       <c r="F49" t="n">
-        <v>26163659.38109585</v>
+        <v>302614.96537124</v>
       </c>
       <c r="G49" t="n">
-        <v>100.5</v>
+        <v>46800</v>
       </c>
       <c r="H49" t="n">
-        <v>6787.5</v>
+        <v>1273750</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8736648250460405</v>
+        <v>0.9452404317958784</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9000036636423303</v>
+        <v>0.9686359869199</v>
       </c>
       <c r="K49" t="n">
-        <v>12.64003689562762</v>
+        <v>5.475956820412169</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-BCH</t>
         </is>
       </c>
     </row>
@@ -2393,38 +2393,38 @@
         <v>44321.375</v>
       </c>
       <c r="B50" t="n">
-        <v>5935</v>
+        <v>1203000</v>
       </c>
       <c r="C50" t="n">
-        <v>6450</v>
+        <v>1841000</v>
       </c>
       <c r="D50" t="n">
-        <v>5765</v>
+        <v>1188000</v>
       </c>
       <c r="E50" t="n">
-        <v>6040</v>
+        <v>1824500</v>
       </c>
       <c r="F50" t="n">
-        <v>14281873.23732697</v>
+        <v>1246181.12811631</v>
       </c>
       <c r="G50" t="n">
-        <v>68.5</v>
+        <v>195900</v>
       </c>
       <c r="H50" t="n">
-        <v>6035.5</v>
+        <v>1249800</v>
       </c>
       <c r="I50" t="n">
-        <v>1.000745588600779</v>
+        <v>1.45983357337174</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9006746961146012</v>
+        <v>1.414047334081739</v>
       </c>
       <c r="K50" t="n">
-        <v>12.57490230297255</v>
+        <v>0</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-BCH</t>
         </is>
       </c>
     </row>
@@ -2433,38 +2433,38 @@
         <v>44322.375</v>
       </c>
       <c r="B51" t="n">
-        <v>6040</v>
+        <v>1821000</v>
       </c>
       <c r="C51" t="n">
-        <v>6445</v>
+        <v>1965000</v>
       </c>
       <c r="D51" t="n">
-        <v>5810</v>
+        <v>1628500</v>
       </c>
       <c r="E51" t="n">
-        <v>6205</v>
+        <v>1770000</v>
       </c>
       <c r="F51" t="n">
-        <v>5062227.58238365</v>
+        <v>1141531.35750746</v>
       </c>
       <c r="G51" t="n">
-        <v>63.5</v>
+        <v>100950</v>
       </c>
       <c r="H51" t="n">
-        <v>6108.5</v>
+        <v>2016900</v>
       </c>
       <c r="I51" t="n">
-        <v>1.015797658999754</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9149032478335271</v>
+        <v>1.414047334081739</v>
       </c>
       <c r="K51" t="n">
-        <v>11.1937904215347</v>
+        <v>0</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-BCH</t>
         </is>
       </c>
     </row>
@@ -2473,22 +2473,22 @@
         <v>44316.375</v>
       </c>
       <c r="B52" t="n">
-        <v>8.210000000000001</v>
+        <v>304050</v>
       </c>
       <c r="C52" t="n">
-        <v>8.69</v>
+        <v>324250</v>
       </c>
       <c r="D52" t="n">
-        <v>8.119999999999999</v>
+        <v>301950</v>
       </c>
       <c r="E52" t="n">
-        <v>8.529999999999999</v>
+        <v>319650</v>
       </c>
       <c r="F52" t="n">
-        <v>49306861583.3456</v>
+        <v>124086.9718166</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05700000000000003</v>
+        <v>6690</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>KRW-BTT</t>
+          <t>KRW-LTC</t>
         </is>
       </c>
     </row>
@@ -2511,38 +2511,38 @@
         <v>44317.375</v>
       </c>
       <c r="B53" t="n">
-        <v>8.529999999999999</v>
+        <v>319650</v>
       </c>
       <c r="C53" t="n">
-        <v>8.869999999999999</v>
+        <v>332900</v>
       </c>
       <c r="D53" t="n">
-        <v>8.27</v>
+        <v>315600</v>
       </c>
       <c r="E53" t="n">
-        <v>8.640000000000001</v>
+        <v>329500</v>
       </c>
       <c r="F53" t="n">
-        <v>57847290291.28767</v>
+        <v>118468.00200485</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05999999999999997</v>
+        <v>5190</v>
       </c>
       <c r="H53" t="n">
-        <v>8.587</v>
+        <v>326340</v>
       </c>
       <c r="I53" t="n">
-        <v>1.006172120647491</v>
+        <v>1.009683152540295</v>
       </c>
       <c r="J53" t="n">
-        <v>1.006172120647491</v>
+        <v>1.009683152540295</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>KRW-BTT</t>
+          <t>KRW-LTC</t>
         </is>
       </c>
     </row>
@@ -2551,38 +2551,38 @@
         <v>44318.375</v>
       </c>
       <c r="B54" t="n">
-        <v>8.640000000000001</v>
+        <v>329550</v>
       </c>
       <c r="C54" t="n">
-        <v>8.75</v>
+        <v>332500</v>
       </c>
       <c r="D54" t="n">
-        <v>8.15</v>
+        <v>315100</v>
       </c>
       <c r="E54" t="n">
-        <v>8.44</v>
+        <v>324900</v>
       </c>
       <c r="F54" t="n">
-        <v>45325736502.46541</v>
+        <v>121292.92538377</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05999999999999997</v>
+        <v>5220</v>
       </c>
       <c r="H54" t="n">
-        <v>8.700000000000001</v>
+        <v>334740</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9701149425287354</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9761026089959561</v>
+        <v>1.009683152540295</v>
       </c>
       <c r="K54" t="n">
-        <v>2.988505747126454</v>
+        <v>0</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>KRW-BTT</t>
+          <t>KRW-LTC</t>
         </is>
       </c>
     </row>
@@ -2591,38 +2591,38 @@
         <v>44319.375</v>
       </c>
       <c r="B55" t="n">
-        <v>8.44</v>
+        <v>324800</v>
       </c>
       <c r="C55" t="n">
-        <v>8.65</v>
+        <v>364950</v>
       </c>
       <c r="D55" t="n">
-        <v>8.359999999999999</v>
+        <v>324500</v>
       </c>
       <c r="E55" t="n">
-        <v>8.51</v>
+        <v>361200</v>
       </c>
       <c r="F55" t="n">
-        <v>41625224316.42494</v>
+        <v>202077.96162314</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0290000000000001</v>
+        <v>12135</v>
       </c>
       <c r="H55" t="n">
-        <v>8.5</v>
+        <v>330020</v>
       </c>
       <c r="I55" t="n">
-        <v>1.001176470588235</v>
+        <v>1.094479122477426</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9772509650065396</v>
+        <v>1.105077130772543</v>
       </c>
       <c r="K55" t="n">
-        <v>2.87437457741719</v>
+        <v>0</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>KRW-BTT</t>
+          <t>KRW-LTC</t>
         </is>
       </c>
     </row>
@@ -2631,38 +2631,38 @@
         <v>44320.375</v>
       </c>
       <c r="B56" t="n">
-        <v>8.5</v>
+        <v>361200</v>
       </c>
       <c r="C56" t="n">
-        <v>8.51</v>
+        <v>422000</v>
       </c>
       <c r="D56" t="n">
-        <v>7.8</v>
+        <v>335200</v>
       </c>
       <c r="E56" t="n">
-        <v>8.01</v>
+        <v>384400</v>
       </c>
       <c r="F56" t="n">
-        <v>69576341899.92999</v>
+        <v>891480.56249641</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07099999999999999</v>
+        <v>26040</v>
       </c>
       <c r="H56" t="n">
-        <v>8.529</v>
+        <v>373335</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>1.02963826054348</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9772509650065396</v>
+        <v>1.137829694695021</v>
       </c>
       <c r="K56" t="n">
-        <v>2.87437457741719</v>
+        <v>0</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>KRW-BTT</t>
+          <t>KRW-LTC</t>
         </is>
       </c>
     </row>
@@ -2671,38 +2671,38 @@
         <v>44321.375</v>
       </c>
       <c r="B57" t="n">
-        <v>8.01</v>
+        <v>384450</v>
       </c>
       <c r="C57" t="n">
-        <v>9.460000000000001</v>
+        <v>436900</v>
       </c>
       <c r="D57" t="n">
-        <v>7.87</v>
+        <v>376400</v>
       </c>
       <c r="E57" t="n">
-        <v>8.66</v>
+        <v>427500</v>
       </c>
       <c r="F57" t="n">
-        <v>164687859139.5272</v>
+        <v>743332.63716427</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1590000000000001</v>
+        <v>18150</v>
       </c>
       <c r="H57" t="n">
-        <v>8.081</v>
+        <v>410490</v>
       </c>
       <c r="I57" t="n">
-        <v>1.071649548323227</v>
+        <v>1.041438281078711</v>
       </c>
       <c r="J57" t="n">
-        <v>1.047270555247696</v>
+        <v>1.184979401403497</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>KRW-BTT</t>
+          <t>KRW-LTC</t>
         </is>
       </c>
     </row>
@@ -2711,38 +2711,38 @@
         <v>44322.375</v>
       </c>
       <c r="B58" t="n">
-        <v>8.67</v>
+        <v>427300</v>
       </c>
       <c r="C58" t="n">
-        <v>9.050000000000001</v>
+        <v>446000</v>
       </c>
       <c r="D58" t="n">
-        <v>8.289999999999999</v>
+        <v>398400</v>
       </c>
       <c r="E58" t="n">
-        <v>8.640000000000001</v>
+        <v>415300</v>
       </c>
       <c r="F58" t="n">
-        <v>41667761317.59285</v>
+        <v>488480.39882011</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07600000000000016</v>
+        <v>14280</v>
       </c>
       <c r="H58" t="n">
-        <v>8.829000000000001</v>
+        <v>445450</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9785932721712538</v>
+        <v>0.9323156358738355</v>
       </c>
       <c r="J58" t="n">
-        <v>1.024851919508449</v>
+        <v>1.104774824116898</v>
       </c>
       <c r="K58" t="n">
-        <v>2.140672782874616</v>
+        <v>6.768436412616446</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>KRW-BTT</t>
+          <t>KRW-LTC</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
         <v>939999.80347376</v>
       </c>
       <c r="G59" t="n">
-        <v>308</v>
+        <v>924</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
@@ -2804,16 +2804,16 @@
         <v>1071906.51013474</v>
       </c>
       <c r="G60" t="n">
-        <v>491</v>
+        <v>1473</v>
       </c>
       <c r="H60" t="n">
-        <v>45258</v>
+        <v>45874</v>
       </c>
       <c r="I60" t="n">
-        <v>1.085774890627071</v>
+        <v>1.071195012425339</v>
       </c>
       <c r="J60" t="n">
-        <v>1.085774890627071</v>
+        <v>1.071195012425339</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -2844,19 +2844,19 @@
         <v>1123032.81095014</v>
       </c>
       <c r="G61" t="n">
-        <v>373</v>
+        <v>1119</v>
       </c>
       <c r="H61" t="n">
-        <v>49601</v>
+        <v>50583</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9634886393419487</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.04613177200193</v>
+        <v>1.071195012425339</v>
       </c>
       <c r="K61" t="n">
-        <v>3.651136065805123</v>
+        <v>0</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2884,16 +2884,16 @@
         <v>1150207.59826377</v>
       </c>
       <c r="G62" t="n">
-        <v>448</v>
+        <v>1344</v>
       </c>
       <c r="H62" t="n">
-        <v>48163</v>
+        <v>48909</v>
       </c>
       <c r="I62" t="n">
-        <v>1.068455038099786</v>
+        <v>1.052158089513177</v>
       </c>
       <c r="J62" t="n">
-        <v>1.117744762311719</v>
+        <v>1.127066497769489</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>5310476.26742387</v>
       </c>
       <c r="G63" t="n">
-        <v>1395</v>
+        <v>4185</v>
       </c>
       <c r="H63" t="n">
-        <v>51908</v>
+        <v>52804</v>
       </c>
       <c r="I63" t="n">
-        <v>1.101949603144024</v>
+        <v>1.083251268843269</v>
       </c>
       <c r="J63" t="n">
-        <v>1.231698397245711</v>
+        <v>1.220896213779539</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -2964,19 +2964,19 @@
         <v>9051511.402777771</v>
       </c>
       <c r="G64" t="n">
-        <v>1420</v>
+        <v>4260</v>
       </c>
       <c r="H64" t="n">
-        <v>58505</v>
+        <v>61295</v>
       </c>
       <c r="I64" t="n">
-        <v>1.013075805486711</v>
+        <v>0.966963047556897</v>
       </c>
       <c r="J64" t="n">
-        <v>1.247803845906389</v>
+        <v>1.18056152362694</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>3.303695244310302</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2992,31 +2992,31 @@
         <v>59300</v>
       </c>
       <c r="C65" t="n">
-        <v>59560</v>
+        <v>60000</v>
       </c>
       <c r="D65" t="n">
         <v>55970</v>
       </c>
       <c r="E65" t="n">
-        <v>57680</v>
+        <v>58580</v>
       </c>
       <c r="F65" t="n">
-        <v>1704962.77697454</v>
+        <v>3167274.97036021</v>
       </c>
       <c r="G65" t="n">
-        <v>359</v>
+        <v>1209</v>
       </c>
       <c r="H65" t="n">
-        <v>60720</v>
+        <v>63560</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.247803845906389</v>
+        <v>1.18056152362694</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>3.303695244310302</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3029,22 +3029,22 @@
         <v>44316.375</v>
       </c>
       <c r="B66" t="n">
-        <v>1046500</v>
+        <v>41130</v>
       </c>
       <c r="C66" t="n">
-        <v>1188000</v>
+        <v>43460</v>
       </c>
       <c r="D66" t="n">
-        <v>1040000</v>
+        <v>40590</v>
       </c>
       <c r="E66" t="n">
-        <v>1172500</v>
+        <v>42750</v>
       </c>
       <c r="F66" t="n">
-        <v>147025.41112758</v>
+        <v>6328796.92304771</v>
       </c>
       <c r="G66" t="n">
-        <v>14800</v>
+        <v>861</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>KRW-BCH</t>
+          <t>KRW-ETC</t>
         </is>
       </c>
     </row>
@@ -3067,38 +3067,38 @@
         <v>44317.375</v>
       </c>
       <c r="B67" t="n">
-        <v>1172500</v>
+        <v>42730</v>
       </c>
       <c r="C67" t="n">
-        <v>1222000</v>
+        <v>55000</v>
       </c>
       <c r="D67" t="n">
-        <v>1151000</v>
+        <v>42620</v>
       </c>
       <c r="E67" t="n">
-        <v>1200500</v>
+        <v>53400</v>
       </c>
       <c r="F67" t="n">
-        <v>129201.20577266</v>
+        <v>28065781.15500577</v>
       </c>
       <c r="G67" t="n">
-        <v>7100</v>
+        <v>3714</v>
       </c>
       <c r="H67" t="n">
-        <v>1187300</v>
+        <v>43591</v>
       </c>
       <c r="I67" t="n">
-        <v>1.011117661922008</v>
+        <v>1.225023514028125</v>
       </c>
       <c r="J67" t="n">
-        <v>1.011117661922008</v>
+        <v>1.225023514028125</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>KRW-BCH</t>
+          <t>KRW-ETC</t>
         </is>
       </c>
     </row>
@@ -3107,38 +3107,38 @@
         <v>44318.375</v>
       </c>
       <c r="B68" t="n">
-        <v>1199500</v>
+        <v>53220</v>
       </c>
       <c r="C68" t="n">
-        <v>1210000</v>
+        <v>58780</v>
       </c>
       <c r="D68" t="n">
-        <v>1130000</v>
+        <v>50370</v>
       </c>
       <c r="E68" t="n">
-        <v>1176000</v>
+        <v>54380</v>
       </c>
       <c r="F68" t="n">
-        <v>87707.13827747</v>
+        <v>24834286.70194932</v>
       </c>
       <c r="G68" t="n">
-        <v>8000</v>
+        <v>2523</v>
       </c>
       <c r="H68" t="n">
-        <v>1206600</v>
+        <v>56934</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9746394828443561</v>
+        <v>0.9551410405030386</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9854751951104602</v>
+        <v>1.170070233829512</v>
       </c>
       <c r="K68" t="n">
-        <v>2.536051715564396</v>
+        <v>4.485895949696141</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>KRW-BCH</t>
+          <t>KRW-ETC</t>
         </is>
       </c>
     </row>
@@ -3147,38 +3147,38 @@
         <v>44319.375</v>
       </c>
       <c r="B69" t="n">
-        <v>1176000</v>
+        <v>54310</v>
       </c>
       <c r="C69" t="n">
-        <v>1260000</v>
+        <v>64070</v>
       </c>
       <c r="D69" t="n">
-        <v>1172500</v>
+        <v>53700</v>
       </c>
       <c r="E69" t="n">
-        <v>1246500</v>
+        <v>63700</v>
       </c>
       <c r="F69" t="n">
-        <v>125267.13671564</v>
+        <v>37399233.46701108</v>
       </c>
       <c r="G69" t="n">
-        <v>8750</v>
+        <v>3111</v>
       </c>
       <c r="H69" t="n">
-        <v>1184000</v>
+        <v>56833</v>
       </c>
       <c r="I69" t="n">
-        <v>1.052787162162162</v>
+        <v>1.120827688138933</v>
       </c>
       <c r="J69" t="n">
-        <v>1.037495634041544</v>
+        <v>1.311447115143313</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>KRW-BCH</t>
+          <t>KRW-ETC</t>
         </is>
       </c>
     </row>
@@ -3187,38 +3187,38 @@
         <v>44320.375</v>
       </c>
       <c r="B70" t="n">
-        <v>1247500</v>
+        <v>63710</v>
       </c>
       <c r="C70" t="n">
-        <v>1310000</v>
+        <v>89590</v>
       </c>
       <c r="D70" t="n">
-        <v>1154000</v>
+        <v>61500</v>
       </c>
       <c r="E70" t="n">
-        <v>1204000</v>
+        <v>86000</v>
       </c>
       <c r="F70" t="n">
-        <v>302614.96537124</v>
+        <v>71486954.06389952</v>
       </c>
       <c r="G70" t="n">
-        <v>15600</v>
+        <v>8427</v>
       </c>
       <c r="H70" t="n">
-        <v>1256250</v>
+        <v>66821</v>
       </c>
       <c r="I70" t="n">
-        <v>0.958407960199005</v>
+        <v>1.287020547432693</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9943440743371299</v>
+        <v>1.687859384060773</v>
       </c>
       <c r="K70" t="n">
-        <v>4.159203980099507</v>
+        <v>0</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>KRW-BCH</t>
+          <t>KRW-ETC</t>
         </is>
       </c>
     </row>
@@ -3227,38 +3227,38 @@
         <v>44321.375</v>
       </c>
       <c r="B71" t="n">
-        <v>1203000</v>
+        <v>86000</v>
       </c>
       <c r="C71" t="n">
-        <v>1841000</v>
+        <v>117750</v>
       </c>
       <c r="D71" t="n">
-        <v>1188000</v>
+        <v>82200</v>
       </c>
       <c r="E71" t="n">
-        <v>1824500</v>
+        <v>112000</v>
       </c>
       <c r="F71" t="n">
-        <v>1246181.12811631</v>
+        <v>57594604.58783567</v>
       </c>
       <c r="G71" t="n">
-        <v>65300</v>
+        <v>10665</v>
       </c>
       <c r="H71" t="n">
-        <v>1218600</v>
+        <v>94427</v>
       </c>
       <c r="I71" t="n">
-        <v>1.497209913014935</v>
+        <v>1.186101432852892</v>
       </c>
       <c r="J71" t="n">
-        <v>1.488741805045211</v>
+        <v>2.001972433888683</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>KRW-BCH</t>
+          <t>KRW-ETC</t>
         </is>
       </c>
     </row>
@@ -3267,38 +3267,38 @@
         <v>44322.375</v>
       </c>
       <c r="B72" t="n">
-        <v>1821000</v>
+        <v>111850</v>
       </c>
       <c r="C72" t="n">
-        <v>1965000</v>
+        <v>181950</v>
       </c>
       <c r="D72" t="n">
-        <v>1628500</v>
+        <v>101300</v>
       </c>
       <c r="E72" t="n">
-        <v>1664500</v>
+        <v>176500</v>
       </c>
       <c r="F72" t="n">
-        <v>482719.66227465</v>
+        <v>47349248.18492554</v>
       </c>
       <c r="G72" t="n">
-        <v>33650</v>
+        <v>24195</v>
       </c>
       <c r="H72" t="n">
-        <v>1886300</v>
+        <v>122515</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8824153103960134</v>
+        <v>1.440639921642248</v>
       </c>
       <c r="J72" t="n">
-        <v>1.313688561998491</v>
+        <v>2.884121410287332</v>
       </c>
       <c r="K72" t="n">
-        <v>11.75846896039866</v>
+        <v>0</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>KRW-BCH</t>
+          <t>KRW-ETC</t>
         </is>
       </c>
     </row>
@@ -3307,22 +3307,22 @@
         <v>44316.375</v>
       </c>
       <c r="B73" t="n">
-        <v>27500</v>
+        <v>227</v>
       </c>
       <c r="C73" t="n">
-        <v>29070</v>
+        <v>242</v>
       </c>
       <c r="D73" t="n">
-        <v>25270</v>
+        <v>222</v>
       </c>
       <c r="E73" t="n">
-        <v>27500</v>
+        <v>237</v>
       </c>
       <c r="F73" t="n">
-        <v>1905273.98903418</v>
+        <v>1274774678.973034</v>
       </c>
       <c r="G73" t="n">
-        <v>380</v>
+        <v>6</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>KRW-WAVES</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
@@ -3345,38 +3345,38 @@
         <v>44317.375</v>
       </c>
       <c r="B74" t="n">
-        <v>27500</v>
+        <v>237</v>
       </c>
       <c r="C74" t="n">
-        <v>28190</v>
+        <v>248</v>
       </c>
       <c r="D74" t="n">
-        <v>26300</v>
+        <v>231</v>
       </c>
       <c r="E74" t="n">
-        <v>26840</v>
+        <v>243</v>
       </c>
       <c r="F74" t="n">
-        <v>814553.5621533199</v>
+        <v>1099209383.076911</v>
       </c>
       <c r="G74" t="n">
-        <v>189</v>
+        <v>5.1</v>
       </c>
       <c r="H74" t="n">
-        <v>27880</v>
+        <v>243</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9626972740315638</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9626972740315638</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>3.73027259684362</v>
+        <v>0</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>KRW-WAVES</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
@@ -3385,38 +3385,38 @@
         <v>44318.375</v>
       </c>
       <c r="B75" t="n">
-        <v>26830</v>
+        <v>243</v>
       </c>
       <c r="C75" t="n">
-        <v>31230</v>
+        <v>268</v>
       </c>
       <c r="D75" t="n">
-        <v>25050</v>
+        <v>235</v>
       </c>
       <c r="E75" t="n">
-        <v>28750</v>
+        <v>260</v>
       </c>
       <c r="F75" t="n">
-        <v>3737254.2783396</v>
+        <v>2009108457.321046</v>
       </c>
       <c r="G75" t="n">
-        <v>618</v>
+        <v>9.9</v>
       </c>
       <c r="H75" t="n">
-        <v>27019</v>
+        <v>248.1</v>
       </c>
       <c r="I75" t="n">
-        <v>1.0640660276102</v>
+        <v>1.047964530431278</v>
       </c>
       <c r="J75" t="n">
-        <v>1.024373464169934</v>
+        <v>1.047964530431278</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>KRW-WAVES</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
@@ -3425,38 +3425,38 @@
         <v>44319.375</v>
       </c>
       <c r="B76" t="n">
-        <v>28740</v>
+        <v>260</v>
       </c>
       <c r="C76" t="n">
-        <v>57960</v>
+        <v>269</v>
       </c>
       <c r="D76" t="n">
-        <v>28550</v>
+        <v>252</v>
       </c>
       <c r="E76" t="n">
-        <v>40420</v>
+        <v>258</v>
       </c>
       <c r="F76" t="n">
-        <v>24560966.59953056</v>
+        <v>1109849949.486332</v>
       </c>
       <c r="G76" t="n">
-        <v>2941</v>
+        <v>5.1</v>
       </c>
       <c r="H76" t="n">
-        <v>29358</v>
+        <v>269.9</v>
       </c>
       <c r="I76" t="n">
-        <v>1.376796784522107</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.410354091618937</v>
+        <v>1.047964530431278</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>KRW-WAVES</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
@@ -3465,38 +3465,38 @@
         <v>44320.375</v>
       </c>
       <c r="B77" t="n">
-        <v>40420</v>
+        <v>259</v>
       </c>
       <c r="C77" t="n">
-        <v>54530</v>
+        <v>260</v>
       </c>
       <c r="D77" t="n">
-        <v>37290</v>
+        <v>232</v>
       </c>
       <c r="E77" t="n">
-        <v>44260</v>
+        <v>235</v>
       </c>
       <c r="F77" t="n">
-        <v>27294868.58025032</v>
+        <v>1550068043.134178</v>
       </c>
       <c r="G77" t="n">
-        <v>1724</v>
+        <v>8.4</v>
       </c>
       <c r="H77" t="n">
-        <v>43361</v>
+        <v>264.1</v>
       </c>
       <c r="I77" t="n">
-        <v>1.020732916676276</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.439594845484517</v>
+        <v>1.047964530431278</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>KRW-WAVES</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
@@ -3505,38 +3505,38 @@
         <v>44321.375</v>
       </c>
       <c r="B78" t="n">
-        <v>44250</v>
+        <v>236</v>
       </c>
       <c r="C78" t="n">
-        <v>49710</v>
+        <v>251</v>
       </c>
       <c r="D78" t="n">
-        <v>40640</v>
+        <v>234</v>
       </c>
       <c r="E78" t="n">
-        <v>43130</v>
+        <v>248</v>
       </c>
       <c r="F78" t="n">
-        <v>8703194.77849146</v>
+        <v>1459084979.892305</v>
       </c>
       <c r="G78" t="n">
-        <v>907</v>
+        <v>5.1</v>
       </c>
       <c r="H78" t="n">
-        <v>45974</v>
+        <v>244.4</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9381389481011007</v>
+        <v>1.014729950900164</v>
       </c>
       <c r="J78" t="n">
-        <v>1.350539994034612</v>
+        <v>1.063400996509644</v>
       </c>
       <c r="K78" t="n">
-        <v>6.186105189889931</v>
+        <v>0</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>KRW-WAVES</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
@@ -3545,38 +3545,38 @@
         <v>44322.375</v>
       </c>
       <c r="B79" t="n">
-        <v>43090</v>
+        <v>248</v>
       </c>
       <c r="C79" t="n">
-        <v>44990</v>
+        <v>273</v>
       </c>
       <c r="D79" t="n">
-        <v>40300</v>
+        <v>238</v>
       </c>
       <c r="E79" t="n">
-        <v>42600</v>
+        <v>260</v>
       </c>
       <c r="F79" t="n">
-        <v>1449816.4947949</v>
+        <v>1652256634.969911</v>
       </c>
       <c r="G79" t="n">
-        <v>469</v>
+        <v>10.5</v>
       </c>
       <c r="H79" t="n">
-        <v>43997</v>
+        <v>253.1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9682478350796645</v>
+        <v>1.027261951797708</v>
       </c>
       <c r="J79" t="n">
-        <v>1.307657425412516</v>
+        <v>1.092391383218125</v>
       </c>
       <c r="K79" t="n">
-        <v>9.164899449719554</v>
+        <v>0</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>KRW-WAVES</t>
+          <t>KRW-VET</t>
         </is>
       </c>
     </row>
@@ -3585,22 +3585,22 @@
         <v>44316.375</v>
       </c>
       <c r="B80" t="n">
-        <v>304050</v>
+        <v>7010</v>
       </c>
       <c r="C80" t="n">
-        <v>324250</v>
+        <v>7650</v>
       </c>
       <c r="D80" t="n">
-        <v>301950</v>
+        <v>6900</v>
       </c>
       <c r="E80" t="n">
-        <v>319650</v>
+        <v>7590</v>
       </c>
       <c r="F80" t="n">
-        <v>124086.9718166</v>
+        <v>26025904.09792515</v>
       </c>
       <c r="G80" t="n">
-        <v>2230</v>
+        <v>225</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>KRW-LTC</t>
+          <t>KRW-EOS</t>
         </is>
       </c>
     </row>
@@ -3623,38 +3623,38 @@
         <v>44317.375</v>
       </c>
       <c r="B81" t="n">
-        <v>319650</v>
+        <v>7580</v>
       </c>
       <c r="C81" t="n">
-        <v>332900</v>
+        <v>7945</v>
       </c>
       <c r="D81" t="n">
-        <v>315600</v>
+        <v>7455</v>
       </c>
       <c r="E81" t="n">
-        <v>329500</v>
+        <v>7885</v>
       </c>
       <c r="F81" t="n">
-        <v>118468.00200485</v>
+        <v>20760092.58551989</v>
       </c>
       <c r="G81" t="n">
-        <v>1730</v>
+        <v>147</v>
       </c>
       <c r="H81" t="n">
-        <v>321880</v>
+        <v>7805</v>
       </c>
       <c r="I81" t="n">
-        <v>1.023673418665341</v>
+        <v>1.010249839846252</v>
       </c>
       <c r="J81" t="n">
-        <v>1.023673418665341</v>
+        <v>1.010249839846252</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>KRW-LTC</t>
+          <t>KRW-EOS</t>
         </is>
       </c>
     </row>
@@ -3663,38 +3663,38 @@
         <v>44318.375</v>
       </c>
       <c r="B82" t="n">
-        <v>329550</v>
+        <v>7880</v>
       </c>
       <c r="C82" t="n">
-        <v>332500</v>
+        <v>8045</v>
       </c>
       <c r="D82" t="n">
-        <v>315100</v>
+        <v>7370</v>
       </c>
       <c r="E82" t="n">
-        <v>324900</v>
+        <v>7895</v>
       </c>
       <c r="F82" t="n">
-        <v>121292.92538377</v>
+        <v>21444288.41171854</v>
       </c>
       <c r="G82" t="n">
-        <v>1740</v>
+        <v>202.5</v>
       </c>
       <c r="H82" t="n">
-        <v>331280</v>
+        <v>8027</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9807413668196088</v>
+        <v>0.9835555001868693</v>
       </c>
       <c r="J82" t="n">
-        <v>1.003958867798748</v>
+        <v>0.9936367865436855</v>
       </c>
       <c r="K82" t="n">
-        <v>1.925863318039116</v>
+        <v>1.64444998131307</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>KRW-LTC</t>
+          <t>KRW-EOS</t>
         </is>
       </c>
     </row>
@@ -3703,38 +3703,38 @@
         <v>44319.375</v>
       </c>
       <c r="B83" t="n">
-        <v>324800</v>
+        <v>7895</v>
       </c>
       <c r="C83" t="n">
-        <v>364950</v>
+        <v>8420</v>
       </c>
       <c r="D83" t="n">
-        <v>324500</v>
+        <v>7865</v>
       </c>
       <c r="E83" t="n">
-        <v>361200</v>
+        <v>8340</v>
       </c>
       <c r="F83" t="n">
-        <v>202077.96162314</v>
+        <v>21968767.52893926</v>
       </c>
       <c r="G83" t="n">
-        <v>4045</v>
+        <v>166.5</v>
       </c>
       <c r="H83" t="n">
-        <v>326540</v>
+        <v>8097.5</v>
       </c>
       <c r="I83" t="n">
-        <v>1.106143198383047</v>
+        <v>1.02994751466502</v>
       </c>
       <c r="J83" t="n">
-        <v>1.11052227307193</v>
+        <v>1.023393738780406</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>KRW-LTC</t>
+          <t>KRW-EOS</t>
         </is>
       </c>
     </row>
@@ -3743,38 +3743,38 @@
         <v>44320.375</v>
       </c>
       <c r="B84" t="n">
-        <v>361200</v>
+        <v>8340</v>
       </c>
       <c r="C84" t="n">
-        <v>422000</v>
+        <v>8855</v>
       </c>
       <c r="D84" t="n">
-        <v>335200</v>
+        <v>7670</v>
       </c>
       <c r="E84" t="n">
-        <v>384400</v>
+        <v>7990</v>
       </c>
       <c r="F84" t="n">
-        <v>891480.56249641</v>
+        <v>50160760.59523417</v>
       </c>
       <c r="G84" t="n">
-        <v>8680</v>
+        <v>355.5</v>
       </c>
       <c r="H84" t="n">
-        <v>365245</v>
+        <v>8506.5</v>
       </c>
       <c r="I84" t="n">
-        <v>1.052444249750168</v>
+        <v>0.9392817257391407</v>
       </c>
       <c r="J84" t="n">
-        <v>1.168762780514038</v>
+        <v>0.9612550370722911</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>6.071827426085927</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>KRW-LTC</t>
+          <t>KRW-EOS</t>
         </is>
       </c>
     </row>
@@ -3783,38 +3783,38 @@
         <v>44321.375</v>
       </c>
       <c r="B85" t="n">
-        <v>384450</v>
+        <v>7980</v>
       </c>
       <c r="C85" t="n">
-        <v>436900</v>
+        <v>10650</v>
       </c>
       <c r="D85" t="n">
-        <v>376400</v>
+        <v>7825</v>
       </c>
       <c r="E85" t="n">
-        <v>427500</v>
+        <v>10410</v>
       </c>
       <c r="F85" t="n">
-        <v>743332.63716427</v>
+        <v>121146451.5736671</v>
       </c>
       <c r="G85" t="n">
-        <v>6050</v>
+        <v>847.5</v>
       </c>
       <c r="H85" t="n">
-        <v>393130</v>
+        <v>8335.5</v>
       </c>
       <c r="I85" t="n">
-        <v>1.08742655101366</v>
+        <v>1.24887529242397</v>
       </c>
       <c r="J85" t="n">
-        <v>1.270943679367515</v>
+        <v>1.200487665517671</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>KRW-LTC</t>
+          <t>KRW-EOS</t>
         </is>
       </c>
     </row>
@@ -3823,38 +3823,38 @@
         <v>44322.375</v>
       </c>
       <c r="B86" t="n">
-        <v>427300</v>
+        <v>10410</v>
       </c>
       <c r="C86" t="n">
-        <v>446000</v>
+        <v>14960</v>
       </c>
       <c r="D86" t="n">
-        <v>398400</v>
+        <v>10250</v>
       </c>
       <c r="E86" t="n">
-        <v>411100</v>
+        <v>13760</v>
       </c>
       <c r="F86" t="n">
-        <v>235586.61557689</v>
+        <v>137937892.2272256</v>
       </c>
       <c r="G86" t="n">
-        <v>4760</v>
+        <v>1413</v>
       </c>
       <c r="H86" t="n">
-        <v>433350</v>
+        <v>11257.5</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9486558209299643</v>
+        <v>1.22229624694648</v>
       </c>
       <c r="J86" t="n">
-        <v>1.205688119506139</v>
+        <v>1.467351568067791</v>
       </c>
       <c r="K86" t="n">
-        <v>5.134417907003573</v>
+        <v>0</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>KRW-LTC</t>
+          <t>KRW-EOS</t>
         </is>
       </c>
     </row>
@@ -3863,22 +3863,22 @@
         <v>44316.375</v>
       </c>
       <c r="B87" t="n">
-        <v>8655</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
-        <v>9260</v>
+        <v>48.5</v>
       </c>
       <c r="D87" t="n">
-        <v>8500</v>
+        <v>44</v>
       </c>
       <c r="E87" t="n">
-        <v>9115</v>
+        <v>48.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1843622.53524683</v>
+        <v>808430094.6499189</v>
       </c>
       <c r="G87" t="n">
-        <v>76</v>
+        <v>1.35</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>KRW-OMG</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
@@ -3901,38 +3901,38 @@
         <v>44317.375</v>
       </c>
       <c r="B88" t="n">
-        <v>9125</v>
+        <v>48.1</v>
       </c>
       <c r="C88" t="n">
-        <v>9795</v>
+        <v>49</v>
       </c>
       <c r="D88" t="n">
-        <v>9000</v>
+        <v>45.9</v>
       </c>
       <c r="E88" t="n">
-        <v>9690</v>
+        <v>47.7</v>
       </c>
       <c r="F88" t="n">
-        <v>2191533.16386509</v>
+        <v>812731622.9144793</v>
       </c>
       <c r="G88" t="n">
-        <v>79.5</v>
+        <v>0.9300000000000004</v>
       </c>
       <c r="H88" t="n">
-        <v>9201</v>
+        <v>49.45</v>
       </c>
       <c r="I88" t="n">
-        <v>1.053146397130747</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.053146397130747</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>KRW-OMG</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
@@ -3941,38 +3941,38 @@
         <v>44318.375</v>
       </c>
       <c r="B89" t="n">
-        <v>9685</v>
+        <v>47.7</v>
       </c>
       <c r="C89" t="n">
-        <v>9755</v>
+        <v>54</v>
       </c>
       <c r="D89" t="n">
-        <v>8995</v>
+        <v>47.2</v>
       </c>
       <c r="E89" t="n">
-        <v>9470</v>
+        <v>49.9</v>
       </c>
       <c r="F89" t="n">
-        <v>1722196.06395883</v>
+        <v>3202139199.788204</v>
       </c>
       <c r="G89" t="n">
-        <v>76</v>
+        <v>2.039999999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>9764.5</v>
+        <v>48.63</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>1.026115566522723</v>
       </c>
       <c r="J89" t="n">
-        <v>1.053146397130747</v>
+        <v>1.026115566522723</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>KRW-OMG</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
@@ -3981,38 +3981,38 @@
         <v>44319.375</v>
       </c>
       <c r="B90" t="n">
-        <v>9480</v>
+        <v>49.9</v>
       </c>
       <c r="C90" t="n">
-        <v>12800</v>
+        <v>51.4</v>
       </c>
       <c r="D90" t="n">
-        <v>9435</v>
+        <v>49</v>
       </c>
       <c r="E90" t="n">
-        <v>11500</v>
+        <v>50.1</v>
       </c>
       <c r="F90" t="n">
-        <v>18141541.86535637</v>
+        <v>1229382483.299647</v>
       </c>
       <c r="G90" t="n">
-        <v>336.5</v>
+        <v>0.7199999999999995</v>
       </c>
       <c r="H90" t="n">
-        <v>9556</v>
+        <v>51.94</v>
       </c>
       <c r="I90" t="n">
-        <v>1.203432398493093</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.267390494663414</v>
+        <v>1.026115566522723</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>KRW-OMG</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
@@ -4021,38 +4021,38 @@
         <v>44320.375</v>
       </c>
       <c r="B91" t="n">
-        <v>11500</v>
+        <v>50</v>
       </c>
       <c r="C91" t="n">
-        <v>13070</v>
+        <v>50.2</v>
       </c>
       <c r="D91" t="n">
-        <v>10390</v>
+        <v>43.9</v>
       </c>
       <c r="E91" t="n">
-        <v>10920</v>
+        <v>45.1</v>
       </c>
       <c r="F91" t="n">
-        <v>20349512.93877518</v>
+        <v>1506431004.002772</v>
       </c>
       <c r="G91" t="n">
-        <v>268</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>11836.5</v>
+        <v>50.72</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9225700164744646</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.169256469541206</v>
+        <v>1.026115566522723</v>
       </c>
       <c r="K91" t="n">
-        <v>7.742998352553536</v>
+        <v>0</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>KRW-OMG</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
@@ -4061,38 +4061,38 @@
         <v>44321.375</v>
       </c>
       <c r="B92" t="n">
-        <v>10920</v>
+        <v>45.1</v>
       </c>
       <c r="C92" t="n">
-        <v>12710</v>
+        <v>55</v>
       </c>
       <c r="D92" t="n">
-        <v>10710</v>
+        <v>44.4</v>
       </c>
       <c r="E92" t="n">
-        <v>11920</v>
+        <v>49.3</v>
       </c>
       <c r="F92" t="n">
-        <v>13141754.85984913</v>
+        <v>3310528864.839075</v>
       </c>
       <c r="G92" t="n">
-        <v>200</v>
+        <v>3.18</v>
       </c>
       <c r="H92" t="n">
-        <v>11188</v>
+        <v>46.99</v>
       </c>
       <c r="I92" t="n">
-        <v>1.065427243475152</v>
+        <v>1.049159395616089</v>
       </c>
       <c r="J92" t="n">
-        <v>1.245757697258775</v>
+        <v>1.07655878760524</v>
       </c>
       <c r="K92" t="n">
-        <v>1.70687704347857</v>
+        <v>0</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>KRW-OMG</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
@@ -4101,38 +4101,38 @@
         <v>44322.375</v>
       </c>
       <c r="B93" t="n">
-        <v>11910</v>
+        <v>49.3</v>
       </c>
       <c r="C93" t="n">
-        <v>12680</v>
+        <v>54</v>
       </c>
       <c r="D93" t="n">
-        <v>11530</v>
+        <v>47</v>
       </c>
       <c r="E93" t="n">
-        <v>11970</v>
+        <v>49.7</v>
       </c>
       <c r="F93" t="n">
-        <v>3141327.63955747</v>
+        <v>1778804290.068943</v>
       </c>
       <c r="G93" t="n">
-        <v>115</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
-        <v>12110</v>
+        <v>52.48</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9884393063583815</v>
+        <v>0.9470274390243903</v>
       </c>
       <c r="J93" t="n">
-        <v>1.231355874169078</v>
+        <v>1.019530711584993</v>
       </c>
       <c r="K93" t="n">
-        <v>2.843213725056846</v>
+        <v>5.297256097560974</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>KRW-OMG</t>
+          <t>KRW-SC</t>
         </is>
       </c>
     </row>
@@ -4141,22 +4141,22 @@
         <v>44316.375</v>
       </c>
       <c r="B94" t="n">
-        <v>105300</v>
+        <v>5485</v>
       </c>
       <c r="C94" t="n">
-        <v>113000</v>
+        <v>6300</v>
       </c>
       <c r="D94" t="n">
-        <v>103100</v>
+        <v>5270</v>
       </c>
       <c r="E94" t="n">
-        <v>110350</v>
+        <v>6185</v>
       </c>
       <c r="F94" t="n">
-        <v>1517967.64484971</v>
+        <v>21870386.34761748</v>
       </c>
       <c r="G94" t="n">
-        <v>990</v>
+        <v>309</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>KRW-BTG</t>
+          <t>KRW-SXP</t>
         </is>
       </c>
     </row>
@@ -4179,38 +4179,38 @@
         <v>44317.375</v>
       </c>
       <c r="B95" t="n">
-        <v>110400</v>
+        <v>6190</v>
       </c>
       <c r="C95" t="n">
-        <v>117900</v>
+        <v>7000</v>
       </c>
       <c r="D95" t="n">
-        <v>109150</v>
+        <v>5955</v>
       </c>
       <c r="E95" t="n">
-        <v>116700</v>
+        <v>6060</v>
       </c>
       <c r="F95" t="n">
-        <v>1805996.14017901</v>
+        <v>46545611.28324727</v>
       </c>
       <c r="G95" t="n">
-        <v>875</v>
+        <v>313.5</v>
       </c>
       <c r="H95" t="n">
-        <v>111390</v>
+        <v>6499</v>
       </c>
       <c r="I95" t="n">
-        <v>1.047670347427956</v>
+        <v>0.9324511463302046</v>
       </c>
       <c r="J95" t="n">
-        <v>1.047670347427956</v>
+        <v>0.9324511463302046</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>6.754885366979535</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>KRW-BTG</t>
+          <t>KRW-SXP</t>
         </is>
       </c>
     </row>
@@ -4219,38 +4219,38 @@
         <v>44318.375</v>
       </c>
       <c r="B96" t="n">
-        <v>116600</v>
+        <v>6060</v>
       </c>
       <c r="C96" t="n">
-        <v>119250</v>
+        <v>6620</v>
       </c>
       <c r="D96" t="n">
-        <v>109350</v>
+        <v>5515</v>
       </c>
       <c r="E96" t="n">
-        <v>113700</v>
+        <v>6595</v>
       </c>
       <c r="F96" t="n">
-        <v>957507.43239611</v>
+        <v>19551898.83518475</v>
       </c>
       <c r="G96" t="n">
-        <v>990</v>
+        <v>331.5</v>
       </c>
       <c r="H96" t="n">
-        <v>117475</v>
+        <v>6373.5</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9678655032985741</v>
+        <v>1.034753275280458</v>
       </c>
       <c r="J96" t="n">
-        <v>1.014003988104351</v>
+        <v>0.9648568777041971</v>
       </c>
       <c r="K96" t="n">
-        <v>3.213449670142582</v>
+        <v>3.514312229580285</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>KRW-BTG</t>
+          <t>KRW-SXP</t>
         </is>
       </c>
     </row>
@@ -4259,38 +4259,38 @@
         <v>44319.375</v>
       </c>
       <c r="B97" t="n">
-        <v>113700</v>
+        <v>6590</v>
       </c>
       <c r="C97" t="n">
-        <v>118450</v>
+        <v>7180</v>
       </c>
       <c r="D97" t="n">
-        <v>113100</v>
+        <v>6305</v>
       </c>
       <c r="E97" t="n">
-        <v>117800</v>
+        <v>6700</v>
       </c>
       <c r="F97" t="n">
-        <v>1257342.84535953</v>
+        <v>35385185.04861008</v>
       </c>
       <c r="G97" t="n">
-        <v>535</v>
+        <v>262.5</v>
       </c>
       <c r="H97" t="n">
-        <v>114690</v>
+        <v>6921.5</v>
       </c>
       <c r="I97" t="n">
-        <v>1.027116575115529</v>
+        <v>0.9679982662717619</v>
       </c>
       <c r="J97" t="n">
-        <v>1.041500303415228</v>
+        <v>0.9339797848180482</v>
       </c>
       <c r="K97" t="n">
-        <v>0.5889299079500752</v>
+        <v>6.602021518195178</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>KRW-BTG</t>
+          <t>KRW-SXP</t>
         </is>
       </c>
     </row>
@@ -4299,38 +4299,38 @@
         <v>44320.375</v>
       </c>
       <c r="B98" t="n">
-        <v>117800</v>
+        <v>6700</v>
       </c>
       <c r="C98" t="n">
-        <v>141300</v>
+        <v>6895</v>
       </c>
       <c r="D98" t="n">
-        <v>117750</v>
+        <v>5890</v>
       </c>
       <c r="E98" t="n">
-        <v>136000</v>
+        <v>5930</v>
       </c>
       <c r="F98" t="n">
-        <v>5188805.35010645</v>
+        <v>26163659.38109585</v>
       </c>
       <c r="G98" t="n">
-        <v>2355</v>
+        <v>301.5</v>
       </c>
       <c r="H98" t="n">
-        <v>118335</v>
+        <v>6962.5</v>
       </c>
       <c r="I98" t="n">
-        <v>1.149279587611442</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.196975039206245</v>
+        <v>0.9339797848180482</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>6.602021518195178</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>KRW-BTG</t>
+          <t>KRW-SXP</t>
         </is>
       </c>
     </row>
@@ -4339,38 +4339,38 @@
         <v>44321.375</v>
       </c>
       <c r="B99" t="n">
-        <v>135750</v>
+        <v>5935</v>
       </c>
       <c r="C99" t="n">
-        <v>169000</v>
+        <v>6450</v>
       </c>
       <c r="D99" t="n">
-        <v>130200</v>
+        <v>5765</v>
       </c>
       <c r="E99" t="n">
-        <v>163300</v>
+        <v>6040</v>
       </c>
       <c r="F99" t="n">
-        <v>4532726.93718715</v>
+        <v>14281873.23732697</v>
       </c>
       <c r="G99" t="n">
-        <v>3880</v>
+        <v>205.5</v>
       </c>
       <c r="H99" t="n">
-        <v>138105</v>
+        <v>6236.5</v>
       </c>
       <c r="I99" t="n">
-        <v>1.182433655551935</v>
+        <v>0.9684919425960073</v>
       </c>
       <c r="J99" t="n">
-        <v>1.415343571213061</v>
+        <v>0.9045518961438325</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>9.544810385616753</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>KRW-BTG</t>
+          <t>KRW-SXP</t>
         </is>
       </c>
     </row>
@@ -4379,38 +4379,38 @@
         <v>44322.375</v>
       </c>
       <c r="B100" t="n">
-        <v>163300</v>
+        <v>6040</v>
       </c>
       <c r="C100" t="n">
-        <v>218000</v>
+        <v>6445</v>
       </c>
       <c r="D100" t="n">
-        <v>162900</v>
+        <v>5810</v>
       </c>
       <c r="E100" t="n">
-        <v>193850</v>
+        <v>6000</v>
       </c>
       <c r="F100" t="n">
-        <v>5109526.77148241</v>
+        <v>8882180.604120711</v>
       </c>
       <c r="G100" t="n">
-        <v>5510</v>
+        <v>190.5</v>
       </c>
       <c r="H100" t="n">
-        <v>167180</v>
+        <v>6245.5</v>
       </c>
       <c r="I100" t="n">
-        <v>1.159528651752602</v>
+        <v>0.9606916980225763</v>
       </c>
       <c r="J100" t="n">
-        <v>1.641131422895394</v>
+        <v>0.8689954970559595</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>13.10045029440405</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>KRW-BTG</t>
+          <t>KRW-SXP</t>
         </is>
       </c>
     </row>
@@ -4419,22 +4419,22 @@
         <v>44316.375</v>
       </c>
       <c r="B101" t="n">
-        <v>144</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>159</v>
+        <v>8.69</v>
       </c>
       <c r="D101" t="n">
-        <v>142</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>157</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>684198140.2134452</v>
+        <v>49306861583.3456</v>
       </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>0.1710000000000001</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>KRW-TRX</t>
+          <t>KRW-BTT</t>
         </is>
       </c>
     </row>
@@ -4457,38 +4457,38 @@
         <v>44317.375</v>
       </c>
       <c r="B102" t="n">
-        <v>157</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>159</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>152</v>
+        <v>8.27</v>
       </c>
       <c r="E102" t="n">
-        <v>157</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>543527904.4562341</v>
+        <v>57847290291.28767</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.1799999999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>158.7</v>
+        <v>8.700999999999999</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9892879647132956</v>
+        <v>0.9929893115733825</v>
       </c>
       <c r="J102" t="n">
-        <v>0.9892879647132956</v>
+        <v>0.9929893115733825</v>
       </c>
       <c r="K102" t="n">
-        <v>1.071203528670439</v>
+        <v>0.7010688426617451</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>KRW-TRX</t>
+          <t>KRW-BTT</t>
         </is>
       </c>
     </row>
@@ -4497,38 +4497,38 @@
         <v>44318.375</v>
       </c>
       <c r="B103" t="n">
-        <v>157</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>159</v>
+        <v>8.75</v>
       </c>
       <c r="D103" t="n">
-        <v>148</v>
+        <v>8.15</v>
       </c>
       <c r="E103" t="n">
-        <v>155</v>
+        <v>8.44</v>
       </c>
       <c r="F103" t="n">
-        <v>567952027.4910901</v>
+        <v>45325736502.46541</v>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.1799999999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>157.7</v>
+        <v>8.82</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9828788839568803</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9723502506693775</v>
+        <v>0.9929893115733825</v>
       </c>
       <c r="K103" t="n">
-        <v>2.764974933062248</v>
+        <v>0.7010688426617451</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>KRW-TRX</t>
+          <t>KRW-BTT</t>
         </is>
       </c>
     </row>
@@ -4537,38 +4537,38 @@
         <v>44319.375</v>
       </c>
       <c r="B104" t="n">
-        <v>155</v>
+        <v>8.44</v>
       </c>
       <c r="C104" t="n">
-        <v>165</v>
+        <v>8.65</v>
       </c>
       <c r="D104" t="n">
-        <v>154</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>162</v>
+        <v>8.51</v>
       </c>
       <c r="F104" t="n">
-        <v>801228035.6226536</v>
+        <v>41625224316.42494</v>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>0.08700000000000027</v>
       </c>
       <c r="H104" t="n">
-        <v>156.1</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I104" t="n">
-        <v>1.037796284433056</v>
+        <v>0.9872389791183296</v>
       </c>
       <c r="J104" t="n">
-        <v>1.00910147731223</v>
+        <v>0.9803177542331191</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>1.968224576688093</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>KRW-TRX</t>
+          <t>KRW-BTT</t>
         </is>
       </c>
     </row>
@@ -4577,38 +4577,38 @@
         <v>44320.375</v>
       </c>
       <c r="B105" t="n">
-        <v>161</v>
+        <v>8.5</v>
       </c>
       <c r="C105" t="n">
-        <v>162</v>
+        <v>8.51</v>
       </c>
       <c r="D105" t="n">
-        <v>148</v>
+        <v>7.8</v>
       </c>
       <c r="E105" t="n">
-        <v>150</v>
+        <v>8.01</v>
       </c>
       <c r="F105" t="n">
-        <v>927337036.5803185</v>
+        <v>69576341899.92999</v>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>0.213</v>
       </c>
       <c r="H105" t="n">
-        <v>162.1</v>
+        <v>8.587</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.00910147731223</v>
+        <v>0.9803177542331191</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>1.968224576688093</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>KRW-TRX</t>
+          <t>KRW-BTT</t>
         </is>
       </c>
     </row>
@@ -4617,38 +4617,38 @@
         <v>44321.375</v>
       </c>
       <c r="B106" t="n">
-        <v>150</v>
+        <v>8.01</v>
       </c>
       <c r="C106" t="n">
-        <v>184</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>148</v>
+        <v>7.87</v>
       </c>
       <c r="E106" t="n">
-        <v>175</v>
+        <v>8.66</v>
       </c>
       <c r="F106" t="n">
-        <v>1815761805.081804</v>
+        <v>164687859139.5272</v>
       </c>
       <c r="G106" t="n">
-        <v>3.6</v>
+        <v>0.4770000000000002</v>
       </c>
       <c r="H106" t="n">
-        <v>151.4</v>
+        <v>8.222999999999999</v>
       </c>
       <c r="I106" t="n">
-        <v>1.155878467635403</v>
+        <v>1.053143621549313</v>
       </c>
       <c r="J106" t="n">
-        <v>1.166398669284282</v>
+        <v>1.032415389962156</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>KRW-TRX</t>
+          <t>KRW-BTT</t>
         </is>
       </c>
     </row>
@@ -4657,38 +4657,1706 @@
         <v>44322.375</v>
       </c>
       <c r="B107" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="F107" t="n">
+        <v>156705166173.739</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.5430000000000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>9.147</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.022193068765715</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.055327855706369</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>KRW-BTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B108" t="n">
+        <v>27500</v>
+      </c>
+      <c r="C108" t="n">
+        <v>29070</v>
+      </c>
+      <c r="D108" t="n">
+        <v>25270</v>
+      </c>
+      <c r="E108" t="n">
+        <v>27500</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1905273.98903418</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B109" t="n">
+        <v>27500</v>
+      </c>
+      <c r="C109" t="n">
+        <v>28190</v>
+      </c>
+      <c r="D109" t="n">
+        <v>26300</v>
+      </c>
+      <c r="E109" t="n">
+        <v>26840</v>
+      </c>
+      <c r="F109" t="n">
+        <v>814553.5621533199</v>
+      </c>
+      <c r="G109" t="n">
+        <v>567</v>
+      </c>
+      <c r="H109" t="n">
+        <v>28640</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B110" t="n">
+        <v>26830</v>
+      </c>
+      <c r="C110" t="n">
+        <v>31230</v>
+      </c>
+      <c r="D110" t="n">
+        <v>25050</v>
+      </c>
+      <c r="E110" t="n">
+        <v>28750</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3737254.2783396</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1854</v>
+      </c>
+      <c r="H110" t="n">
+        <v>27397</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.049384969157207</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.049384969157207</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B111" t="n">
+        <v>28740</v>
+      </c>
+      <c r="C111" t="n">
+        <v>57960</v>
+      </c>
+      <c r="D111" t="n">
+        <v>28550</v>
+      </c>
+      <c r="E111" t="n">
+        <v>40420</v>
+      </c>
+      <c r="F111" t="n">
+        <v>24560966.59953056</v>
+      </c>
+      <c r="G111" t="n">
+        <v>8823</v>
+      </c>
+      <c r="H111" t="n">
+        <v>30594</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.321174086422174</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.386420227931435</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B112" t="n">
+        <v>40420</v>
+      </c>
+      <c r="C112" t="n">
+        <v>54530</v>
+      </c>
+      <c r="D112" t="n">
+        <v>37290</v>
+      </c>
+      <c r="E112" t="n">
+        <v>44260</v>
+      </c>
+      <c r="F112" t="n">
+        <v>27294868.58025032</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5172</v>
+      </c>
+      <c r="H112" t="n">
+        <v>49243</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.8988079523993258</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.246125526232059</v>
+      </c>
+      <c r="K112" t="n">
+        <v>10.11920476006743</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B113" t="n">
+        <v>44250</v>
+      </c>
+      <c r="C113" t="n">
+        <v>49710</v>
+      </c>
+      <c r="D113" t="n">
+        <v>40640</v>
+      </c>
+      <c r="E113" t="n">
+        <v>43130</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8703194.77849146</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2721</v>
+      </c>
+      <c r="H113" t="n">
+        <v>49422</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.8726882764760633</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.087479137760283</v>
+      </c>
+      <c r="K113" t="n">
+        <v>21.5620837137653</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B114" t="n">
+        <v>43090</v>
+      </c>
+      <c r="C114" t="n">
+        <v>49510</v>
+      </c>
+      <c r="D114" t="n">
+        <v>40300</v>
+      </c>
+      <c r="E114" t="n">
+        <v>41850</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5072201.8603076</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2763</v>
+      </c>
+      <c r="H114" t="n">
+        <v>45811</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9135360502935976</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.9934513962862161</v>
+      </c>
+      <c r="K114" t="n">
+        <v>28.34413576261329</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B115" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="C115" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D115" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>249002416.1423054</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B116" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D116" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>210283493.4041202</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.559999999999997</v>
+      </c>
+      <c r="H116" t="n">
+        <v>84.75</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B117" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C117" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>207830571.739557</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H117" t="n">
+        <v>79.96000000000001</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B118" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="D118" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>79</v>
+      </c>
+      <c r="F118" t="n">
+        <v>343717768.6508819</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.219999999999998</v>
+      </c>
+      <c r="H118" t="n">
+        <v>77.75</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.016077170418006</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.016077170418006</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B119" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="D119" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>266602282.9478185</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3.030000000000002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>81.42</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.016077170418006</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B120" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="C120" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D120" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E120" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="F120" t="n">
+        <v>215333649.7677504</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H120" t="n">
+        <v>74.63</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.9902184108267454</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.006138320968655</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.978158917325463</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B121" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="C121" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>274532430.1021462</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3.479999999999998</v>
+      </c>
+      <c r="H121" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.035809018567639</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.042167146785834</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>KRW-IOST</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B122" t="n">
+        <v>8655</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9260</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9115</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1843622.53524683</v>
+      </c>
+      <c r="G122" t="n">
+        <v>228</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9795</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9690</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2191533.16386509</v>
+      </c>
+      <c r="G123" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="H123" t="n">
+        <v>9353</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.036031219929434</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.036031219929434</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9685</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9755</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8995</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9470</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1722196.06395883</v>
+      </c>
+      <c r="G124" t="n">
+        <v>228</v>
+      </c>
+      <c r="H124" t="n">
+        <v>9923.5</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.036031219929434</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9480</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12800</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F125" t="n">
+        <v>18141541.86535637</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="H125" t="n">
+        <v>9708</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.184590028842192</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.22727225269762</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11500</v>
+      </c>
+      <c r="C126" t="n">
+        <v>13070</v>
+      </c>
+      <c r="D126" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E126" t="n">
+        <v>10920</v>
+      </c>
+      <c r="F126" t="n">
+        <v>20349512.93877518</v>
+      </c>
+      <c r="G126" t="n">
+        <v>804</v>
+      </c>
+      <c r="H126" t="n">
+        <v>12509.5</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.8729365682081618</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.07133082852696</v>
+      </c>
+      <c r="K126" t="n">
+        <v>12.70634317918381</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B127" t="n">
+        <v>10920</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12710</v>
+      </c>
+      <c r="D127" t="n">
+        <v>10710</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11920</v>
+      </c>
+      <c r="F127" t="n">
+        <v>13141754.85984913</v>
+      </c>
+      <c r="G127" t="n">
+        <v>600</v>
+      </c>
+      <c r="H127" t="n">
+        <v>11724</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.016717843739338</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.08924116991141</v>
+      </c>
+      <c r="K127" t="n">
+        <v>11.24698146501801</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11910</v>
+      </c>
+      <c r="C128" t="n">
+        <v>14140</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11530</v>
+      </c>
+      <c r="E128" t="n">
+        <v>13260</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8930157.98789967</v>
+      </c>
+      <c r="G128" t="n">
+        <v>783</v>
+      </c>
+      <c r="H128" t="n">
+        <v>12510</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.059952038369305</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.154543398323365</v>
+      </c>
+      <c r="K128" t="n">
+        <v>5.926057092417166</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>KRW-OMG</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B129" t="n">
+        <v>105300</v>
+      </c>
+      <c r="C129" t="n">
+        <v>113000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>103100</v>
+      </c>
+      <c r="E129" t="n">
+        <v>110350</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1517967.64484971</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2970</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B130" t="n">
+        <v>110400</v>
+      </c>
+      <c r="C130" t="n">
+        <v>117900</v>
+      </c>
+      <c r="D130" t="n">
+        <v>109150</v>
+      </c>
+      <c r="E130" t="n">
+        <v>116700</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1805996.14017901</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2625</v>
+      </c>
+      <c r="H130" t="n">
+        <v>113370</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.029372849960307</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.029372849960307</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B131" t="n">
+        <v>116600</v>
+      </c>
+      <c r="C131" t="n">
+        <v>119250</v>
+      </c>
+      <c r="D131" t="n">
+        <v>109350</v>
+      </c>
+      <c r="E131" t="n">
+        <v>113700</v>
+      </c>
+      <c r="F131" t="n">
+        <v>957507.43239611</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2970</v>
+      </c>
+      <c r="H131" t="n">
+        <v>119225</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9536590480184525</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.9816707321491877</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4.634095198154754</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B132" t="n">
+        <v>113700</v>
+      </c>
+      <c r="C132" t="n">
+        <v>118450</v>
+      </c>
+      <c r="D132" t="n">
+        <v>113100</v>
+      </c>
+      <c r="E132" t="n">
+        <v>117800</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1257342.84535953</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1605</v>
+      </c>
+      <c r="H132" t="n">
+        <v>116670</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.009685437558927</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.9911786427288446</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3.710434681945922</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B133" t="n">
+        <v>117800</v>
+      </c>
+      <c r="C133" t="n">
+        <v>141300</v>
+      </c>
+      <c r="D133" t="n">
+        <v>117750</v>
+      </c>
+      <c r="E133" t="n">
+        <v>136000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5188805.35010645</v>
+      </c>
+      <c r="G133" t="n">
+        <v>7065</v>
+      </c>
+      <c r="H133" t="n">
+        <v>119405</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.138980779699343</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.128933423316635</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B134" t="n">
+        <v>135750</v>
+      </c>
+      <c r="C134" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>130200</v>
+      </c>
+      <c r="E134" t="n">
+        <v>163300</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4532726.93718715</v>
+      </c>
+      <c r="G134" t="n">
+        <v>11640</v>
+      </c>
+      <c r="H134" t="n">
+        <v>142815</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.143437314007632</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.290864601250615</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B135" t="n">
+        <v>163300</v>
+      </c>
+      <c r="C135" t="n">
+        <v>218000</v>
+      </c>
+      <c r="D135" t="n">
+        <v>162900</v>
+      </c>
+      <c r="E135" t="n">
+        <v>181100</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7048818.71985031</v>
+      </c>
+      <c r="G135" t="n">
+        <v>16530</v>
+      </c>
+      <c r="H135" t="n">
+        <v>174940</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.035212072710644</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.336318619449448</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>KRW-BTG</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B136" t="n">
+        <v>144</v>
+      </c>
+      <c r="C136" t="n">
+        <v>159</v>
+      </c>
+      <c r="D136" t="n">
+        <v>142</v>
+      </c>
+      <c r="E136" t="n">
+        <v>157</v>
+      </c>
+      <c r="F136" t="n">
+        <v>684198140.2134452</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>KRW-TRX</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B137" t="n">
+        <v>157</v>
+      </c>
+      <c r="C137" t="n">
+        <v>159</v>
+      </c>
+      <c r="D137" t="n">
+        <v>152</v>
+      </c>
+      <c r="E137" t="n">
+        <v>157</v>
+      </c>
+      <c r="F137" t="n">
+        <v>543527904.4562341</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>KRW-TRX</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B138" t="n">
+        <v>157</v>
+      </c>
+      <c r="C138" t="n">
+        <v>159</v>
+      </c>
+      <c r="D138" t="n">
+        <v>148</v>
+      </c>
+      <c r="E138" t="n">
+        <v>155</v>
+      </c>
+      <c r="F138" t="n">
+        <v>567952027.4910901</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H138" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>KRW-TRX</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B139" t="n">
+        <v>155</v>
+      </c>
+      <c r="C139" t="n">
+        <v>165</v>
+      </c>
+      <c r="D139" t="n">
+        <v>154</v>
+      </c>
+      <c r="E139" t="n">
+        <v>162</v>
+      </c>
+      <c r="F139" t="n">
+        <v>801228035.6226536</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H139" t="n">
+        <v>158.3</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.023373341756159</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.023373341756159</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>KRW-TRX</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B140" t="n">
+        <v>161</v>
+      </c>
+      <c r="C140" t="n">
+        <v>162</v>
+      </c>
+      <c r="D140" t="n">
+        <v>148</v>
+      </c>
+      <c r="E140" t="n">
+        <v>150</v>
+      </c>
+      <c r="F140" t="n">
+        <v>927337036.5803185</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H140" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.023373341756159</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>KRW-TRX</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B141" t="n">
+        <v>150</v>
+      </c>
+      <c r="C141" t="n">
+        <v>184</v>
+      </c>
+      <c r="D141" t="n">
+        <v>148</v>
+      </c>
+      <c r="E141" t="n">
         <v>175</v>
       </c>
-      <c r="C107" t="n">
-        <v>180</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="F141" t="n">
+        <v>1815761805.081804</v>
+      </c>
+      <c r="G141" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H141" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.134889753566797</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.161415919632476</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>KRW-TRX</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B142" t="n">
+        <v>175</v>
+      </c>
+      <c r="C142" t="n">
+        <v>190</v>
+      </c>
+      <c r="D142" t="n">
         <v>168</v>
       </c>
-      <c r="E107" t="n">
-        <v>171</v>
-      </c>
-      <c r="F107" t="n">
-        <v>804559554.6111341</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H107" t="n">
-        <v>178.6</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.9574468085106383</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.116764683357291</v>
-      </c>
-      <c r="K107" t="n">
-        <v>4.255319148936173</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="E142" t="n">
+        <v>186</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1913864918.025151</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.001076426264801</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.162666098232727</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>KRW-TRX</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B143" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C143" t="n">
+        <v>118350</v>
+      </c>
+      <c r="D143" t="n">
+        <v>105050</v>
+      </c>
+      <c r="E143" t="n">
+        <v>114200</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1536930.52445486</v>
+      </c>
+      <c r="G143" t="n">
+        <v>3990</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>KRW-NEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44317.375</v>
+      </c>
+      <c r="B144" t="n">
+        <v>114150</v>
+      </c>
+      <c r="C144" t="n">
+        <v>124450</v>
+      </c>
+      <c r="D144" t="n">
+        <v>111000</v>
+      </c>
+      <c r="E144" t="n">
+        <v>121650</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1708152.71886297</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4035</v>
+      </c>
+      <c r="H144" t="n">
+        <v>118140</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.029710512950736</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.029710512950736</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>KRW-NEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44318.375</v>
+      </c>
+      <c r="B145" t="n">
+        <v>121650</v>
+      </c>
+      <c r="C145" t="n">
+        <v>131900</v>
+      </c>
+      <c r="D145" t="n">
+        <v>116050</v>
+      </c>
+      <c r="E145" t="n">
+        <v>129150</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2505107.92687639</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4755</v>
+      </c>
+      <c r="H145" t="n">
+        <v>125685</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.027568922305764</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.058098522079704</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>KRW-NEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44319.375</v>
+      </c>
+      <c r="B146" t="n">
+        <v>129150</v>
+      </c>
+      <c r="C146" t="n">
+        <v>137550</v>
+      </c>
+      <c r="D146" t="n">
+        <v>128100</v>
+      </c>
+      <c r="E146" t="n">
+        <v>131250</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2105134.44243431</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2835</v>
+      </c>
+      <c r="H146" t="n">
+        <v>133905</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.9801725103618237</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.037119084596999</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1.982748963817634</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>KRW-NEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44320.375</v>
+      </c>
+      <c r="B147" t="n">
+        <v>131200</v>
+      </c>
+      <c r="C147" t="n">
+        <v>131600</v>
+      </c>
+      <c r="D147" t="n">
+        <v>117500</v>
+      </c>
+      <c r="E147" t="n">
+        <v>121250</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2692371.53096456</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4230</v>
+      </c>
+      <c r="H147" t="n">
+        <v>134035</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.037119084596999</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1.982748963817634</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>KRW-NEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44321.375</v>
+      </c>
+      <c r="B148" t="n">
+        <v>121350</v>
+      </c>
+      <c r="C148" t="n">
+        <v>141950</v>
+      </c>
+      <c r="D148" t="n">
+        <v>119500</v>
+      </c>
+      <c r="E148" t="n">
+        <v>137550</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3092047.27263344</v>
+      </c>
+      <c r="G148" t="n">
+        <v>6735</v>
+      </c>
+      <c r="H148" t="n">
+        <v>125580</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.095317725752508</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.135974917075308</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>KRW-NEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44322.375</v>
+      </c>
+      <c r="B149" t="n">
+        <v>137600</v>
+      </c>
+      <c r="C149" t="n">
+        <v>154900</v>
+      </c>
+      <c r="D149" t="n">
+        <v>131250</v>
+      </c>
+      <c r="E149" t="n">
+        <v>150100</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5040645.43765308</v>
+      </c>
+      <c r="G149" t="n">
+        <v>7095</v>
+      </c>
+      <c r="H149" t="n">
+        <v>144335</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.039941802057713</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.181347802355657</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>KRW-NEO</t>
         </is>
       </c>
     </row>
